--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R25_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R25_Pentropia.xlsx
@@ -655,7 +655,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.515050</t>
+          <t>2025-10-16T12:16:30.942403</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.515050</t>
+          <t>2025-10-16T12:16:30.943402</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.515050</t>
+          <t>2025-10-16T12:16:30.944403</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.515050</t>
+          <t>2025-10-16T12:16:30.944403</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.515050</t>
+          <t>2025-10-16T12:16:30.946406</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.515050</t>
+          <t>2025-10-16T12:16:30.946406</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.516047</t>
+          <t>2025-10-16T12:16:30.947405</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.516047</t>
+          <t>2025-10-16T12:16:30.950408</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.516047</t>
+          <t>2025-10-16T12:16:30.950408</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.516047</t>
+          <t>2025-10-16T12:16:30.951407</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.516047</t>
+          <t>2025-10-16T12:16:30.951407</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.516047</t>
+          <t>2025-10-16T12:16:30.951407</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.516047</t>
+          <t>2025-10-16T12:16:30.952406</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.516047</t>
+          <t>2025-10-16T12:16:30.952406</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.517046</t>
+          <t>2025-10-16T12:16:30.953402</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.517046</t>
+          <t>2025-10-16T12:16:30.953402</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.517046</t>
+          <t>2025-10-16T12:16:30.953402</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.517046</t>
+          <t>2025-10-16T12:16:30.954429</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.517046</t>
+          <t>2025-10-16T12:16:30.954429</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.517046</t>
+          <t>2025-10-16T12:16:30.956436</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.517046</t>
+          <t>2025-10-16T12:16:30.956436</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.517046</t>
+          <t>2025-10-16T12:16:30.957440</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.517046</t>
+          <t>2025-10-16T12:16:30.957440</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.518046</t>
+          <t>2025-10-16T12:16:30.958434</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.518046</t>
+          <t>2025-10-16T12:16:30.959533</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.518046</t>
+          <t>2025-10-16T12:16:30.959533</t>
         </is>
       </c>
     </row>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.518046</t>
+          <t>2025-10-16T12:16:30.960063</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.518046</t>
+          <t>2025-10-16T12:16:30.960063</t>
         </is>
       </c>
     </row>
@@ -3247,7 +3247,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.518046</t>
+          <t>2025-10-16T12:16:30.961060</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.518046</t>
+          <t>2025-10-16T12:16:30.961060</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.519051</t>
+          <t>2025-10-16T12:16:30.961060</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.519051</t>
+          <t>2025-10-16T12:16:30.961060</t>
         </is>
       </c>
     </row>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.519051</t>
+          <t>2025-10-16T12:16:30.963061</t>
         </is>
       </c>
     </row>
@@ -3713,7 +3713,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.519051</t>
+          <t>2025-10-16T12:16:30.963061</t>
         </is>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.519051</t>
+          <t>2025-10-16T12:16:30.963061</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.519051</t>
+          <t>2025-10-16T12:16:30.964061</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.519051</t>
+          <t>2025-10-16T12:16:30.972060</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.519051</t>
+          <t>2025-10-16T12:16:30.973076</t>
         </is>
       </c>
     </row>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.519051</t>
+          <t>2025-10-16T12:16:30.973076</t>
         </is>
       </c>
     </row>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.519051</t>
+          <t>2025-10-16T12:16:30.974060</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.520047</t>
+          <t>2025-10-16T12:16:30.974060</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.520047</t>
+          <t>2025-10-16T12:16:30.974060</t>
         </is>
       </c>
     </row>
@@ -4539,7 +4539,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.520047</t>
+          <t>2025-10-16T12:16:30.974060</t>
         </is>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.661573</t>
+          <t>2025-10-16T12:16:31.239151</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.662572</t>
+          <t>2025-10-16T12:16:31.239151</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.662572</t>
+          <t>2025-10-16T12:16:31.239151</t>
         </is>
       </c>
     </row>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.662572</t>
+          <t>2025-10-16T12:16:31.240150</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.663573</t>
+          <t>2025-10-16T12:16:31.240150</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.664573</t>
+          <t>2025-10-16T12:16:31.240150</t>
         </is>
       </c>
     </row>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.664573</t>
+          <t>2025-10-16T12:16:31.240150</t>
         </is>
       </c>
     </row>
@@ -5287,7 +5287,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.664573</t>
+          <t>2025-10-16T12:16:31.240150</t>
         </is>
       </c>
     </row>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.664573</t>
+          <t>2025-10-16T12:16:31.240150</t>
         </is>
       </c>
     </row>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.664573</t>
+          <t>2025-10-16T12:16:31.241151</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.665573</t>
+          <t>2025-10-16T12:16:31.241151</t>
         </is>
       </c>
     </row>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.665573</t>
+          <t>2025-10-16T12:16:31.241151</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.665573</t>
+          <t>2025-10-16T12:16:31.241151</t>
         </is>
       </c>
     </row>
@@ -5847,7 +5847,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.665573</t>
+          <t>2025-10-16T12:16:31.241151</t>
         </is>
       </c>
     </row>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.665573</t>
+          <t>2025-10-16T12:16:31.242156</t>
         </is>
       </c>
     </row>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.666574</t>
+          <t>2025-10-16T12:16:31.243238</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.666574</t>
+          <t>2025-10-16T12:16:31.243238</t>
         </is>
       </c>
     </row>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.667575</t>
+          <t>2025-10-16T12:16:31.243238</t>
         </is>
       </c>
     </row>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.667575</t>
+          <t>2025-10-16T12:16:31.243764</t>
         </is>
       </c>
     </row>
@@ -6407,7 +6407,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.668575</t>
+          <t>2025-10-16T12:16:31.243764</t>
         </is>
       </c>
     </row>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.668575</t>
+          <t>2025-10-16T12:16:31.243764</t>
         </is>
       </c>
     </row>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.668575</t>
+          <t>2025-10-16T12:16:31.243764</t>
         </is>
       </c>
     </row>
@@ -6685,7 +6685,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.668575</t>
+          <t>2025-10-16T12:16:31.243764</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.669710</t>
+          <t>2025-10-16T12:16:31.243764</t>
         </is>
       </c>
     </row>
@@ -6873,7 +6873,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.669710</t>
+          <t>2025-10-16T12:16:31.243764</t>
         </is>
       </c>
     </row>
@@ -6967,7 +6967,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.669710</t>
+          <t>2025-10-16T12:16:31.243764</t>
         </is>
       </c>
     </row>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.670719</t>
+          <t>2025-10-16T12:16:31.244764</t>
         </is>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.671715</t>
+          <t>2025-10-16T12:16:31.244764</t>
         </is>
       </c>
     </row>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.785227</t>
+          <t>2025-10-16T12:16:31.317738</t>
         </is>
       </c>
     </row>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.785227</t>
+          <t>2025-10-16T12:16:31.317738</t>
         </is>
       </c>
     </row>
@@ -7437,7 +7437,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.786242</t>
+          <t>2025-10-16T12:16:31.317738</t>
         </is>
       </c>
     </row>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.786242</t>
+          <t>2025-10-16T12:16:31.317738</t>
         </is>
       </c>
     </row>
@@ -7625,7 +7625,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.786242</t>
+          <t>2025-10-16T12:16:31.317738</t>
         </is>
       </c>
     </row>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.786242</t>
+          <t>2025-10-16T12:16:31.318738</t>
         </is>
       </c>
     </row>
@@ -7809,7 +7809,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.787242</t>
+          <t>2025-10-16T12:16:31.318738</t>
         </is>
       </c>
     </row>
@@ -7903,7 +7903,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.787242</t>
+          <t>2025-10-16T12:16:31.318738</t>
         </is>
       </c>
     </row>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.787242</t>
+          <t>2025-10-16T12:16:31.318738</t>
         </is>
       </c>
     </row>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.787242</t>
+          <t>2025-10-16T12:16:31.318738</t>
         </is>
       </c>
     </row>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.787242</t>
+          <t>2025-10-16T12:16:31.318738</t>
         </is>
       </c>
     </row>
@@ -8279,7 +8279,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.787242</t>
+          <t>2025-10-16T12:16:31.319738</t>
         </is>
       </c>
     </row>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.788242</t>
+          <t>2025-10-16T12:16:31.319738</t>
         </is>
       </c>
     </row>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.788242</t>
+          <t>2025-10-16T12:16:31.319738</t>
         </is>
       </c>
     </row>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.788242</t>
+          <t>2025-10-16T12:16:31.319738</t>
         </is>
       </c>
     </row>
@@ -8655,7 +8655,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.788242</t>
+          <t>2025-10-16T12:16:31.319738</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.788242</t>
+          <t>2025-10-16T12:16:31.319738</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.789241</t>
+          <t>2025-10-16T12:16:31.319738</t>
         </is>
       </c>
     </row>
@@ -8937,7 +8937,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.789241</t>
+          <t>2025-10-16T12:16:31.319738</t>
         </is>
       </c>
     </row>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.789241</t>
+          <t>2025-10-16T12:16:31.319738</t>
         </is>
       </c>
     </row>
@@ -9125,7 +9125,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.789241</t>
+          <t>2025-10-16T12:16:31.319738</t>
         </is>
       </c>
     </row>
@@ -9215,7 +9215,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.789241</t>
+          <t>2025-10-16T12:16:31.320738</t>
         </is>
       </c>
     </row>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.789241</t>
+          <t>2025-10-16T12:16:31.320738</t>
         </is>
       </c>
     </row>
@@ -9403,7 +9403,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.790239</t>
+          <t>2025-10-16T12:16:31.320738</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.790239</t>
+          <t>2025-10-16T12:16:31.320738</t>
         </is>
       </c>
     </row>
@@ -9587,7 +9587,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.790239</t>
+          <t>2025-10-16T12:16:31.320738</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.790239</t>
+          <t>2025-10-16T12:16:31.320738</t>
         </is>
       </c>
     </row>
@@ -9771,7 +9771,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.790239</t>
+          <t>2025-10-16T12:16:31.320738</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.871474</t>
+          <t>2025-10-16T12:16:31.391341</t>
         </is>
       </c>
     </row>
@@ -9959,7 +9959,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.871474</t>
+          <t>2025-10-16T12:16:31.391341</t>
         </is>
       </c>
     </row>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.871474</t>
+          <t>2025-10-16T12:16:31.391341</t>
         </is>
       </c>
     </row>
@@ -10147,7 +10147,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.871474</t>
+          <t>2025-10-16T12:16:31.391341</t>
         </is>
       </c>
     </row>
@@ -10237,7 +10237,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.871474</t>
+          <t>2025-10-16T12:16:31.392342</t>
         </is>
       </c>
     </row>
@@ -10331,7 +10331,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.872474</t>
+          <t>2025-10-16T12:16:31.392342</t>
         </is>
       </c>
     </row>
@@ -10425,7 +10425,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.872474</t>
+          <t>2025-10-16T12:16:31.392342</t>
         </is>
       </c>
     </row>
@@ -10519,7 +10519,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.872474</t>
+          <t>2025-10-16T12:16:31.392342</t>
         </is>
       </c>
     </row>
@@ -10613,7 +10613,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.873071</t>
+          <t>2025-10-16T12:16:31.392342</t>
         </is>
       </c>
     </row>
@@ -10707,7 +10707,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.873071</t>
+          <t>2025-10-16T12:16:31.392342</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R25_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R25_Pentropia.xlsx
@@ -655,7 +655,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.900250</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.900250</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.900250</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.901252</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.901252</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.901252</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.901252</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.901252</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.901252</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.901252</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.901252</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.902247</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.902247</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.902247</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.902247</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.902247</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.902247</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.902247</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.902247</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.902247</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.902247</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.903247</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.903247</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.903247</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.903247</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.903247</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.903247</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.903247</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.903247</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.904253</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.904253</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.904253</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.904253</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.904253</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.904253</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.904253</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.904253</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.904253</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.904253</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.905249</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.905249</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.905249</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.905249</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.905249</t>
+          <t>2025-10-17T07:09:32.480043</t>
         </is>
       </c>
     </row>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.985283</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.985283</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.986283</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.986283</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.986283</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.986283</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.986283</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.986283</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.986283</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.986283</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.986283</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.987282</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.987282</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -5965,7 +5965,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.987282</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -6055,7 +6055,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.987282</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.987282</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.987282</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -6333,7 +6333,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.987282</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.987282</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.988283</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.988283</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.988283</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.988283</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -6885,7 +6885,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.988283</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.988283</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.988283</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.988283</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.988283</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.989413</t>
+          <t>2025-10-17T07:09:32.592752</t>
         </is>
       </c>
     </row>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.075689</t>
+          <t>2025-10-17T07:09:32.713135</t>
         </is>
       </c>
     </row>
@@ -7543,7 +7543,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.075689</t>
+          <t>2025-10-17T07:09:32.714135</t>
         </is>
       </c>
     </row>
@@ -7637,7 +7637,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.075689</t>
+          <t>2025-10-17T07:09:32.714135</t>
         </is>
       </c>
     </row>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.075689</t>
+          <t>2025-10-17T07:09:32.714135</t>
         </is>
       </c>
     </row>
@@ -7825,7 +7825,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.075689</t>
+          <t>2025-10-17T07:09:32.714135</t>
         </is>
       </c>
     </row>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.075689</t>
+          <t>2025-10-17T07:09:32.714135</t>
         </is>
       </c>
     </row>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.075689</t>
+          <t>2025-10-17T07:09:32.714135</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.075689</t>
+          <t>2025-10-17T07:09:32.714135</t>
         </is>
       </c>
     </row>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.076690</t>
+          <t>2025-10-17T07:09:32.714135</t>
         </is>
       </c>
     </row>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.076690</t>
+          <t>2025-10-17T07:09:32.715135</t>
         </is>
       </c>
     </row>
@@ -8381,7 +8381,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.076690</t>
+          <t>2025-10-17T07:09:32.715135</t>
         </is>
       </c>
     </row>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.076690</t>
+          <t>2025-10-17T07:09:32.715135</t>
         </is>
       </c>
     </row>
@@ -8565,7 +8565,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.076690</t>
+          <t>2025-10-17T07:09:32.715135</t>
         </is>
       </c>
     </row>
@@ -8659,7 +8659,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.076690</t>
+          <t>2025-10-17T07:09:32.715135</t>
         </is>
       </c>
     </row>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.076690</t>
+          <t>2025-10-17T07:09:32.715135</t>
         </is>
       </c>
     </row>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.076690</t>
+          <t>2025-10-17T07:09:32.715135</t>
         </is>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.077689</t>
+          <t>2025-10-17T07:09:32.715135</t>
         </is>
       </c>
     </row>
@@ -9035,7 +9035,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.077689</t>
+          <t>2025-10-17T07:09:32.715135</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.077689</t>
+          <t>2025-10-17T07:09:32.715135</t>
         </is>
       </c>
     </row>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.077689</t>
+          <t>2025-10-17T07:09:32.715135</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.077689</t>
+          <t>2025-10-17T07:09:32.716135</t>
         </is>
       </c>
     </row>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.077689</t>
+          <t>2025-10-17T07:09:32.716135</t>
         </is>
       </c>
     </row>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.077689</t>
+          <t>2025-10-17T07:09:32.716135</t>
         </is>
       </c>
     </row>
@@ -9595,7 +9595,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.077689</t>
+          <t>2025-10-17T07:09:32.716135</t>
         </is>
       </c>
     </row>
@@ -9685,7 +9685,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.077689</t>
+          <t>2025-10-17T07:09:32.716135</t>
         </is>
       </c>
     </row>
@@ -9779,7 +9779,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.077689</t>
+          <t>2025-10-17T07:09:32.716135</t>
         </is>
       </c>
     </row>
@@ -9873,7 +9873,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.078784</t>
+          <t>2025-10-17T07:09:32.716135</t>
         </is>
       </c>
     </row>
@@ -9967,7 +9967,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.078784</t>
+          <t>2025-10-17T07:09:32.716135</t>
         </is>
       </c>
     </row>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.177212</t>
+          <t>2025-10-17T07:09:32.830037</t>
         </is>
       </c>
     </row>
@@ -10155,7 +10155,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.177212</t>
+          <t>2025-10-17T07:09:32.830037</t>
         </is>
       </c>
     </row>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.177212</t>
+          <t>2025-10-17T07:09:32.830037</t>
         </is>
       </c>
     </row>
@@ -10339,7 +10339,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.178213</t>
+          <t>2025-10-17T07:09:32.830037</t>
         </is>
       </c>
     </row>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.178213</t>
+          <t>2025-10-17T07:09:32.830037</t>
         </is>
       </c>
     </row>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.178213</t>
+          <t>2025-10-17T07:09:32.830037</t>
         </is>
       </c>
     </row>
@@ -10621,7 +10621,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.178213</t>
+          <t>2025-10-17T07:09:32.830037</t>
         </is>
       </c>
     </row>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.178213</t>
+          <t>2025-10-17T07:09:32.830037</t>
         </is>
       </c>
     </row>
@@ -10809,7 +10809,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.178213</t>
+          <t>2025-10-17T07:09:32.830037</t>
         </is>
       </c>
     </row>
@@ -10903,7 +10903,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:15.178213</t>
+          <t>2025-10-17T07:09:32.830037</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R25_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R25_Pentropia.xlsx
@@ -655,7 +655,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.930474</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.931472</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.931472</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.931472</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.931472</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.932474</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.932474</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.933475</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.933475</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.933475</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.933475</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.935475</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.936474</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.936474</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.936474</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.936474</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.936474</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.937473</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.937473</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.937473</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.937473</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.937473</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.938471</t>
         </is>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.938471</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.938471</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.938471</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.939472</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.939472</t>
         </is>
       </c>
     </row>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.944475</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.944475</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.944475</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.944475</t>
         </is>
       </c>
     </row>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.944475</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.945472</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.945472</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.945472</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.945472</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.945472</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.945472</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.946473</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.946473</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.946473</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.946473</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.480043</t>
+          <t>2025-10-19T23:55:46.946473</t>
         </is>
       </c>
     </row>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.189568</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.189568</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.189568</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.190567</t>
         </is>
       </c>
     </row>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.190567</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.190567</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.190567</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.190567</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.190567</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.191565</t>
         </is>
       </c>
     </row>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.191565</t>
         </is>
       </c>
     </row>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.191565</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.191565</t>
         </is>
       </c>
     </row>
@@ -5965,7 +5965,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.192567</t>
         </is>
       </c>
     </row>
@@ -6055,7 +6055,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.192567</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.192567</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.192567</t>
         </is>
       </c>
     </row>
@@ -6333,7 +6333,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.192567</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.192567</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.193565</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.193565</t>
         </is>
       </c>
     </row>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.193565</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.193565</t>
         </is>
       </c>
     </row>
@@ -6885,7 +6885,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.193565</t>
         </is>
       </c>
     </row>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.193565</t>
         </is>
       </c>
     </row>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.193565</t>
         </is>
       </c>
     </row>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.194565</t>
         </is>
       </c>
     </row>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.194565</t>
         </is>
       </c>
     </row>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.592752</t>
+          <t>2025-10-19T23:55:47.194565</t>
         </is>
       </c>
     </row>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.713135</t>
+          <t>2025-10-19T23:55:47.505459</t>
         </is>
       </c>
     </row>
@@ -7543,7 +7543,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.714135</t>
+          <t>2025-10-19T23:55:47.505459</t>
         </is>
       </c>
     </row>
@@ -7637,7 +7637,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.714135</t>
+          <t>2025-10-19T23:55:47.505459</t>
         </is>
       </c>
     </row>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.714135</t>
+          <t>2025-10-19T23:55:47.506457</t>
         </is>
       </c>
     </row>
@@ -7825,7 +7825,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.714135</t>
+          <t>2025-10-19T23:55:47.507464</t>
         </is>
       </c>
     </row>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.714135</t>
+          <t>2025-10-19T23:55:47.508453</t>
         </is>
       </c>
     </row>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.714135</t>
+          <t>2025-10-19T23:55:47.508984</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.714135</t>
+          <t>2025-10-19T23:55:47.508984</t>
         </is>
       </c>
     </row>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.714135</t>
+          <t>2025-10-19T23:55:47.508984</t>
         </is>
       </c>
     </row>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.715135</t>
+          <t>2025-10-19T23:55:47.508984</t>
         </is>
       </c>
     </row>
@@ -8381,7 +8381,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.715135</t>
+          <t>2025-10-19T23:55:47.508984</t>
         </is>
       </c>
     </row>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.715135</t>
+          <t>2025-10-19T23:55:47.508984</t>
         </is>
       </c>
     </row>
@@ -8565,7 +8565,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.715135</t>
+          <t>2025-10-19T23:55:47.509977</t>
         </is>
       </c>
     </row>
@@ -8659,7 +8659,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.715135</t>
+          <t>2025-10-19T23:55:47.509977</t>
         </is>
       </c>
     </row>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.715135</t>
+          <t>2025-10-19T23:55:47.509977</t>
         </is>
       </c>
     </row>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.715135</t>
+          <t>2025-10-19T23:55:47.509977</t>
         </is>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.715135</t>
+          <t>2025-10-19T23:55:47.509977</t>
         </is>
       </c>
     </row>
@@ -9035,7 +9035,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.715135</t>
+          <t>2025-10-19T23:55:47.509977</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.715135</t>
+          <t>2025-10-19T23:55:47.509977</t>
         </is>
       </c>
     </row>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.715135</t>
+          <t>2025-10-19T23:55:47.510979</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.716135</t>
+          <t>2025-10-19T23:55:47.510979</t>
         </is>
       </c>
     </row>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.716135</t>
+          <t>2025-10-19T23:55:47.510979</t>
         </is>
       </c>
     </row>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.716135</t>
+          <t>2025-10-19T23:55:47.510979</t>
         </is>
       </c>
     </row>
@@ -9595,7 +9595,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.716135</t>
+          <t>2025-10-19T23:55:47.511984</t>
         </is>
       </c>
     </row>
@@ -9685,7 +9685,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.716135</t>
+          <t>2025-10-19T23:55:47.511984</t>
         </is>
       </c>
     </row>
@@ -9779,7 +9779,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.716135</t>
+          <t>2025-10-19T23:55:47.511984</t>
         </is>
       </c>
     </row>
@@ -9873,7 +9873,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.716135</t>
+          <t>2025-10-19T23:55:47.511984</t>
         </is>
       </c>
     </row>
@@ -9967,7 +9967,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.716135</t>
+          <t>2025-10-19T23:55:47.511984</t>
         </is>
       </c>
     </row>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.830037</t>
+          <t>2025-10-19T23:55:47.659093</t>
         </is>
       </c>
     </row>
@@ -10155,7 +10155,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.830037</t>
+          <t>2025-10-19T23:55:47.659093</t>
         </is>
       </c>
     </row>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.830037</t>
+          <t>2025-10-19T23:55:47.659093</t>
         </is>
       </c>
     </row>
@@ -10339,7 +10339,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.830037</t>
+          <t>2025-10-19T23:55:47.659093</t>
         </is>
       </c>
     </row>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.830037</t>
+          <t>2025-10-19T23:55:47.659093</t>
         </is>
       </c>
     </row>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.830037</t>
+          <t>2025-10-19T23:55:47.660046</t>
         </is>
       </c>
     </row>
@@ -10621,7 +10621,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.830037</t>
+          <t>2025-10-19T23:55:47.660046</t>
         </is>
       </c>
     </row>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.830037</t>
+          <t>2025-10-19T23:55:47.660577</t>
         </is>
       </c>
     </row>
@@ -10809,7 +10809,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.830037</t>
+          <t>2025-10-19T23:55:47.660577</t>
         </is>
       </c>
     </row>
@@ -10903,7 +10903,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.830037</t>
+          <t>2025-10-19T23:55:47.660577</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R25_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R25_Pentropia.xlsx
@@ -64,6 +64,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2D7D9"/>
+          <bgColor rgb="FFF2D7D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -655,7 +665,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.930474</t>
+          <t>2025-10-20T01:22:09.954219</t>
         </is>
       </c>
     </row>
@@ -745,7 +755,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.931472</t>
+          <t>2025-10-20T01:22:09.954219</t>
         </is>
       </c>
     </row>
@@ -839,7 +849,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.931472</t>
+          <t>2025-10-20T01:22:09.954219</t>
         </is>
       </c>
     </row>
@@ -933,7 +943,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.931472</t>
+          <t>2025-10-20T01:22:09.955219</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1033,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.931472</t>
+          <t>2025-10-20T01:22:09.955219</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1127,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.932474</t>
+          <t>2025-10-20T01:22:09.955219</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1221,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.932474</t>
+          <t>2025-10-20T01:22:09.955219</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1311,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.933475</t>
+          <t>2025-10-20T01:22:09.955219</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1405,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.933475</t>
+          <t>2025-10-20T01:22:09.955219</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1495,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.933475</t>
+          <t>2025-10-20T01:22:09.955219</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1589,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.933475</t>
+          <t>2025-10-20T01:22:09.955219</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1679,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.935475</t>
+          <t>2025-10-20T01:22:09.955219</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1773,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.936474</t>
+          <t>2025-10-20T01:22:09.956218</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1867,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.936474</t>
+          <t>2025-10-20T01:22:09.956218</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1961,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.936474</t>
+          <t>2025-10-20T01:22:09.956218</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2051,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.936474</t>
+          <t>2025-10-20T01:22:09.956218</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2145,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.936474</t>
+          <t>2025-10-20T01:22:09.956218</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2239,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.937473</t>
+          <t>2025-10-20T01:22:09.956218</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2329,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.937473</t>
+          <t>2025-10-20T01:22:09.956218</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2423,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.937473</t>
+          <t>2025-10-20T01:22:09.956218</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2517,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.937473</t>
+          <t>2025-10-20T01:22:09.956218</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2611,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.937473</t>
+          <t>2025-10-20T01:22:09.956218</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2705,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.938471</t>
+          <t>2025-10-20T01:22:09.957218</t>
         </is>
       </c>
     </row>
@@ -2789,7 +2799,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.938471</t>
+          <t>2025-10-20T01:22:09.957218</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2889,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.938471</t>
+          <t>2025-10-20T01:22:09.957218</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2983,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.938471</t>
+          <t>2025-10-20T01:22:09.957218</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3077,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.939472</t>
+          <t>2025-10-20T01:22:09.957218</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3171,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.939472</t>
+          <t>2025-10-20T01:22:09.957218</t>
         </is>
       </c>
     </row>
@@ -3255,7 +3265,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.944475</t>
+          <t>2025-10-20T01:22:09.958219</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3355,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.944475</t>
+          <t>2025-10-20T01:22:09.958219</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3445,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.944475</t>
+          <t>2025-10-20T01:22:09.958219</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3539,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.944475</t>
+          <t>2025-10-20T01:22:09.958219</t>
         </is>
       </c>
     </row>
@@ -3623,7 +3633,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.944475</t>
+          <t>2025-10-20T01:22:09.958219</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3727,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.945472</t>
+          <t>2025-10-20T01:22:09.959224</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3821,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.945472</t>
+          <t>2025-10-20T01:22:09.959224</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3915,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.945472</t>
+          <t>2025-10-20T01:22:09.959224</t>
         </is>
       </c>
     </row>
@@ -3999,7 +4009,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.945472</t>
+          <t>2025-10-20T01:22:09.959224</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4099,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.945472</t>
+          <t>2025-10-20T01:22:09.959224</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4193,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.945472</t>
+          <t>2025-10-20T01:22:09.959224</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4287,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.946473</t>
+          <t>2025-10-20T01:22:09.959224</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4381,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.946473</t>
+          <t>2025-10-20T01:22:09.959224</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4471,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.946473</t>
+          <t>2025-10-20T01:22:09.960238</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4565,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.946473</t>
+          <t>2025-10-20T01:22:09.960238</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4659,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:46.946473</t>
+          <t>2025-10-20T01:22:09.960238</t>
         </is>
       </c>
     </row>
@@ -4743,7 +4753,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.189568</t>
+          <t>2025-10-20T01:22:10.017179</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4847,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.189568</t>
+          <t>2025-10-20T01:22:10.018179</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4941,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.189568</t>
+          <t>2025-10-20T01:22:10.018179</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5035,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.190567</t>
+          <t>2025-10-20T01:22:10.018179</t>
         </is>
       </c>
     </row>
@@ -5119,7 +5129,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.190567</t>
+          <t>2025-10-20T01:22:10.018179</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5223,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.190567</t>
+          <t>2025-10-20T01:22:10.018179</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5317,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.190567</t>
+          <t>2025-10-20T01:22:10.018179</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5411,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.190567</t>
+          <t>2025-10-20T01:22:10.018179</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5505,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.190567</t>
+          <t>2025-10-20T01:22:10.018179</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5599,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.191565</t>
+          <t>2025-10-20T01:22:10.018179</t>
         </is>
       </c>
     </row>
@@ -5683,7 +5693,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.191565</t>
+          <t>2025-10-20T01:22:10.019181</t>
         </is>
       </c>
     </row>
@@ -5777,7 +5787,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.191565</t>
+          <t>2025-10-20T01:22:10.019181</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5881,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.191565</t>
+          <t>2025-10-20T01:22:10.019181</t>
         </is>
       </c>
     </row>
@@ -5965,7 +5975,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.192567</t>
+          <t>2025-10-20T01:22:10.019181</t>
         </is>
       </c>
     </row>
@@ -6055,7 +6065,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.192567</t>
+          <t>2025-10-20T01:22:10.019181</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6159,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.192567</t>
+          <t>2025-10-20T01:22:10.019181</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6253,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.192567</t>
+          <t>2025-10-20T01:22:10.019181</t>
         </is>
       </c>
     </row>
@@ -6333,7 +6343,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.192567</t>
+          <t>2025-10-20T01:22:10.019181</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6433,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.192567</t>
+          <t>2025-10-20T01:22:10.019181</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6523,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.193565</t>
+          <t>2025-10-20T01:22:10.019181</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6617,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.193565</t>
+          <t>2025-10-20T01:22:10.020181</t>
         </is>
       </c>
     </row>
@@ -6701,7 +6711,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.193565</t>
+          <t>2025-10-20T01:22:10.020181</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6805,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.193565</t>
+          <t>2025-10-20T01:22:10.020181</t>
         </is>
       </c>
     </row>
@@ -6885,7 +6895,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.193565</t>
+          <t>2025-10-20T01:22:10.020181</t>
         </is>
       </c>
     </row>
@@ -6979,7 +6989,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.193565</t>
+          <t>2025-10-20T01:22:10.020181</t>
         </is>
       </c>
     </row>
@@ -7073,7 +7083,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.193565</t>
+          <t>2025-10-20T01:22:10.020181</t>
         </is>
       </c>
     </row>
@@ -7167,7 +7177,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.194565</t>
+          <t>2025-10-20T01:22:10.020181</t>
         </is>
       </c>
     </row>
@@ -7261,7 +7271,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.194565</t>
+          <t>2025-10-20T01:22:10.020181</t>
         </is>
       </c>
     </row>
@@ -7355,7 +7365,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.194565</t>
+          <t>2025-10-20T01:22:10.020181</t>
         </is>
       </c>
     </row>
@@ -7449,7 +7459,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.505459</t>
+          <t>2025-10-20T01:22:10.083814</t>
         </is>
       </c>
     </row>
@@ -7543,7 +7553,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.505459</t>
+          <t>2025-10-20T01:22:10.083814</t>
         </is>
       </c>
     </row>
@@ -7637,7 +7647,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.505459</t>
+          <t>2025-10-20T01:22:10.083814</t>
         </is>
       </c>
     </row>
@@ -7731,7 +7741,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.506457</t>
+          <t>2025-10-20T01:22:10.083814</t>
         </is>
       </c>
     </row>
@@ -7825,7 +7835,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.507464</t>
+          <t>2025-10-20T01:22:10.083814</t>
         </is>
       </c>
     </row>
@@ -7919,7 +7929,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.508453</t>
+          <t>2025-10-20T01:22:10.083814</t>
         </is>
       </c>
     </row>
@@ -8013,7 +8023,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.508984</t>
+          <t>2025-10-20T01:22:10.083814</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8113,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.508984</t>
+          <t>2025-10-20T01:22:10.083814</t>
         </is>
       </c>
     </row>
@@ -8197,7 +8207,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.508984</t>
+          <t>2025-10-20T01:22:10.084825</t>
         </is>
       </c>
     </row>
@@ -8291,7 +8301,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.508984</t>
+          <t>2025-10-20T01:22:10.084825</t>
         </is>
       </c>
     </row>
@@ -8381,7 +8391,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.508984</t>
+          <t>2025-10-20T01:22:10.084825</t>
         </is>
       </c>
     </row>
@@ -8475,7 +8485,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.508984</t>
+          <t>2025-10-20T01:22:10.084825</t>
         </is>
       </c>
     </row>
@@ -8565,7 +8575,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.509977</t>
+          <t>2025-10-20T01:22:10.084825</t>
         </is>
       </c>
     </row>
@@ -8659,7 +8669,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.509977</t>
+          <t>2025-10-20T01:22:10.084825</t>
         </is>
       </c>
     </row>
@@ -8753,7 +8763,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.509977</t>
+          <t>2025-10-20T01:22:10.084825</t>
         </is>
       </c>
     </row>
@@ -8847,7 +8857,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.509977</t>
+          <t>2025-10-20T01:22:10.084825</t>
         </is>
       </c>
     </row>
@@ -8941,7 +8951,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.509977</t>
+          <t>2025-10-20T01:22:10.084825</t>
         </is>
       </c>
     </row>
@@ -9035,7 +9045,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.509977</t>
+          <t>2025-10-20T01:22:10.085824</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9139,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.509977</t>
+          <t>2025-10-20T01:22:10.085824</t>
         </is>
       </c>
     </row>
@@ -9223,7 +9233,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.510979</t>
+          <t>2025-10-20T01:22:10.085824</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9323,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.510979</t>
+          <t>2025-10-20T01:22:10.085824</t>
         </is>
       </c>
     </row>
@@ -9407,7 +9417,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.510979</t>
+          <t>2025-10-20T01:22:10.085824</t>
         </is>
       </c>
     </row>
@@ -9501,7 +9511,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.510979</t>
+          <t>2025-10-20T01:22:10.085824</t>
         </is>
       </c>
     </row>
@@ -9595,7 +9605,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.511984</t>
+          <t>2025-10-20T01:22:10.085824</t>
         </is>
       </c>
     </row>
@@ -9685,7 +9695,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.511984</t>
+          <t>2025-10-20T01:22:10.085824</t>
         </is>
       </c>
     </row>
@@ -9779,7 +9789,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.511984</t>
+          <t>2025-10-20T01:22:10.085824</t>
         </is>
       </c>
     </row>
@@ -9873,7 +9883,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.511984</t>
+          <t>2025-10-20T01:22:10.085824</t>
         </is>
       </c>
     </row>
@@ -9967,7 +9977,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.511984</t>
+          <t>2025-10-20T01:22:10.086823</t>
         </is>
       </c>
     </row>
@@ -10061,7 +10071,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.659093</t>
+          <t>2025-10-20T01:22:10.145169</t>
         </is>
       </c>
     </row>
@@ -10155,7 +10165,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.659093</t>
+          <t>2025-10-20T01:22:10.145169</t>
         </is>
       </c>
     </row>
@@ -10249,7 +10259,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.659093</t>
+          <t>2025-10-20T01:22:10.146165</t>
         </is>
       </c>
     </row>
@@ -10339,7 +10349,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.659093</t>
+          <t>2025-10-20T01:22:10.146165</t>
         </is>
       </c>
     </row>
@@ -10433,7 +10443,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.659093</t>
+          <t>2025-10-20T01:22:10.146165</t>
         </is>
       </c>
     </row>
@@ -10527,7 +10537,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.660046</t>
+          <t>2025-10-20T01:22:10.146165</t>
         </is>
       </c>
     </row>
@@ -10621,7 +10631,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.660046</t>
+          <t>2025-10-20T01:22:10.146165</t>
         </is>
       </c>
     </row>
@@ -10715,7 +10725,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.660577</t>
+          <t>2025-10-20T01:22:10.146165</t>
         </is>
       </c>
     </row>
@@ -10809,7 +10819,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.660577</t>
+          <t>2025-10-20T01:22:10.146165</t>
         </is>
       </c>
     </row>
@@ -10903,11 +10913,16 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:47.660577</t>
+          <t>2025-10-20T01:22:10.146165</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:Z112">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>=$D2=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R25_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R25_Pentropia.xlsx
@@ -658,14 +658,14 @@
         <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4122554395138993</v>
+        <v>0.4443459042329746</v>
       </c>
       <c r="Y2" t="n">
         <v>26</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.954219</t>
+          <t>2025-10-23T11:29:50.081197</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.954219</t>
+          <t>2025-10-23T11:29:50.081747</t>
         </is>
       </c>
     </row>
@@ -842,14 +842,14 @@
         <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5215089703802877</v>
+        <v>0.5719880813472641</v>
       </c>
       <c r="Y4" t="n">
         <v>31</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.954219</t>
+          <t>2025-10-23T11:29:50.081747</t>
         </is>
       </c>
     </row>
@@ -936,14 +936,14 @@
         <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5931264066149118</v>
+        <v>0.5884403511369705</v>
       </c>
       <c r="Y5" t="n">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.955219</t>
+          <t>2025-10-23T11:29:50.081747</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.955219</t>
+          <t>2025-10-23T11:29:50.082361</t>
         </is>
       </c>
     </row>
@@ -1120,14 +1120,14 @@
         <v>3</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5068178838750884</v>
+        <v>0.7021494605155132</v>
       </c>
       <c r="Y7" t="n">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.955219</t>
+          <t>2025-10-23T11:29:50.082361</t>
         </is>
       </c>
     </row>
@@ -1214,14 +1214,14 @@
         <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5246596253655116</v>
+        <v>0.5700077155579598</v>
       </c>
       <c r="Y8" t="n">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.955219</t>
+          <t>2025-10-23T11:29:50.082914</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.955219</t>
+          <t>2025-10-23T11:29:50.082914</t>
         </is>
       </c>
     </row>
@@ -1398,14 +1398,14 @@
         <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>0.4195344228012768</v>
+        <v>0.4031932504440429</v>
       </c>
       <c r="Y10" t="n">
         <v>211</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.955219</t>
+          <t>2025-10-23T11:29:50.082914</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.955219</t>
+          <t>2025-10-23T11:29:50.083464</t>
         </is>
       </c>
     </row>
@@ -1582,14 +1582,14 @@
         <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5614880310328125</v>
+        <v>0.4648690042010548</v>
       </c>
       <c r="Y12" t="n">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.955219</t>
+          <t>2025-10-23T11:29:50.083464</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.955219</t>
+          <t>2025-10-23T11:29:50.084005</t>
         </is>
       </c>
     </row>
@@ -1766,14 +1766,14 @@
         <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>0.3609562516316058</v>
+        <v>0.4721461166512687</v>
       </c>
       <c r="Y14" t="n">
         <v>44</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.956218</t>
+          <t>2025-10-23T11:29:50.084589</t>
         </is>
       </c>
     </row>
@@ -1860,14 +1860,14 @@
         <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>0.4080867179076863</v>
+        <v>0.4987591192728781</v>
       </c>
       <c r="Y15" t="n">
         <v>175</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.956218</t>
+          <t>2025-10-23T11:29:50.085029</t>
         </is>
       </c>
     </row>
@@ -1954,14 +1954,14 @@
         <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>0.4221781641623663</v>
+        <v>0.4855082036717099</v>
       </c>
       <c r="Y16" t="n">
-        <v>233</v>
+        <v>15</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.956218</t>
+          <t>2025-10-23T11:29:50.085985</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.956218</t>
+          <t>2025-10-23T11:29:50.085985</t>
         </is>
       </c>
     </row>
@@ -2138,14 +2138,14 @@
         <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>0.5458014336081974</v>
+        <v>0.54226839054973</v>
       </c>
       <c r="Y18" t="n">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.956218</t>
+          <t>2025-10-23T11:29:50.086536</t>
         </is>
       </c>
     </row>
@@ -2232,14 +2232,14 @@
         <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>0.5657475018303859</v>
+        <v>0.507938426477816</v>
       </c>
       <c r="Y19" t="n">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.956218</t>
+          <t>2025-10-23T11:29:50.086858</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.956218</t>
+          <t>2025-10-23T11:29:50.087019</t>
         </is>
       </c>
     </row>
@@ -2416,14 +2416,14 @@
         <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>0.3880304987479203</v>
+        <v>0.3482050932052023</v>
       </c>
       <c r="Y21" t="n">
         <v>95</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.956218</t>
+          <t>2025-10-23T11:29:50.087019</t>
         </is>
       </c>
     </row>
@@ -2510,14 +2510,14 @@
         <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>0.4130103185970559</v>
+        <v>0.4900998503939086</v>
       </c>
       <c r="Y22" t="n">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.956218</t>
+          <t>2025-10-23T11:29:50.087531</t>
         </is>
       </c>
     </row>
@@ -2604,14 +2604,14 @@
         <v>3</v>
       </c>
       <c r="X23" t="n">
-        <v>0.5859395304685147</v>
+        <v>0.5760935678030515</v>
       </c>
       <c r="Y23" t="n">
         <v>176</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.956218</t>
+          <t>2025-10-23T11:29:50.087531</t>
         </is>
       </c>
     </row>
@@ -2698,14 +2698,14 @@
         <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>0.382076584607126</v>
+        <v>0.4208834758555635</v>
       </c>
       <c r="Y24" t="n">
         <v>7</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.957218</t>
+          <t>2025-10-23T11:29:50.087531</t>
         </is>
       </c>
     </row>
@@ -2792,14 +2792,14 @@
         <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>0.5630922856909668</v>
+        <v>0.4028159645430169</v>
       </c>
       <c r="Y25" t="n">
         <v>114</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.957218</t>
+          <t>2025-10-23T11:29:50.088069</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.957218</t>
+          <t>2025-10-23T11:29:50.088316</t>
         </is>
       </c>
     </row>
@@ -2976,14 +2976,14 @@
         <v>1</v>
       </c>
       <c r="X27" t="n">
-        <v>0.4561869019374762</v>
+        <v>0.5930510614528276</v>
       </c>
       <c r="Y27" t="n">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.957218</t>
+          <t>2025-10-23T11:29:50.088613</t>
         </is>
       </c>
     </row>
@@ -3070,14 +3070,14 @@
         <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>0.4944429850323899</v>
+        <v>0.5122486851695403</v>
       </c>
       <c r="Y28" t="n">
         <v>60</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.957218</t>
+          <t>2025-10-23T11:29:50.088613</t>
         </is>
       </c>
     </row>
@@ -3164,14 +3164,14 @@
         <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>0.6636006949943728</v>
+        <v>0.371259567615395</v>
       </c>
       <c r="Y29" t="n">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.957218</t>
+          <t>2025-10-23T11:29:50.089146</t>
         </is>
       </c>
     </row>
@@ -3258,14 +3258,14 @@
         <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>0.5684569549189997</v>
+        <v>0.5939169255529118</v>
       </c>
       <c r="Y30" t="n">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.958219</t>
+          <t>2025-10-23T11:29:50.089146</t>
         </is>
       </c>
     </row>
@@ -3355,7 +3355,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.958219</t>
+          <t>2025-10-23T11:29:50.089146</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.958219</t>
+          <t>2025-10-23T11:29:50.089678</t>
         </is>
       </c>
     </row>
@@ -3532,14 +3532,14 @@
         <v>2</v>
       </c>
       <c r="X33" t="n">
-        <v>0.3579502905827536</v>
+        <v>0.4197730932977072</v>
       </c>
       <c r="Y33" t="n">
         <v>218</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.958219</t>
+          <t>2025-10-23T11:29:50.089678</t>
         </is>
       </c>
     </row>
@@ -3626,14 +3626,14 @@
         <v>2</v>
       </c>
       <c r="X34" t="n">
-        <v>0.3455870325083883</v>
+        <v>0.3544264498769271</v>
       </c>
       <c r="Y34" t="n">
         <v>21</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.958219</t>
+          <t>2025-10-23T11:29:50.090211</t>
         </is>
       </c>
     </row>
@@ -3720,14 +3720,14 @@
         <v>1</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4127116700572048</v>
+        <v>0.4190820232980823</v>
       </c>
       <c r="Y35" t="n">
         <v>53</v>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.959224</t>
+          <t>2025-10-23T11:29:50.090211</t>
         </is>
       </c>
     </row>
@@ -3814,14 +3814,14 @@
         <v>2</v>
       </c>
       <c r="X36" t="n">
-        <v>0.4275114942710426</v>
+        <v>0.4182595575415454</v>
       </c>
       <c r="Y36" t="n">
         <v>111</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.959224</t>
+          <t>2025-10-23T11:29:50.090718</t>
         </is>
       </c>
     </row>
@@ -3908,14 +3908,14 @@
         <v>2</v>
       </c>
       <c r="X37" t="n">
-        <v>0.5454543991712841</v>
+        <v>0.519579995762217</v>
       </c>
       <c r="Y37" t="n">
         <v>208</v>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.959224</t>
+          <t>2025-10-23T11:29:50.090789</t>
         </is>
       </c>
     </row>
@@ -4002,14 +4002,14 @@
         <v>2</v>
       </c>
       <c r="X38" t="n">
-        <v>0.3239730734667365</v>
+        <v>0.4384872065780541</v>
       </c>
       <c r="Y38" t="n">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.959224</t>
+          <t>2025-10-23T11:29:50.090789</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.959224</t>
+          <t>2025-10-23T11:29:50.091301</t>
         </is>
       </c>
     </row>
@@ -4186,14 +4186,14 @@
         <v>4</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4628711962152653</v>
+        <v>0.4950740446364224</v>
       </c>
       <c r="Y40" t="n">
         <v>123</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.959224</t>
+          <t>2025-10-23T11:29:50.091301</t>
         </is>
       </c>
     </row>
@@ -4280,14 +4280,14 @@
         <v>2</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4777354579378964</v>
+        <v>0.5689067697356303</v>
       </c>
       <c r="Y41" t="n">
         <v>21</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.959224</t>
+          <t>2025-10-23T11:29:50.091301</t>
         </is>
       </c>
     </row>
@@ -4374,14 +4374,14 @@
         <v>1</v>
       </c>
       <c r="X42" t="n">
-        <v>0.560439396150808</v>
+        <v>0.4592547011408165</v>
       </c>
       <c r="Y42" t="n">
         <v>223</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.959224</t>
+          <t>2025-10-23T11:29:50.091301</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.960238</t>
+          <t>2025-10-23T11:29:50.091301</t>
         </is>
       </c>
     </row>
@@ -4558,14 +4558,14 @@
         <v>2</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4457596330983245</v>
+        <v>0.4406122449469539</v>
       </c>
       <c r="Y44" t="n">
         <v>46</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.960238</t>
+          <t>2025-10-23T11:29:50.091301</t>
         </is>
       </c>
     </row>
@@ -4652,14 +4652,14 @@
         <v>5</v>
       </c>
       <c r="X45" t="n">
-        <v>0.5885819407825038</v>
+        <v>0.4488251044495549</v>
       </c>
       <c r="Y45" t="n">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:09.960238</t>
+          <t>2025-10-23T11:29:50.091301</t>
         </is>
       </c>
     </row>
@@ -4746,14 +4746,14 @@
         <v>2</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4479123781333945</v>
+        <v>0.5268702689402728</v>
       </c>
       <c r="Y46" t="n">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.017179</t>
+          <t>2025-10-23T11:29:50.237404</t>
         </is>
       </c>
     </row>
@@ -4840,14 +4840,14 @@
         <v>2</v>
       </c>
       <c r="X47" t="n">
-        <v>0.4978905520555126</v>
+        <v>0.5061869166634273</v>
       </c>
       <c r="Y47" t="n">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.018179</t>
+          <t>2025-10-23T11:29:50.237404</t>
         </is>
       </c>
     </row>
@@ -4934,14 +4934,14 @@
         <v>5</v>
       </c>
       <c r="X48" t="n">
-        <v>0.4329311706285884</v>
+        <v>0.4013904261062382</v>
       </c>
       <c r="Y48" t="n">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.018179</t>
+          <t>2025-10-23T11:29:50.237404</t>
         </is>
       </c>
     </row>
@@ -5028,14 +5028,14 @@
         <v>5</v>
       </c>
       <c r="X49" t="n">
-        <v>0.4153959819657586</v>
+        <v>0.5885707141115961</v>
       </c>
       <c r="Y49" t="n">
         <v>79</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.018179</t>
+          <t>2025-10-23T11:29:50.237404</t>
         </is>
       </c>
     </row>
@@ -5122,14 +5122,14 @@
         <v>2</v>
       </c>
       <c r="X50" t="n">
-        <v>0.5995480970097884</v>
+        <v>0.4569680988754936</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.018179</t>
+          <t>2025-10-23T11:29:50.251016</t>
         </is>
       </c>
     </row>
@@ -5216,14 +5216,14 @@
         <v>1</v>
       </c>
       <c r="X51" t="n">
-        <v>0.5185393447758787</v>
+        <v>0.4484110543023001</v>
       </c>
       <c r="Y51" t="n">
         <v>144</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.018179</t>
+          <t>2025-10-23T11:29:50.252031</t>
         </is>
       </c>
     </row>
@@ -5310,14 +5310,14 @@
         <v>6</v>
       </c>
       <c r="X52" t="n">
-        <v>0.5424541179848884</v>
+        <v>0.4994497011784771</v>
       </c>
       <c r="Y52" t="n">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.018179</t>
+          <t>2025-10-23T11:29:50.252031</t>
         </is>
       </c>
     </row>
@@ -5404,14 +5404,14 @@
         <v>3</v>
       </c>
       <c r="X53" t="n">
-        <v>0.4028159645430169</v>
+        <v>0.4011044234247205</v>
       </c>
       <c r="Y53" t="n">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.018179</t>
+          <t>2025-10-23T11:29:50.252031</t>
         </is>
       </c>
     </row>
@@ -5498,14 +5498,14 @@
         <v>2</v>
       </c>
       <c r="X54" t="n">
-        <v>0.4444215620941461</v>
+        <v>0.4969659942717967</v>
       </c>
       <c r="Y54" t="n">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.018179</t>
+          <t>2025-10-23T11:29:50.253014</t>
         </is>
       </c>
     </row>
@@ -5592,14 +5592,14 @@
         <v>4</v>
       </c>
       <c r="X55" t="n">
-        <v>0.4591267371675428</v>
+        <v>0.5616240759128834</v>
       </c>
       <c r="Y55" t="n">
         <v>175</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.018179</t>
+          <t>2025-10-23T11:29:50.253014</t>
         </is>
       </c>
     </row>
@@ -5686,14 +5686,14 @@
         <v>3</v>
       </c>
       <c r="X56" t="n">
-        <v>0.5614880310328125</v>
+        <v>0.4648690042010548</v>
       </c>
       <c r="Y56" t="n">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.019181</t>
+          <t>2025-10-23T11:29:50.253014</t>
         </is>
       </c>
     </row>
@@ -5780,14 +5780,14 @@
         <v>2</v>
       </c>
       <c r="X57" t="n">
-        <v>0.4833019895740732</v>
+        <v>0.4373140117772072</v>
       </c>
       <c r="Y57" t="n">
         <v>154</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.019181</t>
+          <t>2025-10-23T11:29:50.254011</t>
         </is>
       </c>
     </row>
@@ -5874,14 +5874,14 @@
         <v>3</v>
       </c>
       <c r="X58" t="n">
-        <v>0.4062858371373469</v>
+        <v>0.4403438404670793</v>
       </c>
       <c r="Y58" t="n">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.019181</t>
+          <t>2025-10-23T11:29:50.254067</t>
         </is>
       </c>
     </row>
@@ -5968,14 +5968,14 @@
         <v>1</v>
       </c>
       <c r="X59" t="n">
-        <v>0.4080867179076863</v>
+        <v>0.4987591192728781</v>
       </c>
       <c r="Y59" t="n">
         <v>45</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.019181</t>
+          <t>2025-10-23T11:29:50.254067</t>
         </is>
       </c>
     </row>
@@ -6065,7 +6065,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.019181</t>
+          <t>2025-10-23T11:29:50.254067</t>
         </is>
       </c>
     </row>
@@ -6152,14 +6152,14 @@
         <v>5</v>
       </c>
       <c r="X61" t="n">
-        <v>0.4646405864041511</v>
+        <v>0.4336582084345861</v>
       </c>
       <c r="Y61" t="n">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.019181</t>
+          <t>2025-10-23T11:29:50.254067</t>
         </is>
       </c>
     </row>
@@ -6246,14 +6246,14 @@
         <v>2</v>
       </c>
       <c r="X62" t="n">
-        <v>0.4176985004103839</v>
+        <v>0.4653081537611671</v>
       </c>
       <c r="Y62" t="n">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.019181</t>
+          <t>2025-10-23T11:29:50.254067</t>
         </is>
       </c>
     </row>
@@ -6343,7 +6343,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.019181</t>
+          <t>2025-10-23T11:29:50.254067</t>
         </is>
       </c>
     </row>
@@ -6433,7 +6433,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.019181</t>
+          <t>2025-10-23T11:29:50.254067</t>
         </is>
       </c>
     </row>
@@ -6523,7 +6523,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.019181</t>
+          <t>2025-10-23T11:29:50.254067</t>
         </is>
       </c>
     </row>
@@ -6610,14 +6610,14 @@
         <v>5</v>
       </c>
       <c r="X66" t="n">
-        <v>0.5606279512759792</v>
+        <v>0.5456432697223719</v>
       </c>
       <c r="Y66" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.020181</t>
+          <t>2025-10-23T11:29:50.254067</t>
         </is>
       </c>
     </row>
@@ -6704,14 +6704,14 @@
         <v>3</v>
       </c>
       <c r="X67" t="n">
-        <v>0.5657475018303859</v>
+        <v>0.507938426477816</v>
       </c>
       <c r="Y67" t="n">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.020181</t>
+          <t>2025-10-23T11:29:50.254067</t>
         </is>
       </c>
     </row>
@@ -6798,14 +6798,14 @@
         <v>3</v>
       </c>
       <c r="X68" t="n">
-        <v>0.4675230342807256</v>
+        <v>0.4538824667597043</v>
       </c>
       <c r="Y68" t="n">
         <v>126</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.020181</t>
+          <t>2025-10-23T11:29:50.254067</t>
         </is>
       </c>
     </row>
@@ -6895,7 +6895,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.020181</t>
+          <t>2025-10-23T11:29:50.254067</t>
         </is>
       </c>
     </row>
@@ -6982,14 +6982,14 @@
         <v>4</v>
       </c>
       <c r="X70" t="n">
-        <v>0.4913069140965821</v>
+        <v>0.5742921180375435</v>
       </c>
       <c r="Y70" t="n">
         <v>221</v>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.020181</t>
+          <t>2025-10-23T11:29:50.254067</t>
         </is>
       </c>
     </row>
@@ -7076,14 +7076,14 @@
         <v>4</v>
       </c>
       <c r="X71" t="n">
-        <v>0.4557292928473223</v>
+        <v>0.4066101465801097</v>
       </c>
       <c r="Y71" t="n">
-        <v>234</v>
+        <v>4</v>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.020181</t>
+          <t>2025-10-23T11:29:50.259081</t>
         </is>
       </c>
     </row>
@@ -7170,14 +7170,14 @@
         <v>4</v>
       </c>
       <c r="X72" t="n">
-        <v>0.4739308912122809</v>
+        <v>0.5523239230657435</v>
       </c>
       <c r="Y72" t="n">
         <v>33</v>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.020181</t>
+          <t>2025-10-23T11:29:50.259081</t>
         </is>
       </c>
     </row>
@@ -7264,14 +7264,14 @@
         <v>1</v>
       </c>
       <c r="X73" t="n">
-        <v>0.4807672342116082</v>
+        <v>0.5406037917790356</v>
       </c>
       <c r="Y73" t="n">
         <v>199</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.020181</t>
+          <t>2025-10-23T11:29:50.259081</t>
         </is>
       </c>
     </row>
@@ -7358,14 +7358,14 @@
         <v>3</v>
       </c>
       <c r="X74" t="n">
-        <v>0.4705137712668338</v>
+        <v>0.5636029531844986</v>
       </c>
       <c r="Y74" t="n">
-        <v>4</v>
+        <v>213</v>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.020181</t>
+          <t>2025-10-23T11:29:50.259081</t>
         </is>
       </c>
     </row>
@@ -7452,14 +7452,14 @@
         <v>1</v>
       </c>
       <c r="X75" t="n">
-        <v>0.4479123781333945</v>
+        <v>0.5268702689402728</v>
       </c>
       <c r="Y75" t="n">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.083814</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -7546,14 +7546,14 @@
         <v>2</v>
       </c>
       <c r="X76" t="n">
-        <v>0.4978905520555126</v>
+        <v>0.5061869166634273</v>
       </c>
       <c r="Y76" t="n">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.083814</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -7640,14 +7640,14 @@
         <v>4</v>
       </c>
       <c r="X77" t="n">
-        <v>0.476585374950758</v>
+        <v>0.4944429850323899</v>
       </c>
       <c r="Y77" t="n">
         <v>88</v>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.083814</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -7734,14 +7734,14 @@
         <v>5</v>
       </c>
       <c r="X78" t="n">
-        <v>0.4153959819657586</v>
+        <v>0.5885707141115961</v>
       </c>
       <c r="Y78" t="n">
         <v>126</v>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.083814</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -7828,14 +7828,14 @@
         <v>3</v>
       </c>
       <c r="X79" t="n">
-        <v>0.5966846281789686</v>
+        <v>0.5264611661187159</v>
       </c>
       <c r="Y79" t="n">
         <v>191</v>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.083814</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -7922,14 +7922,14 @@
         <v>1</v>
       </c>
       <c r="X80" t="n">
-        <v>0.5185393447758787</v>
+        <v>0.4484110543023001</v>
       </c>
       <c r="Y80" t="n">
         <v>119</v>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.083814</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -8016,14 +8016,14 @@
         <v>8</v>
       </c>
       <c r="X81" t="n">
-        <v>0.5424541179848884</v>
+        <v>0.4994497011784771</v>
       </c>
       <c r="Y81" t="n">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.083814</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -8113,7 +8113,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.083814</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -8200,14 +8200,14 @@
         <v>3</v>
       </c>
       <c r="X83" t="n">
-        <v>0.4028159645430169</v>
+        <v>0.4011044234247205</v>
       </c>
       <c r="Y83" t="n">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.084825</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -8294,14 +8294,14 @@
         <v>3</v>
       </c>
       <c r="X84" t="n">
-        <v>0.4727259204758588</v>
+        <v>0.4807672342116082</v>
       </c>
       <c r="Y84" t="n">
         <v>174</v>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.084825</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.084825</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -8478,14 +8478,14 @@
         <v>4</v>
       </c>
       <c r="X86" t="n">
-        <v>0.4591267371675428</v>
+        <v>0.5616240759128834</v>
       </c>
       <c r="Y86" t="n">
         <v>83</v>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.084825</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -8575,7 +8575,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.084825</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -8662,14 +8662,14 @@
         <v>3</v>
       </c>
       <c r="X88" t="n">
-        <v>0.5614880310328125</v>
+        <v>0.4648690042010548</v>
       </c>
       <c r="Y88" t="n">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.084825</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -8756,14 +8756,14 @@
         <v>2</v>
       </c>
       <c r="X89" t="n">
-        <v>0.4833019895740732</v>
+        <v>0.4373140117772072</v>
       </c>
       <c r="Y89" t="n">
         <v>221</v>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.084825</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -8850,14 +8850,14 @@
         <v>3</v>
       </c>
       <c r="X90" t="n">
-        <v>0.4062858371373469</v>
+        <v>0.4403438404670793</v>
       </c>
       <c r="Y90" t="n">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.084825</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -8944,14 +8944,14 @@
         <v>1</v>
       </c>
       <c r="X91" t="n">
-        <v>0.4080867179076863</v>
+        <v>0.4987591192728781</v>
       </c>
       <c r="Y91" t="n">
         <v>45</v>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.084825</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -9038,14 +9038,14 @@
         <v>5</v>
       </c>
       <c r="X92" t="n">
-        <v>0.4646405864041511</v>
+        <v>0.4336582084345861</v>
       </c>
       <c r="Y92" t="n">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.085824</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -9132,14 +9132,14 @@
         <v>3</v>
       </c>
       <c r="X93" t="n">
-        <v>0.4301435087930859</v>
+        <v>0.5670604991178476</v>
       </c>
       <c r="Y93" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.085824</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -9226,14 +9226,14 @@
         <v>5</v>
       </c>
       <c r="X94" t="n">
-        <v>0.5606279512759792</v>
+        <v>0.5456432697223719</v>
       </c>
       <c r="Y94" t="n">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.085824</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -9323,7 +9323,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.085824</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -9410,14 +9410,14 @@
         <v>3</v>
       </c>
       <c r="X96" t="n">
-        <v>0.5657475018303859</v>
+        <v>0.507938426477816</v>
       </c>
       <c r="Y96" t="n">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.085824</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -9504,14 +9504,14 @@
         <v>3</v>
       </c>
       <c r="X97" t="n">
-        <v>0.4675230342807256</v>
+        <v>0.4538824667597043</v>
       </c>
       <c r="Y97" t="n">
         <v>154</v>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.085824</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -9598,14 +9598,14 @@
         <v>1</v>
       </c>
       <c r="X98" t="n">
-        <v>0.5721461166512687</v>
+        <v>0.4705137712668338</v>
       </c>
       <c r="Y98" t="n">
         <v>230</v>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.085824</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -9695,7 +9695,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.085824</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -9782,14 +9782,14 @@
         <v>4</v>
       </c>
       <c r="X100" t="n">
-        <v>0.4913069140965821</v>
+        <v>0.5742921180375435</v>
       </c>
       <c r="Y100" t="n">
         <v>181</v>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.085824</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -9876,14 +9876,14 @@
         <v>5</v>
       </c>
       <c r="X101" t="n">
-        <v>0.5632863746438768</v>
+        <v>0.5071549368149517</v>
       </c>
       <c r="Y101" t="n">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.085824</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -9970,14 +9970,14 @@
         <v>4</v>
       </c>
       <c r="X102" t="n">
-        <v>0.4739308912122809</v>
+        <v>0.5523239230657435</v>
       </c>
       <c r="Y102" t="n">
         <v>29</v>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.086823</t>
+          <t>2025-10-23T11:29:50.390189</t>
         </is>
       </c>
     </row>
@@ -10064,14 +10064,14 @@
         <v>14</v>
       </c>
       <c r="X103" t="n">
-        <v>0.4650799396318536</v>
+        <v>0.4987787430366869</v>
       </c>
       <c r="Y103" t="n">
         <v>192</v>
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.145169</t>
+          <t>2025-10-23T11:29:50.497337</t>
         </is>
       </c>
     </row>
@@ -10158,14 +10158,14 @@
         <v>11</v>
       </c>
       <c r="X104" t="n">
-        <v>0.4896848285972495</v>
+        <v>0.5383790395385386</v>
       </c>
       <c r="Y104" t="n">
         <v>0</v>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.145169</t>
+          <t>2025-10-23T11:29:50.497337</t>
         </is>
       </c>
     </row>
@@ -10252,14 +10252,14 @@
         <v>14</v>
       </c>
       <c r="X105" t="n">
-        <v>0.5693322284476612</v>
+        <v>0.5451911357740479</v>
       </c>
       <c r="Y105" t="n">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.146165</t>
+          <t>2025-10-23T11:29:50.497337</t>
         </is>
       </c>
     </row>
@@ -10349,7 +10349,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.146165</t>
+          <t>2025-10-23T11:29:50.497337</t>
         </is>
       </c>
     </row>
@@ -10436,14 +10436,14 @@
         <v>7</v>
       </c>
       <c r="X107" t="n">
-        <v>0.5299265798094429</v>
+        <v>0.473293756916572</v>
       </c>
       <c r="Y107" t="n">
         <v>24</v>
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.146165</t>
+          <t>2025-10-23T11:29:50.498340</t>
         </is>
       </c>
     </row>
@@ -10530,14 +10530,14 @@
         <v>5</v>
       </c>
       <c r="X108" t="n">
-        <v>0.576527268637868</v>
+        <v>0.5800836114326661</v>
       </c>
       <c r="Y108" t="n">
         <v>78</v>
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.146165</t>
+          <t>2025-10-23T11:29:50.498340</t>
         </is>
       </c>
     </row>
@@ -10624,14 +10624,14 @@
         <v>9</v>
       </c>
       <c r="X109" t="n">
-        <v>0.4081550283109528</v>
+        <v>0.5391625613581763</v>
       </c>
       <c r="Y109" t="n">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.146165</t>
+          <t>2025-10-23T11:29:50.498340</t>
         </is>
       </c>
     </row>
@@ -10718,14 +10718,14 @@
         <v>14</v>
       </c>
       <c r="X110" t="n">
-        <v>0.5315225784600687</v>
+        <v>0.5441879848504259</v>
       </c>
       <c r="Y110" t="n">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.146165</t>
+          <t>2025-10-23T11:29:50.498340</t>
         </is>
       </c>
     </row>
@@ -10812,14 +10812,14 @@
         <v>7</v>
       </c>
       <c r="X111" t="n">
-        <v>0.516137324287291</v>
+        <v>0.5212858119319179</v>
       </c>
       <c r="Y111" t="n">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.146165</t>
+          <t>2025-10-23T11:29:50.498340</t>
         </is>
       </c>
     </row>
@@ -10906,14 +10906,14 @@
         <v>13</v>
       </c>
       <c r="X112" t="n">
-        <v>0.5424358442695072</v>
+        <v>0.4351850505354691</v>
       </c>
       <c r="Y112" t="n">
         <v>203</v>
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:10.146165</t>
+          <t>2025-10-23T11:29:50.498340</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R25_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R25_Pentropia.xlsx
@@ -665,7 +665,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.081197</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.081747</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.081747</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.081747</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.082361</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.082361</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.082914</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.082914</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.082914</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.083464</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.083464</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.084005</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.084589</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.085029</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.085985</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.085985</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.086536</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.086858</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.087019</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.087019</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.087531</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.087531</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.087531</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.088069</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.088316</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.088613</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.088613</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.089146</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.089146</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -3355,7 +3355,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.089146</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.089678</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.089678</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.090211</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.090211</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.090718</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.090789</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.090789</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.091301</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.091301</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.091301</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.091301</t>
+          <t>2025-10-23T12:45:51.636457</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.091301</t>
+          <t>2025-10-23T12:45:51.652366</t>
         </is>
       </c>
     </row>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.091301</t>
+          <t>2025-10-23T12:45:51.652892</t>
         </is>
       </c>
     </row>
@@ -4659,7 +4659,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.091301</t>
+          <t>2025-10-23T12:45:51.652892</t>
         </is>
       </c>
     </row>
@@ -4753,7 +4753,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.237404</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.237404</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.237404</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.237404</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.251016</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.252031</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.252031</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.252031</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.253014</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.253014</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.253014</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.254011</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.254067</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -5975,7 +5975,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.254067</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -6065,7 +6065,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.254067</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.254067</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.254067</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -6343,7 +6343,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.254067</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -6433,7 +6433,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.254067</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -6523,7 +6523,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.254067</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.254067</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.254067</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -6805,7 +6805,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.254067</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -6895,7 +6895,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.254067</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.254067</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -7083,7 +7083,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.259081</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.259081</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.259081</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -7365,7 +7365,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.259081</t>
+          <t>2025-10-23T12:45:51.699861</t>
         </is>
       </c>
     </row>
@@ -7459,7 +7459,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.759023</t>
         </is>
       </c>
     </row>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.759023</t>
         </is>
       </c>
     </row>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.759023</t>
         </is>
       </c>
     </row>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.759023</t>
         </is>
       </c>
     </row>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.759023</t>
         </is>
       </c>
     </row>
@@ -7929,7 +7929,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.759023</t>
         </is>
       </c>
     </row>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.759023</t>
         </is>
       </c>
     </row>
@@ -8113,7 +8113,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.759023</t>
         </is>
       </c>
     </row>
@@ -8207,7 +8207,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.759023</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.759023</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.759023</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.759023</t>
         </is>
       </c>
     </row>
@@ -8575,7 +8575,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.759023</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.759023</t>
         </is>
       </c>
     </row>
@@ -8763,7 +8763,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.759023</t>
         </is>
       </c>
     </row>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.759023</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.759023</t>
         </is>
       </c>
     </row>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.759023</t>
         </is>
       </c>
     </row>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.759023</t>
         </is>
       </c>
     </row>
@@ -9233,7 +9233,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.759023</t>
         </is>
       </c>
     </row>
@@ -9323,7 +9323,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.759023</t>
         </is>
       </c>
     </row>
@@ -9417,7 +9417,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.762898</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.763804</t>
         </is>
       </c>
     </row>
@@ -9605,7 +9605,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.763804</t>
         </is>
       </c>
     </row>
@@ -9695,7 +9695,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.763804</t>
         </is>
       </c>
     </row>
@@ -9789,7 +9789,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.763804</t>
         </is>
       </c>
     </row>
@@ -9883,7 +9883,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.764321</t>
         </is>
       </c>
     </row>
@@ -9977,7 +9977,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.390189</t>
+          <t>2025-10-23T12:45:51.764321</t>
         </is>
       </c>
     </row>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.497337</t>
+          <t>2025-10-23T12:45:51.814923</t>
         </is>
       </c>
     </row>
@@ -10165,7 +10165,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.497337</t>
+          <t>2025-10-23T12:45:51.814923</t>
         </is>
       </c>
     </row>
@@ -10259,7 +10259,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.497337</t>
+          <t>2025-10-23T12:45:51.814923</t>
         </is>
       </c>
     </row>
@@ -10349,7 +10349,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.497337</t>
+          <t>2025-10-23T12:45:51.815918</t>
         </is>
       </c>
     </row>
@@ -10443,7 +10443,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.498340</t>
+          <t>2025-10-23T12:45:51.815918</t>
         </is>
       </c>
     </row>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.498340</t>
+          <t>2025-10-23T12:45:51.815918</t>
         </is>
       </c>
     </row>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.498340</t>
+          <t>2025-10-23T12:45:51.815918</t>
         </is>
       </c>
     </row>
@@ -10725,7 +10725,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.498340</t>
+          <t>2025-10-23T12:45:51.815918</t>
         </is>
       </c>
     </row>
@@ -10819,7 +10819,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.498340</t>
+          <t>2025-10-23T12:45:51.816917</t>
         </is>
       </c>
     </row>
@@ -10913,7 +10913,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:50.498340</t>
+          <t>2025-10-23T12:45:51.816917</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R25_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R25_Pentropia.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z68"/>
+  <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,17 +653,17 @@
         <v>1.637512517342308</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4239188491876604</v>
+        <v>0.4538824667597043</v>
       </c>
       <c r="Y2" t="n">
         <v>30</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.660388</t>
+          <t>2025-10-29T23:40:24.423720</t>
         </is>
       </c>
     </row>
@@ -745,13 +745,17 @@
         <v>2.182639201208369</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.5616240759128834</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>123</v>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.660388</t>
+          <t>2025-10-29T23:40:24.423720</t>
         </is>
       </c>
     </row>
@@ -833,17 +837,17 @@
         <v>2.628288156769919</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5542540693371891</v>
+        <v>0.4329311706285884</v>
       </c>
       <c r="Y4" t="n">
         <v>24</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.660388</t>
+          <t>2025-10-29T23:40:24.423720</t>
         </is>
       </c>
     </row>
@@ -925,17 +929,17 @@
         <v>1.800964478621008</v>
       </c>
       <c r="W5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4850311748982489</v>
+        <v>0.4153959819657586</v>
       </c>
       <c r="Y5" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.660388</t>
+          <t>2025-10-29T23:40:24.423720</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1031,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.660388</t>
+          <t>2025-10-29T23:40:24.423720</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1119,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.660388</t>
+          <t>2025-10-29T23:40:24.423720</t>
         </is>
       </c>
     </row>
@@ -1197,17 +1201,17 @@
         <v>2.615367358309021</v>
       </c>
       <c r="W8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5544489538593315</v>
+        <v>0.5079682182603347</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.660388</t>
+          <t>2025-10-29T23:40:24.423720</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1303,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.660388</t>
+          <t>2025-10-29T23:40:24.424719</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1395,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.660388</t>
+          <t>2025-10-29T23:40:24.424719</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1487,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.660388</t>
+          <t>2025-10-29T23:40:24.424719</t>
         </is>
       </c>
     </row>
@@ -1565,17 +1569,17 @@
         <v>2.351425882695806</v>
       </c>
       <c r="W12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5413714687695235</v>
+        <v>0.5614880310328125</v>
       </c>
       <c r="Y12" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.660388</t>
+          <t>2025-10-29T23:40:24.424719</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1671,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.660388</t>
+          <t>2025-10-29T23:40:24.424719</t>
         </is>
       </c>
     </row>
@@ -1749,13 +1753,17 @@
         <v>2.350674818698555</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.4062858371373469</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>61</v>
+      </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.660388</t>
+          <t>2025-10-29T23:40:24.424719</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1855,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.660388</t>
+          <t>2025-10-29T23:40:24.424719</t>
         </is>
       </c>
     </row>
@@ -1929,17 +1937,17 @@
         <v>1.310501271630627</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X16" t="n">
-        <v>0.4149101287359542</v>
+        <v>0.405083825348819</v>
       </c>
       <c r="Y16" t="n">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.660388</t>
+          <t>2025-10-29T23:40:24.424719</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2039,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.660388</t>
+          <t>2025-10-29T23:40:24.425728</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2131,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.660388</t>
+          <t>2025-10-29T23:40:24.425728</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2223,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.660388</t>
+          <t>2025-10-29T23:40:24.425728</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2311,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.660388</t>
+          <t>2025-10-29T23:40:24.425728</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2399,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.660388</t>
+          <t>2025-10-29T23:40:24.425728</t>
         </is>
       </c>
     </row>
@@ -2483,7 +2491,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.661388</t>
+          <t>2025-10-29T23:40:24.425728</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2583,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.661388</t>
+          <t>2025-10-29T23:40:24.425728</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2675,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.661388</t>
+          <t>2025-10-29T23:40:24.425728</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2767,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.661388</t>
+          <t>2025-10-29T23:40:24.426719</t>
         </is>
       </c>
     </row>
@@ -2841,17 +2849,17 @@
         <v>2.308100461078276</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X26" t="n">
-        <v>0.5049549320516779</v>
+        <v>0.4705137712668338</v>
       </c>
       <c r="Y26" t="n">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.661388</t>
+          <t>2025-10-29T23:40:24.426719</t>
         </is>
       </c>
     </row>
@@ -2933,17 +2941,17 @@
         <v>1.903279403849058</v>
       </c>
       <c r="W27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X27" t="n">
-        <v>0.4561869019374762</v>
+        <v>0.5541934359909122</v>
       </c>
       <c r="Y27" t="n">
         <v>123</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.661388</t>
+          <t>2025-10-29T23:40:24.426719</t>
         </is>
       </c>
     </row>
@@ -3025,13 +3033,17 @@
         <v>2.375871974617221</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.4969659942717967</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>134</v>
+      </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.661388</t>
+          <t>2025-10-29T23:40:24.426719</t>
         </is>
       </c>
     </row>
@@ -3113,17 +3125,17 @@
         <v>2.312801572388097</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X29" t="n">
-        <v>0.4281848449949526</v>
+        <v>0.4636006949943728</v>
       </c>
       <c r="Y29" t="n">
         <v>31</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.661388</t>
+          <t>2025-10-29T23:40:24.426719</t>
         </is>
       </c>
     </row>
@@ -3205,17 +3217,17 @@
         <v>1.83165874525053</v>
       </c>
       <c r="W30" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="X30" t="n">
-        <v>0.4148089303468181</v>
+        <v>0.4641560129943472</v>
       </c>
       <c r="Y30" t="n">
         <v>108</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.464051</t>
         </is>
       </c>
     </row>
@@ -3297,17 +3309,17 @@
         <v>3.344776669418398</v>
       </c>
       <c r="W31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X31" t="n">
-        <v>0.4127116700572048</v>
+        <v>0.4978905520555126</v>
       </c>
       <c r="Y31" t="n">
         <v>22</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.464051</t>
         </is>
       </c>
     </row>
@@ -3389,17 +3401,17 @@
         <v>2.015717240620041</v>
       </c>
       <c r="W32" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X32" t="n">
-        <v>0.4675230342807256</v>
+        <v>0.5290345580818899</v>
       </c>
       <c r="Y32" t="n">
         <v>80</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.465051</t>
         </is>
       </c>
     </row>
@@ -3481,17 +3493,17 @@
         <v>2.036445016542462</v>
       </c>
       <c r="W33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X33" t="n">
-        <v>0.5721461166512687</v>
+        <v>0.5381875476204931</v>
       </c>
       <c r="Y33" t="n">
         <v>6</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.465051</t>
         </is>
       </c>
     </row>
@@ -3573,17 +3585,17 @@
         <v>2.411746349972376</v>
       </c>
       <c r="W34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X34" t="n">
-        <v>0.4913069140965821</v>
+        <v>0.5966846281789686</v>
       </c>
       <c r="Y34" t="n">
         <v>91</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.465051</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3683,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.465051</t>
         </is>
       </c>
     </row>
@@ -3753,17 +3765,17 @@
         <v>2.342055414308382</v>
       </c>
       <c r="W36" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X36" t="n">
-        <v>0.5037581243486732</v>
+        <v>0.4081550283109528</v>
       </c>
       <c r="Y36" t="n">
         <v>135</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.466054</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3863,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.466054</t>
         </is>
       </c>
     </row>
@@ -3933,17 +3945,17 @@
         <v>2.035697777445339</v>
       </c>
       <c r="W38" t="n">
+        <v>13</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.4739308912122809</v>
+      </c>
+      <c r="Y38" t="n">
         <v>11</v>
       </c>
-      <c r="X38" t="n">
-        <v>0.5021494605155131</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>111</v>
-      </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.466054</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4043,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.467052</t>
         </is>
       </c>
     </row>
@@ -4123,7 +4135,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.467052</t>
         </is>
       </c>
     </row>
@@ -4205,17 +4217,17 @@
         <v>1.928557855300365</v>
       </c>
       <c r="W41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4444215620941461</v>
+        <v>0.4727259204758588</v>
       </c>
       <c r="Y41" t="n">
         <v>118</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.469055</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4319,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.469055</t>
         </is>
       </c>
     </row>
@@ -4399,7 +4411,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.511505</t>
         </is>
       </c>
     </row>
@@ -4481,17 +4493,17 @@
         <v>3.711179640077895</v>
       </c>
       <c r="W44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4899508266739531</v>
+        <v>0.4822074026636463</v>
       </c>
       <c r="Y44" t="n">
         <v>16</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.512505</t>
         </is>
       </c>
     </row>
@@ -4573,17 +4585,17 @@
         <v>2.654491153386764</v>
       </c>
       <c r="W45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X45" t="n">
-        <v>0.476585374950758</v>
+        <v>0.42961738599068</v>
       </c>
       <c r="Y45" t="n">
         <v>116</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.512505</t>
         </is>
       </c>
     </row>
@@ -4665,17 +4677,17 @@
         <v>3.326041139709015</v>
       </c>
       <c r="W46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4278662908811752</v>
+        <v>0.5721461166512687</v>
       </c>
       <c r="Y46" t="n">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.512505</t>
         </is>
       </c>
     </row>
@@ -4767,7 +4779,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.512505</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4871,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.512505</t>
         </is>
       </c>
     </row>
@@ -4941,17 +4953,17 @@
         <v>2.140833741015508</v>
       </c>
       <c r="W49" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X49" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.4690142496053366</v>
       </c>
       <c r="Y49" t="n">
         <v>115</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.512505</t>
         </is>
       </c>
     </row>
@@ -5033,17 +5045,17 @@
         <v>2.093666757006604</v>
       </c>
       <c r="W50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X50" t="n">
-        <v>0.5580351081062411</v>
+        <v>0.453356202855057</v>
       </c>
       <c r="Y50" t="n">
         <v>52</v>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.512505</t>
         </is>
       </c>
     </row>
@@ -5125,17 +5137,17 @@
         <v>3.005590320299264</v>
       </c>
       <c r="W51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X51" t="n">
-        <v>0.4898901348276407</v>
+        <v>0.4444215620941461</v>
       </c>
       <c r="Y51" t="n">
         <v>17</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.512505</t>
         </is>
       </c>
     </row>
@@ -5217,17 +5229,17 @@
         <v>2.656635308657509</v>
       </c>
       <c r="W52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X52" t="n">
-        <v>0.5829919351087561</v>
+        <v>0.5792182599846987</v>
       </c>
       <c r="Y52" t="n">
         <v>44</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.512505</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5327,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.512505</t>
         </is>
       </c>
     </row>
@@ -5407,7 +5419,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.512505</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5507,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.513505</t>
         </is>
       </c>
     </row>
@@ -5583,7 +5595,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.513505</t>
         </is>
       </c>
     </row>
@@ -5665,17 +5677,17 @@
         <v>2.101124475644301</v>
       </c>
       <c r="W57" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X57" t="n">
-        <v>0.4403438404670793</v>
+        <v>0.5392608545679577</v>
       </c>
       <c r="Y57" t="n">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.513505</t>
         </is>
       </c>
     </row>
@@ -5767,7 +5779,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.669336</t>
+          <t>2025-10-29T23:40:24.513505</t>
         </is>
       </c>
     </row>
@@ -5849,17 +5861,17 @@
         <v>2.588880658408893</v>
       </c>
       <c r="W59" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X59" t="n">
-        <v>0.4080867179076863</v>
+        <v>0.450783082786869</v>
       </c>
       <c r="Y59" t="n">
         <v>144</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.682065</t>
+          <t>2025-10-29T23:40:24.513505</t>
         </is>
       </c>
     </row>
@@ -5941,726 +5953,22 @@
         <v>3.559080484587156</v>
       </c>
       <c r="W60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X60" t="n">
-        <v>0.4221781641623663</v>
+        <v>0.4646405864041511</v>
       </c>
       <c r="Y60" t="n">
         <v>22</v>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-27T20:44:53.682135</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>23</v>
-      </c>
-      <c r="C61" t="n">
-        <v>4</v>
-      </c>
-      <c r="D61" t="b">
-        <v>1</v>
-      </c>
-      <c r="E61" t="n">
-        <v>7</v>
-      </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>1</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="b">
-        <v>1</v>
-      </c>
-      <c r="O61" t="b">
-        <v>1</v>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>[11, 107, 108, 50, 31, 6, 17]</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>[2.0450439453125, 2.39786434173584, 2.5406486988067627, 2.7599363327026367, 2.763245105743408, 2.774099111557007, 2.8216850757598877]</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>[111, 122, 58, 49, 74, 29, 32]</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>[2.978161573410034, 4.0501909255981445, 4.2081098556518555, 4.714849472045898, 4.798360824584961, 5.375450611114502, 5.376267433166504]</t>
-        </is>
-      </c>
-      <c r="U61" t="n">
-        <v>2</v>
-      </c>
-      <c r="V61" t="n">
-        <v>2.469256530760287</v>
-      </c>
-      <c r="W61" t="n">
-        <v>0</v>
-      </c>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:44:53.682592</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>29</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4</v>
-      </c>
-      <c r="D62" t="b">
-        <v>1</v>
-      </c>
-      <c r="E62" t="n">
-        <v>7</v>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J62" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="b">
-        <v>1</v>
-      </c>
-      <c r="O62" t="b">
-        <v>1</v>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>[0, 122, 50, 20, 100, 149, 108]</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>[3.3233187198638916, 4.059734344482422, 4.167458534240723, 4.20436429977417, 4.278962135314941, 4.5680131912231445, 4.604304790496826]</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>[122, 49, 111, 32, 23, 58, 74]</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>[4.059734344482422, 4.712945938110352, 4.923409938812256, 5.225722312927246, 5.375450611114502, 6.480259418487549, 7.0887932777404785]</t>
-        </is>
-      </c>
-      <c r="U62" t="n">
-        <v>2</v>
-      </c>
-      <c r="V62" t="n">
-        <v>4.113596337415536</v>
-      </c>
-      <c r="W62" t="n">
-        <v>0</v>
-      </c>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:44:53.682592</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>32</v>
-      </c>
-      <c r="C63" t="n">
-        <v>4</v>
-      </c>
-      <c r="D63" t="b">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>7</v>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0.8631205685666311</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="b">
-        <v>0</v>
-      </c>
-      <c r="O63" t="b">
-        <v>1</v>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>[152, 111, 100, 50, 3, 16, 49]</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>[0, 1, 0, 0, 0, 0, 1]</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>[3.581364870071411, 3.782494068145752, 3.862605571746826, 3.9095888137817383, 3.9325404167175293, 3.952988386154175, 3.967590808868408]</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>[111, 49, 29, 23, 122, 58, 74]</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>[3.782494068145752, 3.967590808868408, 5.225722312927246, 5.376267433166504, 5.447623252868652, 5.880111217498779, 6.302395343780518]</t>
-        </is>
-      </c>
-      <c r="U63" t="n">
-        <v>2</v>
-      </c>
-      <c r="V63" t="n">
-        <v>3.822549829585008</v>
-      </c>
-      <c r="W63" t="n">
-        <v>0</v>
-      </c>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:44:53.682592</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>49</v>
-      </c>
-      <c r="C64" t="n">
-        <v>4</v>
-      </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" t="n">
-        <v>7</v>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J64" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="b">
-        <v>1</v>
-      </c>
-      <c r="O64" t="b">
-        <v>1</v>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>[0, 111, 100, 57, 108, 11, 50]</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>[2.7044990062713623, 2.744593620300293, 3.03739595413208, 3.6008496284484863, 3.601428508758545, 3.613584280014038, 3.7613816261291504]</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>[111, 32, 29, 23, 58, 122, 74]</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>[2.744593620300293, 3.967590808868408, 4.712945938110352, 4.714849472045898, 5.023791790008545, 5.143283843994141, 5.44774866104126]</t>
-        </is>
-      </c>
-      <c r="U64" t="n">
-        <v>2</v>
-      </c>
-      <c r="V64" t="n">
-        <v>2.890994812564799</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:44:53.682592</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>58</v>
-      </c>
-      <c r="C65" t="n">
-        <v>4</v>
-      </c>
-      <c r="D65" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" t="n">
-        <v>7</v>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J65" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="b">
-        <v>1</v>
-      </c>
-      <c r="O65" t="b">
-        <v>1</v>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>[116, 125, 6, 30, 144, 111, 80]</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>[2.321561098098755, 2.989548683166504, 2.9944894313812256, 3.028784990310669, 3.167263984680176, 3.3404667377471924, 3.3468122482299805]</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>[111, 74, 23, 49, 122, 32, 29]</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>[3.3404667377471924, 3.7469117641448975, 4.2081098556518555, 5.023791790008545, 5.170320510864258, 5.880111217498779, 6.480259418487549]</t>
-        </is>
-      </c>
-      <c r="U65" t="n">
-        <v>2</v>
-      </c>
-      <c r="V65" t="n">
-        <v>2.99201913047313</v>
-      </c>
-      <c r="W65" t="n">
-        <v>0</v>
-      </c>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:44:53.682592</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>74</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4</v>
-      </c>
-      <c r="D66" t="b">
-        <v>1</v>
-      </c>
-      <c r="E66" t="n">
-        <v>7</v>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="b">
-        <v>1</v>
-      </c>
-      <c r="O66" t="b">
-        <v>1</v>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>[15, 151, 26, 116, 134, 79, 6]</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>[2.989654302597046, 3.279348850250244, 3.4450466632843018, 3.4723429679870605, 3.5377962589263916, 3.582503318786621, 3.678356170654297]</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>[58, 111, 23, 49, 122, 32, 29]</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>[3.7469117641448975, 4.177338600158691, 4.798360824584961, 5.44774866104126, 5.6261515617370605, 6.302395343780518, 7.0887932777404785]</t>
-        </is>
-      </c>
-      <c r="U66" t="n">
-        <v>2</v>
-      </c>
-      <c r="V66" t="n">
-        <v>3.362197711240765</v>
-      </c>
-      <c r="W66" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:44:53.682592</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>111</v>
-      </c>
-      <c r="C67" t="n">
-        <v>4</v>
-      </c>
-      <c r="D67" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67" t="n">
-        <v>7</v>
-      </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="b">
-        <v>1</v>
-      </c>
-      <c r="O67" t="b">
-        <v>1</v>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>[108, 11, 100, 50, 26, 30, 57]</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>[1.7137212753295898, 1.8753184080123901, 1.9820659160614014, 2.4990010261535645, 2.7067956924438477, 2.70947003364563, 2.71624755859375]</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>[49, 23, 58, 32, 122, 74, 29]</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>[2.744593620300293, 2.978161573410034, 3.3404667377471924, 3.782494068145752, 4.119991302490234, 4.177338600158691, 4.923409938812256]</t>
-        </is>
-      </c>
-      <c r="U67" t="n">
-        <v>2</v>
-      </c>
-      <c r="V67" t="n">
-        <v>1.928692209533841</v>
-      </c>
-      <c r="W67" t="n">
-        <v>0</v>
-      </c>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:44:53.682592</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>122</v>
-      </c>
-      <c r="C68" t="n">
-        <v>4</v>
-      </c>
-      <c r="D68" t="b">
-        <v>1</v>
-      </c>
-      <c r="E68" t="n">
-        <v>7</v>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="b">
-        <v>1</v>
-      </c>
-      <c r="O68" t="b">
-        <v>1</v>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>[143, 108, 100, 118, 151, 20, 30]</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>[3.4728429317474365, 3.7831006050109863, 3.8177778720855713, 3.835824966430664, 3.876563787460327, 3.8958423137664795, 4.041891574859619]</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>[23, 29, 111, 49, 58, 32, 74]</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>[4.0501909255981445, 4.059734344482422, 4.119991302490234, 5.143283843994141, 5.170320510864258, 5.447623252868652, 5.6261515617370605]</t>
-        </is>
-      </c>
-      <c r="U68" t="n">
-        <v>2</v>
-      </c>
-      <c r="V68" t="n">
-        <v>3.80043923668247</v>
-      </c>
-      <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:44:53.682592</t>
+          <t>2025-10-29T23:40:24.513505</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:Z68">
+  <conditionalFormatting sqref="A2:Z60">
     <cfRule type="expression" priority="1" dxfId="0">
       <formula>=$D2=FALSE</formula>
     </cfRule>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R25_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R25_Pentropia.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z60"/>
+  <dimension ref="A1:Z102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -623,7 +623,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[30, 20, 80, 17, 151, 144, 116]</t>
+          <t>[44, 26, 129, 22, 230, 216, 172]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[30, 80, 144, 116, 57, 18, 79]</t>
+          <t>[44, 129, 216, 172, 91, 23, 128]</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -653,17 +653,17 @@
         <v>1.637512517342308</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4538824667597043</v>
+        <v>0.5122554395138993</v>
       </c>
       <c r="Y2" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.423720</t>
+          <t>2025-11-02T02:11:02.921225</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K3" t="n">
         <v>0.2857142857142857</v>
@@ -715,22 +715,22 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[146, 123, 145, 144, 134, 151, 79]</t>
+          <t>[221, 212, 183, 219, 216, 199, 230]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1, 0, 0, 1]</t>
+          <t>[1, 0, 0, 1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[1.677281379699707, 2.151216745376587, 2.2140614986419678, 2.3317604064941406, 2.5560109615325928, 2.5747783184051514, 2.6026813983917236]</t>
+          <t>[1.677281379699707, 2.1395843029022217, 2.151216745376587, 2.2140614986419678, 2.3317604064941406, 2.5560109615325928, 2.5747783184051514]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[146, 145, 144, 79, 153, 6, 80]</t>
+          <t>[221, 219, 216, 128, 232, 7, 129]</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -742,20 +742,20 @@
         <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>2.182639201208369</v>
+        <v>2.14540054557393</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>0.5616240759128834</v>
+        <v>0.4186205535611799</v>
       </c>
       <c r="Y3" t="n">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.423720</t>
+          <t>2025-11-02T02:11:02.921225</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -790,13 +790,13 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K4" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="b">
@@ -807,22 +807,22 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[24, 95, 108, 12, 111, 15, 153]</t>
+          <t>[31, 148, 162, 17, 166, 55, 20]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 1]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[1.7645351886749268, 2.62276291847229, 2.6338131427764893, 2.6923305988311768, 2.7067956924438477, 2.981300115585327, 3.013068914413452]</t>
+          <t>[1.7645351886749268, 2.62276291847229, 2.6338131427764893, 2.6923305988311768, 2.7067956924438477, 2.839991331100464, 2.981300115585327]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[95, 153, 44, 116, 80, 18, 46]</t>
+          <t>[148, 232, 69, 172, 129, 23, 72]</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -837,17 +837,17 @@
         <v>2.628288156769919</v>
       </c>
       <c r="W4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4329311706285884</v>
+        <v>0.42961738599068</v>
       </c>
       <c r="Y4" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.423720</t>
+          <t>2025-11-02T02:11:02.921225</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K5" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="b">
@@ -899,47 +899,47 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[6, 57, 20, 17, 80, 116, 144]</t>
+          <t>[21, 191, 227, 182, 143, 7, 98]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 1, 1, 1]</t>
+          <t>[0, 1, 1, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[1.566062331199646, 1.5941258668899536, 2.007803201675415, 2.019717216491699, 2.1621439456939697, 2.327439069747925, 2.496037244796753]</t>
+          <t>[3.407052516937256, 3.431671619415283, 3.5515825748443604, 3.598344087600708, 3.8188536167144775, 3.8215887546539307, 3.8381783962249756]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[6, 57, 80, 116, 144, 153, 18]</t>
+          <t>[191, 227, 7, 172, 129, 44, 186]</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[1.566062331199646, 1.5941258668899536, 2.1621439456939697, 2.327439069747925, 2.496037244796753, 2.665207862854004, 3.2387664318084717]</t>
+          <t>[3.431671619415283, 3.5515825748443604, 3.8215887546539307, 4.237545967102051, 4.322734355926514, 4.537020683288574, 4.602941513061523]</t>
         </is>
       </c>
       <c r="U5" t="n">
         <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.800964478621008</v>
+        <v>3.491627112424018</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4153959819657586</v>
+        <v>0.5931264066149118</v>
       </c>
       <c r="Y5" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.423720</t>
+          <t>2025-11-02T02:11:02.921225</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K6" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="b">
@@ -991,47 +991,43 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[12, 82, 91, 34, 107, 98, 45]</t>
+          <t>[53, 207, 65, 5, 97, 235, 3]</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 1]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[2.048574924468994, 2.447383403778076, 2.5781495571136475, 2.7228565216064453, 2.729426383972168, 2.7387607097625732, 2.7566452026367188]</t>
+          <t>[1.881710410118103, 2.4390134811401367, 3.1029179096221924, 3.1662142276763916, 3.2141902446746826, 3.339677095413208, 3.48815655708313]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>[98, 45, 146, 46, 26, 104, 18]</t>
+          <t>[207, 104, 127, 71, 72, 116, 59]</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[2.7387607097625732, 2.7566452026367188, 3.041167974472046, 3.120504379272461, 3.1597506999969482, 3.298497200012207, 3.338653087615967]</t>
+          <t>[2.4390134811401367, 3.6792328357696533, 3.70550799369812, 3.778021812438965, 3.915181875228882, 3.9652693271636963, 4.157331943511963]</t>
         </is>
       </c>
       <c r="U6" t="n">
         <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>2.512766445053634</v>
+        <v>2.770965707322022</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.4716931457088545</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.423720</t>
+          <t>2025-11-02T02:11:02.921225</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1038,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1066,13 +1062,13 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K7" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="b">
@@ -1083,43 +1079,47 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[55, 34, 154, 4, 2, 54, 157]</t>
+          <t>[7, 91, 26, 22, 129, 172, 216]</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[1.5167092084884644, 2.03940749168396, 2.1195244789123535, 2.209376335144043, 2.4034576416015625, 2.6414060592651367, 2.716881275177002]</t>
+          <t>[1.566062331199646, 1.5941258668899536, 2.007803201675415, 2.019717216491699, 2.1621439456939697, 2.327439069747925, 2.496037244796753]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>[44, 83, 66, 158, 18, 146, 79]</t>
+          <t>[7, 91, 129, 172, 216, 232, 23]</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[2.7566452026367188, 2.7997066974639893, 3.076085329055786, 3.1941256523132324, 3.3492507934570312, 3.3548271656036377, 3.407341480255127]</t>
+          <t>[1.566062331199646, 1.5941258668899536, 2.1621439456939697, 2.327439069747925, 2.496037244796753, 2.665207862854004, 3.2387664318084717]</t>
         </is>
       </c>
       <c r="U7" t="n">
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>2.079466040162425</v>
+        <v>1.800964478621008</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.4081550283109528</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>91</v>
+      </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.423720</t>
+          <t>2025-11-02T02:11:02.921225</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1154,13 +1154,13 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K8" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="b">
@@ -1171,47 +1171,47 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[11, 107, 12, 2, 108, 111, 35]</t>
+          <t>[61, 36, 228, 7, 174, 75, 22]</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[2.2242181301116943, 2.5140676498413086, 2.7166669368743896, 2.759507894515991, 2.8061094284057617, 2.813248634338379, 3.0237629413604736]</t>
+          <t>[3.088778018951416, 3.134158134460449, 3.212345838546753, 3.226384401321411, 3.3381147384643555, 3.363077163696289, 3.398789405822754]</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>[125, 44, 139, 144, 26, 78, 45]</t>
+          <t>[7, 128, 129, 216, 68, 59, 240]</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>[3.0436060428619385, 3.120504379272461, 3.3756508827209473, 3.3941335678100586, 3.51720929145813, 3.542386054992676, 3.5765769481658936]</t>
+          <t>[3.226384401321411, 3.471637725830078, 3.478466272354126, 3.596519947052002, 3.622159481048584, 3.6328125, 3.7610912322998047]</t>
         </is>
       </c>
       <c r="U8" t="n">
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>2.615367358309021</v>
+        <v>3.173251992057287</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5079682182603347</v>
+        <v>0.5246596253655116</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.423720</t>
+          <t>2025-11-02T02:11:02.921225</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K9" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="b">
@@ -1263,47 +1263,43 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[30, 20, 6, 116, 80, 17, 111]</t>
+          <t>[240, 32, 66, 101, 102, 62, 51]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1, 1, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[1.5941258668899536, 2.065087080001831, 2.4072585105895996, 2.5790672302246094, 2.5901236534118652, 2.6139519214630127, 2.71624755859375]</t>
+          <t>[1.7053875923156738, 1.7912344932556152, 1.9457422494888306, 2.045498847961426, 2.4932680130004883, 2.5791237354278564, 2.600740432739258]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>[30, 6, 116, 80, 144, 153, 18]</t>
+          <t>[240, 104, 207, 229, 58, 68, 72]</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[1.5941258668899536, 2.4072585105895996, 2.5790672302246094, 2.5901236534118652, 2.829684257507324, 2.9432685375213623, 3.5591585636138916]</t>
+          <t>[1.7053875923156738, 3.3670339584350586, 3.5030391216278076, 3.591749429702759, 3.6328125, 3.72536301612854, 4.154652118682861]</t>
         </is>
       </c>
       <c r="U9" t="n">
         <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>2.236172663821705</v>
+        <v>1.868488389751259</v>
       </c>
       <c r="W9" t="n">
-        <v>4</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.5774425485152653</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.424719</t>
+          <t>2025-11-02T02:11:02.921225</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1310,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1338,13 +1334,13 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K10" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="b">
@@ -1355,47 +1351,47 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[11, 154, 50, 82, 23, 17, 111]</t>
+          <t>[173, 61, 51, 149, 58, 211, 163]</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[2.474855899810791, 2.721050977706909, 2.726400136947632, 2.8144350051879883, 2.943362236022949, 3.1361544132232666, 3.140415906906128]</t>
+          <t>[2.336545944213867, 3.239755153656006, 3.2498903274536133, 3.51924204826355, 3.622159481048584, 3.6746625900268555, 3.699357748031616]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>[158, 104, 60, 144, 18, 30, 146]</t>
+          <t>[58, 59, 148, 104, 23, 219, 221]</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[3.1665501594543457, 3.176732063293457, 3.301790714263916, 3.4245645999908447, 3.532728910446167, 3.542980670928955, 3.6666717529296875]</t>
+          <t>[3.622159481048584, 3.72536301612854, 4.328836441040039, 4.48573112487793, 4.517536640167236, 4.539391994476318, 4.555078983306885]</t>
         </is>
       </c>
       <c r="U10" t="n">
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>2.723725643089791</v>
+        <v>3.244822770392325</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5726206851751187</v>
+        <v>0.4698419149225322</v>
       </c>
       <c r="Y10" t="n">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.424719</t>
+          <t>2025-11-02T02:11:02.922226</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1402,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1430,13 +1426,13 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K11" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="b">
@@ -1447,47 +1443,43 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[132, 131, 104, 71, 41, 81, 70]</t>
+          <t>[17, 132, 144, 52, 161, 152, 71]</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[1.4836883544921875, 2.3896496295928955, 2.4113340377807617, 2.6557207107543945, 2.6609063148498535, 2.685420036315918, 2.7338452339172363]</t>
+          <t>[2.048574924468994, 2.447383403778076, 2.5781495571136475, 2.7228565216064453, 2.729426383972168, 2.7387607097625732, 2.7566452026367188]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>[104, 83, 158, 59, 139, 102, 98]</t>
+          <t>[152, 71, 164, 221, 72, 33, 158]</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>[2.4113340377807617, 2.8991825580596924, 3.061211109161377, 3.301790714263916, 3.671830892562866, 3.9167630672454834, 3.958468198776245]</t>
+          <t>[2.7387607097625732, 2.7566452026367188, 2.831433057785034, 3.041167974472046, 3.120504379272461, 3.1597506999969482, 3.298497200012207]</t>
         </is>
       </c>
       <c r="U11" t="n">
         <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>2.400491895606751</v>
+        <v>2.512766445053634</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.5853317731587588</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.424719</t>
+          <t>2025-11-02T02:11:02.922226</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1490,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1539,7 +1531,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[4, 120, 54, 89, 114, 5, 33]</t>
+          <t>[89, 52, 233, 5, 3, 87, 237]</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1549,37 +1541,37 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[2.102064371109009, 2.1437017917633057, 2.559149980545044, 2.591813564300537, 2.616283416748047, 2.689815044403076, 2.7629613876342773]</t>
+          <t>[1.5167092084884644, 2.03940749168396, 2.1195244789123535, 2.209376335144043, 2.4034576416015625, 2.6414060592651367, 2.716881275177002]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>[45, 83, 104, 139, 78, 44, 145]</t>
+          <t>[69, 133, 104, 238, 23, 221, 128]</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>[3.076085329055786, 3.1784701347351074, 3.267911434173584, 3.4011120796203613, 3.593691825866699, 3.8314998149871826, 3.8475823402404785]</t>
+          <t>[2.7566452026367188, 2.7997066974639893, 3.076085329055786, 3.1941256523132324, 3.3492507934570312, 3.3548271656036377, 3.407341480255127]</t>
         </is>
       </c>
       <c r="U12" t="n">
         <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>2.351425882695806</v>
+        <v>2.079466040162425</v>
       </c>
       <c r="W12" t="n">
         <v>4</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5614880310328125</v>
+        <v>0.5470432238481544</v>
       </c>
       <c r="Y12" t="n">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.424719</t>
+          <t>2025-11-02T02:11:02.922226</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1582,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1614,13 +1606,13 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="b">
@@ -1631,47 +1623,47 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[92, 148, 65, 137, 125, 107, 156]</t>
+          <t>[15, 97, 161, 17, 3, 162, 166]</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[2.1893951892852783, 2.4469447135925293, 2.5013561248779297, 2.6219775676727295, 2.6871581077575684, 2.755552291870117, 2.782724618911743]</t>
+          <t>[2.2242181301116943, 2.382312774658203, 2.5140676498413086, 2.7166669368743896, 2.759507894515991, 2.8061094284057617, 2.813248634338379]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>[125, 139, 46, 83, 66, 45, 44]</t>
+          <t>[186, 69, 207, 216, 33, 127, 71]</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[2.6871581077575684, 3.3169262409210205, 3.542386054992676, 3.5916593074798584, 3.593691825866699, 3.6874537467956543, 3.835092306137085]</t>
+          <t>[3.0436060428619385, 3.120504379272461, 3.3756508827209473, 3.3941335678100586, 3.51720929145813, 3.542386054992676, 3.5765769481658936]</t>
         </is>
       </c>
       <c r="U13" t="n">
         <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>2.474150436305976</v>
+        <v>2.44819018003049</v>
       </c>
       <c r="W13" t="n">
         <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>0.4011044234247205</v>
+        <v>0.5800836114326661</v>
       </c>
       <c r="Y13" t="n">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.424719</t>
+          <t>2025-11-02T02:11:02.922226</t>
         </is>
       </c>
     </row>
@@ -1682,7 +1674,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1706,13 +1698,13 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K14" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="b">
@@ -1723,47 +1715,47 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[61, 118, 151, 18, 134, 135, 6]</t>
+          <t>[44, 26, 7, 172, 129, 22, 166]</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 0, 0, 1]</t>
+          <t>[1, 0, 1, 1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[2.0941412448883057, 2.273529291152954, 2.4278202056884766, 2.6026813983917236, 2.611600399017334, 2.788144826889038, 2.897824764251709]</t>
+          <t>[1.5941258668899536, 2.065087080001831, 2.4072585105895996, 2.5790672302246094, 2.5901236534118652, 2.6139519214630127, 2.71624755859375]</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>[18, 6, 153, 80, 95, 145, 45]</t>
+          <t>[44, 7, 172, 129, 216, 232, 23]</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[2.6026813983917236, 2.897824764251709, 2.9049696922302246, 3.0433363914489746, 3.0777082443237305, 3.159788131713867, 3.407341480255127]</t>
+          <t>[1.5941258668899536, 2.4072585105895996, 2.5790672302246094, 2.5901236534118652, 2.829684257507324, 2.9432685375213623, 3.5591585636138916]</t>
         </is>
       </c>
       <c r="U14" t="n">
         <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>2.350674818698555</v>
+        <v>2.236172663821705</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>0.4062858371373469</v>
+        <v>0.4609562516316058</v>
       </c>
       <c r="Y14" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.424719</t>
+          <t>2025-11-02T02:11:02.922226</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1766,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1798,13 +1790,13 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9852281360342515</v>
+        <v>0</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="b">
@@ -1815,47 +1807,47 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[6, 116, 17, 30, 20, 134, 47]</t>
+          <t>[175, 34, 193, 105, 126, 146, 14]</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[1.6433650255203247, 1.7544342279434204, 2.0117173194885254, 2.1621439456939697, 2.339129686355591, 2.4049243927001953, 2.439350128173828]</t>
+          <t>[3.289961576461792, 3.355851173400879, 3.462968349456787, 3.621875047683716, 3.7018980979919434, 3.737691640853882, 3.7755918502807617]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>[6, 116, 30, 153, 57, 144, 95]</t>
+          <t>[23, 7, 158, 44, 221, 232, 128]</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[1.6433650255203247, 1.7544342279434204, 2.1621439456939697, 2.5203371047973633, 2.5901236534118652, 2.656198740005493, 2.8840348720550537]</t>
+          <t>[3.9686107635498047, 4.172473430633545, 4.195892810821533, 4.210324287414551, 4.248222351074219, 4.3292622566223145, 4.343741416931152]</t>
         </is>
       </c>
       <c r="U15" t="n">
         <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.88307574438938</v>
+        <v>3.409409779769714</v>
       </c>
       <c r="W15" t="n">
         <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>0.5521570097233794</v>
+        <v>0.4080867179076863</v>
       </c>
       <c r="Y15" t="n">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.424719</t>
+          <t>2025-11-02T02:11:02.922226</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1858,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -1890,13 +1882,13 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="b">
@@ -1907,47 +1899,47 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[71, 21, 127, 70, 85, 13, 104]</t>
+          <t>[15, 233, 80, 132, 30, 192, 22]</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[1.1132134199142456, 1.2527222633361816, 1.3682804107666016, 1.3820490837097168, 1.5762457847595215, 1.6117357015609741, 1.668046236038208]</t>
+          <t>[2.474855899810791, 2.721050977706909, 2.726400136947632, 2.8144350051879883, 2.943362236022949, 3.033637523651123, 3.1361544132232666]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>[104, 45, 60, 66, 158, 44, 146]</t>
+          <t>[238, 158, 96, 216, 23, 44, 221]</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>[1.668046236038208, 2.7997066974639893, 2.8991825580596924, 3.1784701347351074, 3.241288423538208, 3.4682114124298096, 3.5871682167053223]</t>
+          <t>[3.1665501594543457, 3.176732063293457, 3.301790714263916, 3.4245645999908447, 3.532728910446167, 3.542980670928955, 3.6666717529296875]</t>
         </is>
       </c>
       <c r="U16" t="n">
         <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.310501271630627</v>
+        <v>2.723725643089791</v>
       </c>
       <c r="W16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>0.405083825348819</v>
+        <v>0.4221781641623663</v>
       </c>
       <c r="Y16" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.424719</t>
+          <t>2025-11-02T02:11:02.922226</t>
         </is>
       </c>
     </row>
@@ -1958,7 +1950,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1982,13 +1974,13 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K17" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="b">
@@ -1999,47 +1991,47 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[153, 52, 26, 61, 80, 135, 150]</t>
+          <t>[196, 117, 195, 158, 114, 65, 131]</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[2.3002851009368896, 2.4177052974700928, 2.62276291847229, 2.7189247608184814, 2.8840348720550537, 2.920715808868408, 3.0016419887542725]</t>
+          <t>[1.4836883544921875, 2.08669114112854, 2.3896496295928955, 2.4113340377807617, 2.6557207107543945, 2.6609063148498535, 2.685420036315918]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>[153, 26, 80, 79, 116, 18, 6]</t>
+          <t>[158, 133, 238, 95, 121, 207, 156]</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>[2.3002851009368896, 2.62276291847229, 2.8840348720550537, 3.0777082443237305, 3.1332507133483887, 3.2447147369384766, 3.729985475540161]</t>
+          <t>[2.4113340377807617, 2.8991825580596924, 3.061211109161377, 3.301790714263916, 3.5390994548797607, 3.671830892562866, 3.9167630672454834]</t>
         </is>
       </c>
       <c r="U17" t="n">
         <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>2.520234110945618</v>
+        <v>2.238170328335876</v>
       </c>
       <c r="W17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>0.4621964643431324</v>
+        <v>0.5712648583756185</v>
       </c>
       <c r="Y17" t="n">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.425728</t>
+          <t>2025-11-02T02:11:02.922226</t>
         </is>
       </c>
     </row>
@@ -2050,7 +2042,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -2074,13 +2066,13 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="b">
@@ -2091,47 +2083,47 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>[147, 140, 121, 44, 5, 34, 71]</t>
+          <t>[5, 179, 87, 141, 170, 6, 51]</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[2.192857265472412, 2.545149803161621, 2.577815532684326, 2.7387607097625732, 2.8062071800231934, 2.9305880069732666, 3.0254945755004883]</t>
+          <t>[2.102064371109009, 2.1437017917633057, 2.559149980545044, 2.591813564300537, 2.616283416748047, 2.689815044403076, 2.7629613876342773]</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>[44, 146, 145, 158, 104, 102, 83]</t>
+          <t>[71, 133, 240, 158, 59, 207, 127]</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>[2.7387607097625732, 3.237196445465088, 3.269244909286499, 3.3417186737060547, 3.638204574584961, 3.687492847442627, 3.741082191467285]</t>
+          <t>[3.076085329055786, 3.1784701347351074, 3.226867914199829, 3.267911434173584, 3.3670339584350586, 3.4011120796203613, 3.593691825866699]</t>
         </is>
       </c>
       <c r="U18" t="n">
         <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>2.561482587420087</v>
+        <v>2.351425882695806</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>0.4364472175576125</v>
+        <v>0.5219128667959794</v>
       </c>
       <c r="Y18" t="n">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.425728</t>
+          <t>2025-11-02T02:11:02.922226</t>
         </is>
       </c>
     </row>
@@ -2142,7 +2134,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -2166,13 +2158,13 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K19" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.8631205685666311</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="b">
@@ -2183,47 +2175,47 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[91, 115, 47, 135, 134, 117, 15]</t>
+          <t>[207, 97, 241, 3, 195, 72, 53]</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[2.287184715270996, 2.3779051303863525, 2.408216714859009, 2.626561403274536, 2.7636899948120117, 3.0132486820220947, 3.106046676635742]</t>
+          <t>[3.4461963176727295, 3.490692377090454, 4.018583297729492, 4.129335403442383, 4.21785306930542, 4.287582874298096, 4.299821376800537]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>[146, 80, 102, 116, 18, 44, 145]</t>
+          <t>[207, 72, 152, 42, 69, 59, 104]</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[3.5371766090393066, 3.5401055812835693, 3.557359218597412, 3.5791332721710205, 3.6508138179779053, 3.7593939304351807, 3.8006153106689453]</t>
+          <t>[3.4461963176727295, 4.287582874298096, 4.3438825607299805, 4.423410892486572, 4.461658000946045, 4.577541351318359, 4.918069362640381]</t>
         </is>
       </c>
       <c r="U19" t="n">
         <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>2.393061174438097</v>
+        <v>3.754637769639464</v>
       </c>
       <c r="W19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
         <v>0.5657475018303859</v>
       </c>
       <c r="Y19" t="n">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.425728</t>
+          <t>2025-11-02T02:11:02.922226</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2226,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -2258,13 +2250,13 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K20" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="b">
@@ -2275,43 +2267,47 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[158, 146, 31, 87, 145, 117, 40]</t>
+          <t>[190, 139, 237, 28, 5, 207, 87]</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[2.7034177780151367, 3.014296531677246, 3.1109814643859863, 3.153078556060791, 3.2249367237091064, 3.3615105152130127, 3.405376434326172]</t>
+          <t>[1.6951038837432861, 2.4481759071350098, 2.702707052230835, 2.715507745742798, 2.786165237426758, 2.900627851486206, 2.9306581020355225]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>[158, 146, 145, 99, 98, 18, 60]</t>
+          <t>[207, 71, 158, 69, 133, 229, 121]</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[2.7034177780151367, 3.014296531677246, 3.2249367237091064, 3.557359218597412, 3.687492847442627, 3.8704020977020264, 3.9167630672454834]</t>
+          <t>[2.900627851486206, 3.546576499938965, 3.7216997146606445, 3.7249257564544678, 3.761068344116211, 3.842500686645508, 3.9026875495910645]</t>
         </is>
       </c>
       <c r="U20" t="n">
         <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>3.062639066073686</v>
+        <v>2.575441555947136</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.5290345580818899</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>139</v>
+      </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.425728</t>
+          <t>2025-11-02T02:11:02.923220</t>
         </is>
       </c>
     </row>
@@ -2322,7 +2318,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -2346,13 +2342,13 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K21" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L21" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="b">
@@ -2363,43 +2359,47 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[127, 83, 71, 13, 5, 70, 114]</t>
+          <t>[96, 95, 190, 19, 166, 158, 116]</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[1.5069104433059692, 1.668046236038208, 1.8417768478393555, 1.9164241552352905, 2.1175968647003174, 2.1366872787475586, 2.199951648712158]</t>
+          <t>[3.5390994548797607, 3.6950290203094482, 3.695158004760742, 3.8669228553771973, 3.8773157596588135, 3.8877360820770264, 3.9026875495910645]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>[83, 60, 146, 59, 66, 44, 158]</t>
+          <t>[96, 95, 158, 116, 207, 91, 172]</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[1.668046236038208, 2.4113340377807617, 3.1437838077545166, 3.176732063293457, 3.267911434173584, 3.298497200012207, 3.3507072925567627]</t>
+          <t>[3.5390994548797607, 3.6950290203094482, 3.8877360820770264, 3.9026875495910645, 4.06106424331665, 4.129671096801758, 4.367477893829346]</t>
         </is>
       </c>
       <c r="U21" t="n">
         <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.754911538934484</v>
+        <v>3.695093479003966</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.5355128723684565</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>95</v>
+      </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.425728</t>
+          <t>2025-11-02T02:11:02.923220</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -2434,13 +2434,13 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K22" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="b">
@@ -2451,47 +2451,47 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>[80, 117, 47, 58, 30, 6, 144]</t>
+          <t>[145, 223, 103, 239, 202, 186, 161]</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 1, 1, 1]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[1.7544342279434204, 2.0827512741088867, 2.1276609897613525, 2.321561098098755, 2.327439069747925, 2.349738359451294, 2.395681142807007]</t>
+          <t>[2.1893951892852783, 2.4469447135925293, 2.5013561248779297, 2.565725564956665, 2.6219775676727295, 2.6871581077575684, 2.755552291870117]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>[80, 30, 6, 144, 57, 153, 95]</t>
+          <t>[186, 229, 207, 224, 72, 133, 104]</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>[1.7544342279434204, 2.327439069747925, 2.349738359451294, 2.395681142807007, 2.5790672302246094, 3.0154433250427246, 3.1332507133483887]</t>
+          <t>[2.6871581077575684, 3.11919903755188, 3.3169262409210205, 3.5061280727386475, 3.542386054992676, 3.5916593074798584, 3.593691825866699]</t>
         </is>
       </c>
       <c r="U22" t="n">
         <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>2.105206038558649</v>
+        <v>2.474150436305976</v>
       </c>
       <c r="W22" t="n">
         <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>0.5368466053024313</v>
+        <v>0.4130103185970559</v>
       </c>
       <c r="Y22" t="n">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.425728</t>
+          <t>2025-11-02T02:11:02.923220</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -2526,13 +2526,13 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K23" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="b">
@@ -2543,47 +2543,47 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>[78, 58, 23, 46, 119, 148, 108]</t>
+          <t>[99, 176, 230, 49, 23, 199, 88]</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[2.6871581077575684, 2.989548683166504, 3.0242135524749756, 3.0436060428619385, 3.064236640930176, 3.102654218673706, 3.1957530975341797]</t>
+          <t>[2.0941412448883057, 2.273529291152954, 2.4278202056884766, 2.5020124912261963, 2.6026813983917236, 2.611600399017334, 2.6769654750823975]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>[78, 46, 139, 6, 116, 144, 44]</t>
+          <t>[23, 7, 232, 129, 148, 219, 71]</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[2.6871581077575684, 3.0436060428619385, 3.6476457118988037, 3.7662551403045654, 3.871335029602051, 3.917414426803589, 3.996932029724121]</t>
+          <t>[2.6026813983917236, 2.897824764251709, 2.9049696922302246, 3.0433363914489746, 3.0777082443237305, 3.159788131713867, 3.407341480255127]</t>
         </is>
       </c>
       <c r="U23" t="n">
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>3.006881179452855</v>
+        <v>2.350674818698555</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X23" t="n">
-        <v>0.5135400655639983</v>
+        <v>0.5859395304685147</v>
       </c>
       <c r="Y23" t="n">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.425728</t>
+          <t>2025-11-02T02:11:02.923220</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2618,13 +2618,13 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K24" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="b">
@@ -2635,47 +2635,47 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>[35, 41, 131, 81, 129, 92, 156]</t>
+          <t>[7, 172, 22, 44, 26, 199, 73]</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[2.036278486251831, 2.156728982925415, 2.332833766937256, 2.5016071796417236, 2.5615556240081787, 2.6899192333221436, 2.7088663578033447]</t>
+          <t>[1.6433650255203247, 1.7544342279434204, 2.0117173194885254, 2.1621439456939697, 2.339129686355591, 2.4049243927001953, 2.439350128173828]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>[78, 46, 66, 125, 60, 44, 45]</t>
+          <t>[7, 172, 44, 232, 91, 216, 148]</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>[3.3169262409210205, 3.3756508827209473, 3.4011120796203613, 3.6476457118988037, 3.671830892562866, 3.6828951835632324, 3.7130534648895264]</t>
+          <t>[1.6433650255203247, 1.7544342279434204, 2.1621439456939697, 2.5203371047973633, 2.5901236534118652, 2.656198740005493, 2.8840348720550537]</t>
         </is>
       </c>
       <c r="U24" t="n">
         <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>2.244781269175218</v>
+        <v>1.88307574438938</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X24" t="n">
-        <v>0.4090454577821077</v>
+        <v>0.5754678706761962</v>
       </c>
       <c r="Y24" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.425728</t>
+          <t>2025-11-02T02:11:02.923220</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K25" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="b">
@@ -2727,47 +2727,47 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>[6, 150, 18, 116, 30, 117, 17]</t>
+          <t>[114, 27, 188, 113, 135, 18, 158]</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[2.2308597564697266, 2.3167550563812256, 2.3317604064941406, 2.395681142807007, 2.496037244796753, 2.5234546661376953, 2.526862144470215]</t>
+          <t>[1.1132134199142456, 1.2527222633361816, 1.3682804107666016, 1.3820490837097168, 1.5762457847595215, 1.6117357015609741, 1.668046236038208]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>[6, 18, 116, 30, 80, 57, 146]</t>
+          <t>[158, 71, 96, 104, 238, 69, 221]</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[2.2308597564697266, 2.3317604064941406, 2.395681142807007, 2.496037244796753, 2.656198740005493, 2.829684257507324, 3.1746480464935303]</t>
+          <t>[1.668046236038208, 2.7997066974639893, 2.8991825580596924, 3.1784701347351074, 3.241288423538208, 3.4682114124298096, 3.5871682167053223]</t>
         </is>
       </c>
       <c r="U25" t="n">
         <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>2.324257816275622</v>
+        <v>1.310501271630627</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>0.5459212356676129</v>
+        <v>0.5630922856909668</v>
       </c>
       <c r="Y25" t="n">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.426719</t>
+          <t>2025-11-02T02:11:02.923220</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K26" t="n">
         <v>0.2857142857142857</v>
@@ -2819,47 +2819,43 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[146, 18, 123, 135, 61, 79, 102]</t>
+          <t>[49, 232, 83, 35, 33, 99, 129]</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 1, 1]</t>
+          <t>[0, 1, 0, 0, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[2.129277467727661, 2.2140614986419678, 2.402139186859131, 2.915306329727173, 2.9374606609344482, 3.159788131713867, 3.2249367237091064]</t>
+          <t>[1.9522122144699097, 2.3002851009368896, 2.4177052974700928, 2.5760011672973633, 2.62276291847229, 2.7189247608184814, 2.8840348720550537]</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>[146, 18, 79, 102, 98, 44, 144]</t>
+          <t>[232, 33, 129, 128, 172, 23, 7]</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>[2.129277467727661, 2.2140614986419678, 3.159788131713867, 3.2249367237091064, 3.269244909286499, 3.4646949768066406, 3.4662156105041504]</t>
+          <t>[2.3002851009368896, 2.62276291847229, 2.8840348720550537, 3.0777082443237305, 3.1332507133483887, 3.2447147369384766, 3.729985475540161]</t>
         </is>
       </c>
       <c r="U26" t="n">
         <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>2.308100461078276</v>
+        <v>2.358995193552605</v>
       </c>
       <c r="W26" t="n">
-        <v>3</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.4705137712668338</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.426719</t>
+          <t>2025-11-02T02:11:02.923220</t>
         </is>
       </c>
     </row>
@@ -2870,7 +2866,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -2894,13 +2890,13 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K27" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="b">
@@ -2911,47 +2907,47 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[123, 18, 145, 82, 121, 61, 102]</t>
+          <t>[222, 208, 180, 69, 6, 52, 114]</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[1.569798231124878, 1.677281379699707, 2.129277467727661, 2.6934051513671875, 2.9092702865600586, 3.0138089656829834, 3.014296531677246]</t>
+          <t>[2.192857265472412, 2.545149803161621, 2.577815532684326, 2.7387607097625732, 2.8062071800231934, 2.9305880069732666, 3.0254945755004883]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>[18, 145, 102, 44, 104, 144, 98]</t>
+          <t>[69, 221, 219, 238, 158, 156, 133]</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>[1.677281379699707, 2.129277467727661, 3.014296531677246, 3.041167974472046, 3.1437838077545166, 3.1746480464935303, 3.237196445465088]</t>
+          <t>[2.7387607097625732, 3.237196445465088, 3.269244909286499, 3.3417186737060547, 3.638204574584961, 3.687492847442627, 3.741082191467285]</t>
         </is>
       </c>
       <c r="U27" t="n">
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.903279403849058</v>
+        <v>2.561482587420087</v>
       </c>
       <c r="W27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X27" t="n">
-        <v>0.5541934359909122</v>
+        <v>0.5110401623198925</v>
       </c>
       <c r="Y27" t="n">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.426719</t>
+          <t>2025-11-02T02:11:02.923220</t>
         </is>
       </c>
     </row>
@@ -2986,13 +2982,13 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9852281360342515</v>
+        <v>0</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="b">
@@ -3003,47 +2999,47 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>[134, 95, 52, 80, 151, 30, 61]</t>
+          <t>[144, 171, 60, 73, 88, 200, 199]</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 1, 0, 1, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[2.1666834354400635, 2.3002851009368896, 2.4514589309692383, 2.5203371047973633, 2.610424518585205, 2.665207862854004, 2.7094876766204834]</t>
+          <t>[2.287184715270996, 2.3779051303863525, 2.38037371635437, 2.408216714859009, 2.5644378662109375, 2.626561403274536, 2.7636899948120117]</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>[95, 80, 30, 18, 79, 57, 26]</t>
+          <t>[221, 129, 156, 172, 23, 69, 219]</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>[2.3002851009368896, 2.5203371047973633, 2.665207862854004, 2.8704593181610107, 2.9049696922302246, 2.9432685375213623, 3.013068914413452]</t>
+          <t>[3.5371766090393066, 3.5401055812835693, 3.557359218597412, 3.5791332721710205, 3.6508138179779053, 3.7593939304351807, 3.8006153106689453]</t>
         </is>
       </c>
       <c r="U28" t="n">
         <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>2.375871974617221</v>
+        <v>2.379139461400677</v>
       </c>
       <c r="W28" t="n">
         <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>0.4969659942717967</v>
+        <v>0.4944429850323899</v>
       </c>
       <c r="Y28" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.426719</t>
+          <t>2025-11-02T02:11:02.924226</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3050,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -3078,13 +3074,13 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K29" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="b">
@@ -3095,47 +3091,47 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>[31, 107, 121, 41, 102, 2, 91]</t>
+          <t>[238, 221, 46, 111, 137, 219, 174]</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[1.9929872751235962, 2.164055824279785, 2.4615471363067627, 2.683084726333618, 2.7034177780151367, 2.7142977714538574, 2.7923738956451416]</t>
+          <t>[2.7034177780151367, 3.014296531677246, 3.1109814643859863, 3.140793561935425, 3.153078556060791, 3.2249367237091064, 3.3615105152130127]</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>[102, 60, 59, 45, 83, 98, 104]</t>
+          <t>[238, 221, 219, 191, 153, 152, 23]</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>[2.7034177780151367, 3.061211109161377, 3.1665501594543457, 3.1941256523132324, 3.241288423538208, 3.3417186737060547, 3.3507072925567627]</t>
+          <t>[2.7034177780151367, 3.014296531677246, 3.2249367237091064, 3.498915672302246, 3.557359218597412, 3.687492847442627, 3.8704020977020264]</t>
         </is>
       </c>
       <c r="U29" t="n">
         <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>2.312801572388097</v>
+        <v>3.062639066073686</v>
       </c>
       <c r="W29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X29" t="n">
         <v>0.4636006949943728</v>
       </c>
       <c r="Y29" t="n">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.426719</t>
+          <t>2025-11-02T02:11:02.924226</t>
         </is>
       </c>
     </row>
@@ -3146,10 +3142,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -3162,7 +3158,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -3170,13 +3166,13 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K30" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L30" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="b">
@@ -3187,47 +3183,47 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>[108, 50, 111, 23, 107, 46, 31]</t>
+          <t>[188, 133, 114, 18, 6, 113, 170]</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[1.534854769706726, 1.787999153137207, 1.8753184080123901, 2.0450439453125, 2.0752005577087402, 2.2242181301116943, 2.339595079421997]</t>
+          <t>[1.5069104433059692, 1.668046236038208, 1.8417768478393555, 1.9164241552352905, 2.1175968647003174, 2.1366872787475586, 2.199951648712158]</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>[108, 50, 17, 100, 20, 24, 151]</t>
+          <t>[133, 96, 221, 95, 104, 69, 238]</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>[1.534854769706726, 1.787999153137207, 2.4899678230285645, 2.592491388320923, 2.8869500160217285, 3.0363340377807617, 3.561237335205078]</t>
+          <t>[1.668046236038208, 2.4113340377807617, 3.1437838077545166, 3.176732063293457, 3.267911434173584, 3.298497200012207, 3.3507072925567627]</t>
         </is>
       </c>
       <c r="U30" t="n">
         <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>1.83165874525053</v>
+        <v>1.754911538934484</v>
       </c>
       <c r="W30" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>0.4641560129943472</v>
+        <v>0.5684569549189997</v>
       </c>
       <c r="Y30" t="n">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.464051</t>
+          <t>2025-11-02T02:11:02.924226</t>
         </is>
       </c>
     </row>
@@ -3238,10 +3234,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -3254,7 +3250,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -3262,13 +3258,13 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K31" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L31" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="b">
@@ -3279,47 +3275,43 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>[22, 17, 155, 152, 6, 27, 117]</t>
+          <t>[198, 69, 144, 161, 151, 197, 30]</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 0, 0, 0, 0]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[2.51462721824646, 3.323463201522827, 3.3660900592803955, 3.5367958545684814, 3.6257660388946533, 3.6267900466918945, 3.6360433101654053]</t>
+          <t>[2.484707832336426, 2.831433057785034, 3.125401496887207, 3.158907175064087, 3.170363426208496, 3.289302110671997, 3.4448280334472656]</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>[17, 155, 11, 20, 50, 108, 52]</t>
+          <t>[69, 127, 71, 133, 153, 128, 72]</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>[3.323463201522827, 3.3660900592803955, 3.8647851943969727, 3.8977904319763184, 4.214519500732422, 4.349693298339844, 4.376082420349121]</t>
+          <t>[2.831433057785034, 3.775132894515991, 3.7873287200927734, 4.154884338378906, 4.16379976272583, 4.200660705566406, 4.323276996612549]</t>
         </is>
       </c>
       <c r="U31" t="n">
         <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>3.344776669418398</v>
+        <v>2.978417186460388</v>
       </c>
       <c r="W31" t="n">
-        <v>7</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.4978905520555126</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.464051</t>
+          <t>2025-11-02T02:11:02.924226</t>
         </is>
       </c>
     </row>
@@ -3330,10 +3322,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -3346,7 +3338,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -3354,13 +3346,13 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K32" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L32" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="b">
@@ -3371,47 +3363,43 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>[6, 80, 30, 11, 116, 144, 134]</t>
+          <t>[129, 174, 73, 94, 44, 7, 216]</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>[1.6683409214019775, 2.0117173194885254, 2.019717216491699, 2.4899678230285645, 2.51100492477417, 2.526862144470215, 2.599433183670044]</t>
+          <t>[1.7544342279434204, 2.0827512741088867, 2.1276609897613525, 2.321561098098755, 2.327439069747925, 2.349738359451294, 2.395681142807007]</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>[11, 20, 151, 108, 118, 16, 50]</t>
+          <t>[129, 44, 7, 216, 91, 232, 148]</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>[2.4899678230285645, 2.7796781063079834, 2.9810237884521484, 3.0713717937469482, 3.1568026542663574, 3.323463201522827, 3.349195957183838]</t>
+          <t>[1.7544342279434204, 2.327439069747925, 2.349738359451294, 2.395681142807007, 2.5790672302246094, 3.0154433250427246, 3.1332507133483887]</t>
         </is>
       </c>
       <c r="U32" t="n">
         <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>2.015717240620041</v>
+        <v>2.105206038558649</v>
       </c>
       <c r="W32" t="n">
-        <v>9</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0.5290345580818899</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.465051</t>
+          <t>2025-11-02T02:11:02.924226</t>
         </is>
       </c>
     </row>
@@ -3422,10 +3410,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -3438,7 +3426,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -3446,13 +3434,13 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K33" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L33" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="b">
@@ -3463,47 +3451,47 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>[6, 30, 57, 80, 144, 108, 111]</t>
+          <t>[127, 218, 94, 30, 72, 178, 223]</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+          <t>[1, 1, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[1.631659984588623, 2.007803201675415, 2.065087080001831, 2.339129686355591, 2.573570966720581, 2.655343770980835, 2.7406766414642334]</t>
+          <t>[2.6871581077575684, 2.822661876678467, 2.989548683166504, 3.0242135524749756, 3.0436060428619385, 3.064236640930176, 3.102654218673706]</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>[108, 17, 151, 50, 11, 52, 100]</t>
+          <t>[127, 218, 72, 207, 7, 172, 216]</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>[2.655343770980835, 2.7796781063079834, 2.811572790145874, 2.842651605606079, 2.8869500160217285, 2.920435667037964, 2.9427199363708496]</t>
+          <t>[2.6871581077575684, 2.822661876678467, 3.0436060428619385, 3.6476457118988037, 3.7662551403045654, 3.871335029602051, 3.917414426803589]</t>
         </is>
       </c>
       <c r="U33" t="n">
         <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>2.036445016542462</v>
+        <v>2.906105467780885</v>
       </c>
       <c r="W33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X33" t="n">
-        <v>0.5381875476204931</v>
+        <v>0.5344271094811757</v>
       </c>
       <c r="Y33" t="n">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.465051</t>
+          <t>2025-11-02T02:11:02.924226</t>
         </is>
       </c>
     </row>
@@ -3514,10 +3502,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -3530,7 +3518,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -3538,13 +3526,13 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K34" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="b">
@@ -3555,47 +3543,47 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>[26, 91, 12, 15, 112, 134, 44]</t>
+          <t>[21, 29, 227, 174, 98, 40, 156]</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[1.7645351886749268, 2.3900933265686035, 2.4333996772766113, 2.496741533279419, 2.7321465015411377, 2.7615203857421875, 2.933971405029297]</t>
+          <t>[2.1934688091278076, 2.7731921672821045, 2.9257071018218994, 3.2913684844970703, 3.3153884410858154, 3.431671619415283, 3.498915672302246]</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>[11, 108, 155, 17, 151, 52, 135]</t>
+          <t>[227, 40, 156, 238, 153, 129, 221]</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>[3.0363340377807617, 3.1198487281799316, 3.3683085441589355, 3.441871166229248, 3.4767377376556396, 3.694831371307373, 3.8718533515930176]</t>
+          <t>[2.9257071018218994, 3.431671619415283, 3.498915672302246, 4.005101680755615, 4.013880252838135, 4.04771089553833, 4.17758321762085]</t>
         </is>
       </c>
       <c r="U34" t="n">
         <v>2</v>
       </c>
       <c r="V34" t="n">
-        <v>2.411746349972376</v>
+        <v>2.849449620088713</v>
       </c>
       <c r="W34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X34" t="n">
-        <v>0.5966846281789686</v>
+        <v>0.4455870325083883</v>
       </c>
       <c r="Y34" t="n">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.465051</t>
+          <t>2025-11-02T02:11:02.924226</t>
         </is>
       </c>
     </row>
@@ -3606,13 +3594,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
@@ -3622,7 +3610,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -3630,60 +3618,64 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K35" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L35" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>[11, 100, 111, 0, 59, 108, 23]</t>
+          <t>[53, 65, 195, 42, 241, 131, 190]</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 1, 0]</t>
+          <t>[0, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[1.787999153137207, 2.319976568222046, 2.4990010261535645, 2.6757636070251465, 2.726400136947632, 2.7489938735961914, 2.7599363327026367]</t>
+          <t>[2.036278486251831, 2.156728982925415, 2.332833766937256, 2.4390134811401367, 2.4542577266693115, 2.5016071796417236, 2.5615556240081787]</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>[11, 100, 108, 20, 17, 52, 118]</t>
+          <t>[42, 116, 229, 127, 72, 104, 112]</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>[1.787999153137207, 2.319976568222046, 2.7489938735961914, 2.842651605606079, 3.349195957183838, 4.023623466491699, 4.15259313583374]</t>
+          <t>[2.4390134811401367, 2.900627851486206, 3.049617290496826, 3.3169262409210205, 3.3756508827209473, 3.4011120796203613, 3.4461963176727295]</t>
         </is>
       </c>
       <c r="U35" t="n">
         <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>2.409488918737019</v>
+        <v>2.244781269175218</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.4797648884889106</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>65</v>
+      </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.465051</t>
+          <t>2025-11-02T02:11:02.924226</t>
         </is>
       </c>
     </row>
@@ -3694,10 +3686,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -3710,7 +3702,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -3718,13 +3710,13 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K36" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L36" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="b">
@@ -3735,47 +3727,47 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>[61, 135, 143, 95, 153, 134, 118]</t>
+          <t>[7, 228, 23, 172, 111, 44, 174]</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 1, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>[1.8855911493301392, 2.272892475128174, 2.4112184047698975, 2.4177052974700928, 2.4514589309692383, 2.7574868202209473, 2.802130937576294]</t>
+          <t>[2.2308597564697266, 2.3167550563812256, 2.3317604064941406, 2.395681142807007, 2.483492136001587, 2.496037244796753, 2.5234546661376953]</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>[135, 118, 20, 151, 17, 24, 50]</t>
+          <t>[7, 23, 172, 44, 129, 91, 221]</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>[2.272892475128174, 2.802130937576294, 2.920435667037964, 3.05937123298645, 3.6510016918182373, 3.694831371307373, 4.023623466491699]</t>
+          <t>[2.2308597564697266, 2.3317604064941406, 2.395681142807007, 2.496037244796753, 2.656198740005493, 2.829684257507324, 3.1746480464935303]</t>
         </is>
       </c>
       <c r="U36" t="n">
         <v>2</v>
       </c>
       <c r="V36" t="n">
-        <v>2.342055414308382</v>
+        <v>2.324257816275622</v>
       </c>
       <c r="W36" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="X36" t="n">
-        <v>0.4081550283109528</v>
+        <v>0.5319968092068358</v>
       </c>
       <c r="Y36" t="n">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.466054</t>
+          <t>2025-11-02T02:11:02.924226</t>
         </is>
       </c>
     </row>
@@ -3786,13 +3778,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
@@ -3802,7 +3794,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -3810,60 +3802,64 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K37" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L37" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>[111, 50, 11, 108, 57, 0, 20]</t>
+          <t>[186, 208, 170, 178, 201, 146, 190]</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 1, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[1.9820659160614014, 2.319976568222046, 2.592491388320923, 2.670415163040161, 2.9305782318115234, 2.942232370376587, 2.9427199363708496]</t>
+          <t>[2.822661876678467, 2.88502836227417, 3.0781867504119873, 3.16042423248291, 3.2280783653259277, 3.311967611312866, 3.543264865875244]</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>[50, 11, 108, 20, 17, 24, 151]</t>
+          <t>[186, 69, 127, 33, 133, 153, 164]</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>[2.319976568222046, 2.592491388320923, 2.670415163040161, 2.9427199363708496, 3.868528127670288, 4.2171196937561035, 4.284195899963379]</t>
+          <t>[2.822661876678467, 3.6238908767700195, 3.6895217895507812, 3.698796033859253, 4.256218433380127, 4.271597385406494, 4.371817111968994]</t>
         </is>
       </c>
       <c r="U37" t="n">
         <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>2.456234075691682</v>
+        <v>2.981607527449326</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.5454543991712841</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>208</v>
+      </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.466054</t>
+          <t>2025-11-02T02:11:02.925225</t>
         </is>
       </c>
     </row>
@@ -3874,10 +3870,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -3890,7 +3886,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -3898,13 +3894,13 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K38" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L38" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="b">
@@ -3915,47 +3911,47 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>[11, 111, 6, 23, 30, 26, 20]</t>
+          <t>[221, 23, 183, 200, 99, 212, 128]</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 1, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[1.534854769706726, 1.7137212753295898, 2.3576743602752686, 2.5406486988067627, 2.5969901084899902, 2.6338131427764893, 2.655343770980835]</t>
+          <t>[2.129277467727661, 2.2140614986419678, 2.402139186859131, 2.915306329727173, 2.9374606609344482, 3.1052844524383545, 3.159788131713867]</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>[11, 20, 100, 50, 17, 24, 151]</t>
+          <t>[221, 23, 128, 156, 152, 69, 216]</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>[1.534854769706726, 2.655343770980835, 2.670415163040161, 2.7489938735961914, 3.0713717937469482, 3.1198487281799316, 3.215420722961426]</t>
+          <t>[2.129277467727661, 2.2140614986419678, 3.159788131713867, 3.2249367237091064, 3.269244909286499, 3.4646949768066406, 3.4662156105041504]</t>
         </is>
       </c>
       <c r="U38" t="n">
         <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>2.035697777445339</v>
+        <v>2.308100461078276</v>
       </c>
       <c r="W38" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4739308912122809</v>
+        <v>0.5816531771933308</v>
       </c>
       <c r="Y38" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.466054</t>
+          <t>2025-11-02T02:11:02.925225</t>
         </is>
       </c>
     </row>
@@ -3966,13 +3962,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
@@ -3982,68 +3978,72 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H39" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L39" t="n">
         <v>0.8631205685666311</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.9852281360342515</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>[151, 134, 61, 79, 6, 52, 135]</t>
+          <t>[183, 23, 212, 219, 132, 180, 99]</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 1, 1]</t>
+          <t>[0, 1, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[1.7060920000076294, 2.0355653762817383, 2.0931923389434814, 2.273529291152954, 2.6738758087158203, 2.802130937576294, 2.865602731704712]</t>
+          <t>[1.569798231124878, 1.677281379699707, 1.829494833946228, 2.129277467727661, 2.6934051513671875, 2.9092702865600586, 3.0138089656829834]</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>[151, 52, 135, 17, 20, 108, 11]</t>
+          <t>[23, 219, 156, 69, 158, 216, 152]</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>[1.7060920000076294, 2.802130937576294, 2.865602731704712, 3.1568026542663574, 3.219390630722046, 3.7929282188415527, 3.8378331661224365]</t>
+          <t>[1.677281379699707, 2.129277467727661, 3.014296531677246, 3.041167974472046, 3.1437838077545166, 3.1746480464935303, 3.237196445465088]</t>
         </is>
       </c>
       <c r="U39" t="n">
         <v>2</v>
       </c>
       <c r="V39" t="n">
-        <v>2.064378877517481</v>
+        <v>1.753388062985897</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.4940601268892077</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>23</v>
+      </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.467052</t>
+          <t>2025-11-02T02:11:02.925225</t>
         </is>
       </c>
     </row>
@@ -4054,10 +4054,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>135</v>
+        <v>224</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -4070,7 +4070,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -4078,13 +4078,13 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K40" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L40" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="b">
@@ -4095,47 +4095,47 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>[61, 52, 99, 79, 118, 134, 145]</t>
+          <t>[123, 143, 54, 37, 127, 11, 169]</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>[2.1085073947906494, 2.272892475128174, 2.626561403274536, 2.788144826889038, 2.865602731704712, 2.8778669834136963, 2.915306329727173]</t>
+          <t>[3.001376152038574, 3.13631272315979, 3.3224658966064453, 3.5014545917510986, 3.5061280727386475, 3.513136625289917, 3.603900671005249]</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>[52, 118, 151, 17, 20, 24, 11]</t>
+          <t>[127, 207, 229, 227, 116, 42, 186]</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>[2.272892475128174, 2.865602731704712, 3.2639973163604736, 3.767313003540039, 3.855515480041504, 3.8718533515930176, 4.241246700286865]</t>
+          <t>[3.5061280727386475, 3.979890823364258, 4.103001594543457, 4.248110294342041, 4.366682052612305, 4.449902057647705, 4.455245018005371]</t>
         </is>
       </c>
       <c r="U40" t="n">
         <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>2.449726972779041</v>
+        <v>3.229389230966198</v>
       </c>
       <c r="W40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X40" t="n">
-        <v>0.5630922856909668</v>
+        <v>0.5675420211814656</v>
       </c>
       <c r="Y40" t="n">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.467052</t>
+          <t>2025-11-02T02:11:02.925225</t>
         </is>
       </c>
     </row>
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -4162,7 +4162,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -4187,47 +4187,47 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>[134, 118, 6, 79, 18, 153, 30]</t>
+          <t>[21, 98, 191, 45, 143, 29, 182]</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[1.3938581943511963, 1.7060920000076294, 2.1510233879089355, 2.4278202056884766, 2.5747783184051514, 2.610424518585205, 2.642181158065796]</t>
+          <t>[1.9663522243499756, 2.5480358600616455, 2.9257071018218994, 2.959751605987549, 3.0159928798675537, 3.1764447689056396, 3.278994083404541]</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>[118, 20, 17, 52, 108, 135, 24]</t>
+          <t>[191, 40, 7, 129, 172, 44, 216]</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>[1.7060920000076294, 2.811572790145874, 2.9810237884521484, 3.05937123298645, 3.215420722961426, 3.2639973163604736, 3.4767377376556396]</t>
+          <t>[2.9257071018218994, 3.5515825748443604, 3.785435914993286, 3.9285852909088135, 3.945901393890381, 4.115358829498291, 4.117285251617432]</t>
         </is>
       </c>
       <c r="U41" t="n">
         <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>1.928557855300365</v>
+        <v>2.736871479423317</v>
       </c>
       <c r="W41" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4727259204758588</v>
+        <v>0.4777354579378964</v>
       </c>
       <c r="Y41" t="n">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.469055</t>
+          <t>2025-11-02T02:11:02.925225</t>
         </is>
       </c>
     </row>
@@ -4238,10 +4238,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -4254,7 +4254,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L42" t="n">
-        <v>0.8631205685666311</v>
+        <v>0</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="b">
@@ -4279,47 +4279,47 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>[3, 9, 16, 24, 26, 44, 12]</t>
+          <t>[223, 147, 107, 102, 103, 25, 145]</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>[2.892810106277466, 3.05875825881958, 3.3660900592803955, 3.3683085441589355, 3.494764566421509, 3.6614742279052734, 3.724172592163086]</t>
+          <t>[1.7707074880599976, 1.7857695817947388, 1.8208178281784058, 2.121445894241333, 2.201751708984375, 2.602972984313965, 2.620617389678955]</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>[16, 24, 11, 108, 151, 100, 17]</t>
+          <t>[207, 127, 240, 59, 116, 69, 96]</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>[3.3660900592803955, 3.3683085441589355, 3.853670597076416, 3.855963706970215, 4.02028751373291, 4.413537502288818, 4.44119119644165]</t>
+          <t>[3.049617290496826, 3.11919903755188, 3.419963836669922, 3.591749429702759, 3.842500686645508, 3.929159641265869, 3.9430723190307617]</t>
         </is>
       </c>
       <c r="U42" t="n">
         <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>3.212424356445046</v>
+        <v>1.803293644161312</v>
       </c>
       <c r="W42" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X42" t="n">
-        <v>0.5792182599846987</v>
+        <v>0.4795144042175045</v>
       </c>
       <c r="Y42" t="n">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.469055</t>
+          <t>2025-11-02T02:11:02.925225</t>
         </is>
       </c>
     </row>
@@ -4330,10 +4330,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -4346,7 +4346,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -4354,13 +4354,13 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K43" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="b">
@@ -4371,47 +4371,43 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>[50, 49, 111, 11, 108, 100, 20]</t>
+          <t>[49, 199, 148, 83, 129, 230, 44]</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[2.6757636070251465, 2.7044990062713623, 2.7197983264923096, 2.9016168117523193, 2.9225013256073, 2.942232370376587, 3.1461429595947266]</t>
+          <t>[1.8400804996490479, 2.1666834354400635, 2.3002851009368896, 2.4514589309692383, 2.5203371047973633, 2.610424518585205, 2.665207862854004]</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>[31, 82, 37, 117, 143, 61, 134]</t>
+          <t>[148, 129, 44, 23, 128, 91, 33]</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>[4.084439754486084, 4.126769542694092, 4.410943031311035, 4.509369850158691, 4.529363632202148, 4.662058353424072, 4.68782901763916]</t>
+          <t>[2.3002851009368896, 2.5203371047973633, 2.665207862854004, 2.8704593181610107, 2.9049696922302246, 2.9432685375213623, 3.013068914413452]</t>
         </is>
       </c>
       <c r="U43" t="n">
         <v>2</v>
       </c>
       <c r="V43" t="n">
-        <v>2.712148664891839</v>
+        <v>2.233484320237443</v>
       </c>
       <c r="W43" t="n">
-        <v>2</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0.4741636504396533</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.511505</t>
+          <t>2025-11-02T02:11:02.925225</t>
         </is>
       </c>
     </row>
@@ -4422,10 +4418,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>238</v>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -4438,7 +4434,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -4463,47 +4459,47 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>[155, 16, 154, 82, 50, 44, 11]</t>
+          <t>[46, 161, 180, 117, 65, 156, 3]</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>[2.892810106277466, 3.692901134490967, 3.7294578552246094, 3.80755877494812, 3.834012746810913, 3.835022449493408, 3.866638660430908]</t>
+          <t>[1.9929872751235962, 2.164055824279785, 2.4615471363067627, 2.6341612339019775, 2.683084726333618, 2.7034177780151367, 2.7142977714538574]</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>[82, 22, 152, 31, 61, 0, 134]</t>
+          <t>[156, 96, 95, 71, 133, 152, 158]</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>[3.80755877494812, 4.013927459716797, 4.310241222381592, 4.607492923736572, 4.6674299240112305, 4.8522467613220215, 4.913991451263428]</t>
+          <t>[2.7034177780151367, 3.061211109161377, 3.1665501594543457, 3.1941256523132324, 3.241288423538208, 3.3417186737060547, 3.3507072925567627]</t>
         </is>
       </c>
       <c r="U44" t="n">
         <v>2</v>
       </c>
       <c r="V44" t="n">
-        <v>3.711179640077895</v>
+        <v>2.312801572388097</v>
       </c>
       <c r="W44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4822074026636463</v>
+        <v>0.4457596330983245</v>
       </c>
       <c r="Y44" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.512505</t>
+          <t>2025-11-02T02:11:02.930230</t>
         </is>
       </c>
     </row>
@@ -4514,10 +4510,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -4530,7 +4526,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -4538,13 +4534,13 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K45" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L45" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="b">
@@ -4555,47 +4551,47 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>[116, 24, 134, 117, 26, 74, 153]</t>
+          <t>[101, 59, 157, 66, 63, 140, 141]</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 1, 0, 0, 0]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[2.4883787631988525, 2.496741533279419, 2.8122408390045166, 2.9189939498901367, 2.981300115585327, 2.989654302597046, 3.075882911682129]</t>
+          <t>[1.3502634763717651, 1.7053875923156738, 1.9086277484893799, 2.1442208290100098, 2.1796627044677734, 2.2660605907440186, 2.373059034347534]</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>[134, 117, 47, 115, 84, 91, 150]</t>
+          <t>[59, 104, 229, 58, 127, 158, 207]</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>[2.8122408390045166, 2.9189939498901367, 3.1672825813293457, 3.3183071613311768, 3.606015682220459, 3.7732062339782715, 4.06618070602417]</t>
+          <t>[1.7053875923156738, 3.226867914199829, 3.419963836669922, 3.7610912322998047, 3.9221479892730713, 3.967332124710083, 3.975140333175659]</t>
         </is>
       </c>
       <c r="U45" t="n">
         <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>2.654491153386764</v>
+        <v>1.807007675170146</v>
       </c>
       <c r="W45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X45" t="n">
-        <v>0.42961738599068</v>
+        <v>0.5971300908221201</v>
       </c>
       <c r="Y45" t="n">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.512505</t>
+          <t>2025-11-02T02:11:02.930230</t>
         </is>
       </c>
     </row>
@@ -4606,10 +4602,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -4622,7 +4618,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -4630,13 +4626,13 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K46" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L46" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="b">
@@ -4647,47 +4643,47 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>[16, 152, 37, 146, 102, 144, 32]</t>
+          <t>[26, 7, 35, 58, 211, 129, 162]</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>[2.51462721824646, 2.999060869216919, 3.6530215740203857, 3.6813976764678955, 3.8670177459716797, 3.913785219192505, 3.968353271484375]</t>
+          <t>[3.2055838108062744, 3.516126871109009, 3.694422483444214, 3.715003490447998, 3.749363899230957, 3.9005002975463867, 3.9088759422302246]</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>[152, 37, 3, 150, 117, 82, 31]</t>
+          <t>[26, 211, 162, 200, 230, 15, 83]</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>[2.999060869216919, 3.6530215740203857, 4.013927459716797, 4.300497531890869, 4.325685977935791, 4.344544887542725, 4.539531230926514]</t>
+          <t>[3.2055838108062744, 3.749363899230957, 3.9088759422302246, 4.079042434692383, 4.20143985748291, 4.327506065368652, 4.3634724617004395]</t>
         </is>
       </c>
       <c r="U46" t="n">
         <v>2</v>
       </c>
       <c r="V46" t="n">
-        <v>3.326041139709015</v>
+        <v>3.605274706619929</v>
       </c>
       <c r="W46" t="n">
         <v>5</v>
       </c>
       <c r="X46" t="n">
-        <v>0.5721461166512687</v>
+        <v>0.5701856897535025</v>
       </c>
       <c r="Y46" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.512505</t>
+          <t>2025-11-02T02:11:02.979239</t>
         </is>
       </c>
     </row>
@@ -4698,10 +4694,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -4714,21 +4710,21 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H47" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L47" t="n">
         <v>0.8631205685666311</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.5916727785823274</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="b">
@@ -4739,47 +4735,47 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>[107, 158, 11, 23, 50, 44, 91]</t>
+          <t>[162, 80, 166, 30, 161, 72, 46]</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>[1.5419940948486328, 1.9929872751235962, 2.339595079421997, 2.763245105743408, 2.7793664932250977, 2.7970752716064453, 2.8210320472717285]</t>
+          <t>[1.534854769706726, 1.787999153137207, 1.8753184080123901, 2.0450439453125, 2.0752005577087402, 2.2242181301116943, 2.339595079421997]</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>[91, 117, 82, 47, 61, 150, 0]</t>
+          <t>[162, 80, 22, 154, 26, 31, 230]</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>[2.8210320472717285, 3.3357131481170654, 3.622831344604492, 3.9319558143615723, 3.933823585510254, 4.059415817260742, 4.084439754486084]</t>
+          <t>[1.534854769706726, 1.787999153137207, 2.4899678230285645, 2.592491388320923, 2.8869500160217285, 3.0363340377807617, 3.561237335205078]</t>
         </is>
       </c>
       <c r="U47" t="n">
         <v>2</v>
       </c>
       <c r="V47" t="n">
-        <v>2.166291098978565</v>
+        <v>1.83165874525053</v>
       </c>
       <c r="W47" t="n">
         <v>1</v>
       </c>
       <c r="X47" t="n">
-        <v>0.4471969839497912</v>
+        <v>0.4978905520555126</v>
       </c>
       <c r="Y47" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.512505</t>
+          <t>2025-11-02T02:11:02.979239</t>
         </is>
       </c>
     </row>
@@ -4790,10 +4786,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -4806,7 +4802,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -4814,13 +4810,13 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K48" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L48" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="b">
@@ -4831,47 +4827,47 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>[52, 57, 20, 50, 61, 17, 22]</t>
+          <t>[227, 191, 29, 45, 98, 22, 234]</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 0, 1]</t>
+          <t>[0, 0, 0, 0, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>[3.0064890384674072, 3.1686296463012695, 3.1776034832000732, 3.263902187347412, 3.5256705284118652, 3.6433658599853516, 3.6530215740203857]</t>
+          <t>[1.9663522243499756, 2.1934688091278076, 2.51462721824646, 3.072340488433838, 3.2266159057617188, 3.323463201522827, 3.3660900592803955]</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>[61, 22, 117, 31, 152, 77, 150]</t>
+          <t>[98, 22, 234, 15, 26, 108, 203]</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>[3.5256705284118652, 3.6530215740203857, 4.069103240966797, 4.169571399688721, 4.243007659912109, 4.318285942077637, 4.335681915283203]</t>
+          <t>[3.2266159057617188, 3.323463201522827, 3.3660900592803955, 3.8647851943969727, 3.8977904319763184, 4.030810356140137, 4.173896789550781]</t>
         </is>
       </c>
       <c r="U48" t="n">
         <v>2</v>
       </c>
       <c r="V48" t="n">
-        <v>3.173116491790445</v>
+        <v>2.354048009189213</v>
       </c>
       <c r="W48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X48" t="n">
-        <v>0.5939819704323989</v>
+        <v>0.465191781040377</v>
       </c>
       <c r="Y48" t="n">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.512505</t>
+          <t>2025-11-02T02:11:02.979239</t>
         </is>
       </c>
     </row>
@@ -4882,10 +4878,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -4898,7 +4894,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -4906,13 +4902,13 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K49" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L49" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="b">
@@ -4923,47 +4919,47 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>[115, 116, 117, 99, 80, 6, 17]</t>
+          <t>[7, 79, 129, 44, 15, 172, 216]</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>[0.8526129126548767, 2.1276609897613525, 2.1540064811706543, 2.408216714859009, 2.439350128173828, 2.854355573654175, 2.8707852363586426]</t>
+          <t>[1.6683409214019775, 1.6956521272659302, 2.0117173194885254, 2.019717216491699, 2.4899678230285645, 2.51100492477417, 2.526862144470215]</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>[115, 117, 134, 15, 91, 84, 150]</t>
+          <t>[15, 26, 230, 203, 162, 176, 21]</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>[0.8526129126548767, 2.1540064811706543, 2.93046498298645, 3.1672825813293457, 3.390305995941162, 3.5318410396575928, 3.7233822345733643]</t>
+          <t>[2.4899678230285645, 2.7796781063079834, 2.9810237884521484, 2.982348918914795, 3.0713717937469482, 3.1568026542663574, 3.323463201522827]</t>
         </is>
       </c>
       <c r="U49" t="n">
         <v>2</v>
       </c>
       <c r="V49" t="n">
-        <v>2.140833741015508</v>
+        <v>1.853684705283205</v>
       </c>
       <c r="W49" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X49" t="n">
-        <v>0.4690142496053366</v>
+        <v>0.5422299064876035</v>
       </c>
       <c r="Y49" t="n">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.512505</t>
+          <t>2025-11-02T02:11:02.980251</t>
         </is>
       </c>
     </row>
@@ -4974,10 +4970,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -4990,7 +4986,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H50" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -4998,13 +4994,13 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K50" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="b">
@@ -5015,47 +5011,47 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>[52, 118, 79, 135, 18, 153, 95]</t>
+          <t>[7, 44, 91, 129, 216, 162, 166]</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>[1.8855911493301392, 2.0931923389434814, 2.0941412448883057, 2.1085073947906494, 2.647735357284546, 2.7094876766204834, 2.7189247608184814]</t>
+          <t>[1.631659984588623, 2.007803201675415, 2.065087080001831, 2.339129686355591, 2.573570966720581, 2.655343770980835, 2.7406766414642334]</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>[134, 37, 150, 143, 117, 31, 77]</t>
+          <t>[162, 22, 230, 80, 15, 83, 154]</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>[2.9013891220092773, 3.5256705284118652, 3.542330503463745, 3.60868501663208, 3.8566064834594727, 3.933823585510254, 3.976564884185791]</t>
+          <t>[2.655343770980835, 2.7796781063079834, 2.811572790145874, 2.842651605606079, 2.8869500160217285, 2.920435667037964, 2.9427199363708496]</t>
         </is>
       </c>
       <c r="U50" t="n">
         <v>2</v>
       </c>
       <c r="V50" t="n">
-        <v>2.093666757006604</v>
+        <v>2.036445016542462</v>
       </c>
       <c r="W50" t="n">
         <v>4</v>
       </c>
       <c r="X50" t="n">
-        <v>0.453356202855057</v>
+        <v>0.576527268637868</v>
       </c>
       <c r="Y50" t="n">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.512505</t>
+          <t>2025-11-02T02:11:02.980251</t>
         </is>
       </c>
     </row>
@@ -5066,10 +5062,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -5082,7 +5078,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -5090,13 +5086,13 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L51" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="b">
@@ -5107,47 +5103,47 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>[84, 17, 30, 80, 6, 137, 153]</t>
+          <t>[33, 144, 17, 20, 88, 167, 199]</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>[2.8182311058044434, 2.9154648780822754, 3.0957157611846924, 3.393965005874634, 3.4430394172668457, 3.4548776149749756, 3.494460105895996]</t>
+          <t>[1.7645351886749268, 2.3900933265686035, 2.4333996772766113, 2.496741533279419, 2.6060101985931396, 2.7321465015411377, 2.7615203857421875]</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>[84, 61, 134, 37, 152, 150, 117]</t>
+          <t>[15, 55, 162, 234, 22, 217, 230]</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>[2.8182311058044434, 3.976564884185791, 3.988842248916626, 4.318285942077637, 4.487721920013428, 4.615389347076416, 4.728551864624023]</t>
+          <t>[3.0363340377807617, 3.068979024887085, 3.1198487281799316, 3.3683085441589355, 3.441871166229248, 3.4492104053497314, 3.4767377376556396]</t>
         </is>
       </c>
       <c r="U51" t="n">
         <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>3.005590320299264</v>
+        <v>2.411746349972376</v>
       </c>
       <c r="W51" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X51" t="n">
-        <v>0.4444215620941461</v>
+        <v>0.5185393447758787</v>
       </c>
       <c r="Y51" t="n">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.512505</t>
+          <t>2025-11-02T02:11:02.980251</t>
         </is>
       </c>
     </row>
@@ -5158,10 +5154,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -5174,7 +5170,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -5182,13 +5178,13 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K52" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="b">
@@ -5199,47 +5195,47 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>[44, 104, 121, 146, 154, 59, 18]</t>
+          <t>[58, 41, 26, 99, 57, 226, 0]</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>[2.447383403778076, 2.6376616954803467, 2.6756088733673096, 2.6934051513671875, 2.770472288131714, 2.8144350051879883, 2.900803565979004]</t>
+          <t>[3.134158134460449, 3.2311530113220215, 3.4561336040496826, 3.4615747928619385, 3.7260634899139404, 3.810075044631958, 3.8162200450897217]</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>[91, 31, 3, 134, 15, 0, 61]</t>
+          <t>[26, 176, 83, 80, 108, 22, 15]</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>[3.3203063011169434, 3.622831344604492, 3.80755877494812, 3.8963606357574463, 4.073873519897461, 4.126769542694092, 4.308327674865723]</t>
+          <t>[3.4561336040496826, 3.8366098403930664, 3.914154291152954, 3.952360153198242, 4.19521427154541, 4.361567974090576, 4.487534999847412]</t>
         </is>
       </c>
       <c r="U52" t="n">
         <v>2</v>
       </c>
       <c r="V52" t="n">
-        <v>2.656635308657509</v>
+        <v>3.34364313387246</v>
       </c>
       <c r="W52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X52" t="n">
-        <v>0.5792182599846987</v>
+        <v>0.5675420211814656</v>
       </c>
       <c r="Y52" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.512505</t>
+          <t>2025-11-02T02:11:02.980251</t>
         </is>
       </c>
     </row>
@@ -5250,13 +5246,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>7</v>
@@ -5266,7 +5262,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -5274,7 +5270,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K53" t="n">
         <v>0.2857142857142857</v>
@@ -5284,50 +5280,54 @@
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="b">
         <v>1</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>[116, 77, 17, 80, 117, 115, 47]</t>
+          <t>[175, 50, 234, 213, 55, 77, 169]</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 1, 1, 1]</t>
+          <t>[0, 0, 1, 1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>[2.738722562789917, 2.8182311058044434, 2.8766744136810303, 3.1398518085479736, 3.25577449798584, 3.382885694503784, 3.5318410396575928]</t>
+          <t>[3.137193202972412, 4.101547718048096, 4.122116565704346, 4.2913923263549805, 4.353423118591309, 4.395273685455322, 4.402959823608398]</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>[77, 117, 115, 47, 15, 134, 150]</t>
+          <t>[234, 213, 55, 43, 83, 154, 21]</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>[2.8182311058044434, 3.25577449798584, 3.382885694503784, 3.5318410396575928, 3.606015682220459, 3.8974387645721436, 3.933105230331421]</t>
+          <t>[4.122116565704346, 4.2913923263549805, 4.353423118591309, 4.809115409851074, 5.11059045791626, 5.119167804718018, 5.12009334564209]</t>
         </is>
       </c>
       <c r="U53" t="n">
         <v>2</v>
       </c>
       <c r="V53" t="n">
-        <v>2.847452664135147</v>
+        <v>4.111831927804866</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
-      </c>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.516137324287291</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>50</v>
+      </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.512505</t>
+          <t>2025-11-02T02:11:02.980251</t>
         </is>
       </c>
     </row>
@@ -5338,10 +5338,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
@@ -5354,21 +5354,21 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H54" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L54" t="n">
         <v>0.8631205685666311</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0.5916727785823274</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="b">
@@ -5379,47 +5379,47 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>[121, 99, 24, 44, 12, 158, 31]</t>
+          <t>[26, 91, 166, 194, 44, 126, 24]</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>[2.2331972122192383, 2.287184715270996, 2.3900933265686035, 2.5781495571136475, 2.585651159286499, 2.7923738956451416, 2.8210320472717285]</t>
+          <t>[3.1988234519958496, 3.434652090072632, 3.5039336681365967, 3.6568307876586914, 3.683236598968506, 3.700705051422119, 3.711005926132202]</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>[31, 82, 134, 47, 115, 117, 15]</t>
+          <t>[26, 194, 154, 83, 162, 80, 203]</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>[2.8210320472717285, 3.3203063011169434, 3.3311190605163574, 3.390305995941162, 3.406442642211914, 3.5851521492004395, 3.7732062339782715]</t>
+          <t>[3.1988234519958496, 3.6568307876586914, 3.8196210861206055, 4.09438943862915, 4.221594333648682, 4.395537376403809, 4.3962016105651855]</t>
         </is>
       </c>
       <c r="U54" t="n">
         <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>2.33863888297737</v>
+        <v>3.469292912704624</v>
       </c>
       <c r="W54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X54" t="n">
-        <v>0.5852601757026697</v>
+        <v>0.478976303635114</v>
       </c>
       <c r="Y54" t="n">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.512505</t>
+          <t>2025-11-02T02:11:02.980251</t>
         </is>
       </c>
     </row>
@@ -5430,13 +5430,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>7</v>
@@ -5446,7 +5446,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -5454,60 +5454,64 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K55" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L55" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="b">
         <v>1</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>[47, 99, 116, 117, 80, 17, 134]</t>
+          <t>[33, 106, 175, 31, 149, 49, 76]</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 1]</t>
+          <t>[0, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>[0.8526129126548767, 2.3779051303863525, 2.5295732021331787, 2.5605993270874023, 2.817239284515381, 3.082571506500244, 3.209779977798462]</t>
+          <t>[2.839991331100464, 2.886033296585083, 2.9719748497009277, 3.068979024887085, 3.289558172225952, 3.340344190597534, 3.3905649185180664]</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>[47, 117, 134, 15, 84, 91, 150]</t>
+          <t>[31, 217, 162, 15, 83, 234, 230]</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>[0.8526129126548767, 2.5605993270874023, 3.209779977798462, 3.3183071613311768, 3.382885694503784, 3.406442642211914, 4.106466293334961]</t>
+          <t>[3.068979024887085, 3.6488983631134033, 3.686410427093506, 3.821354389190674, 4.121936798095703, 4.130223274230957, 4.289585590362549]</t>
         </is>
       </c>
       <c r="U55" t="n">
         <v>2</v>
       </c>
       <c r="V55" t="n">
-        <v>2.453739160365515</v>
+        <v>2.929004058058688</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.44571000435946</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>33</v>
+      </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.513505</t>
+          <t>2025-11-02T02:11:02.980251</t>
         </is>
       </c>
     </row>
@@ -5518,13 +5522,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>7</v>
@@ -5534,7 +5538,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -5542,60 +5546,64 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L56" t="n">
-        <v>0.9852281360342515</v>
+        <v>0</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="b">
         <v>1</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>[116, 47, 150, 80, 144, 115, 17]</t>
+          <t>[153, 88, 199, 73, 171, 20, 206]</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 0, 0, 1, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>[2.0827512741088867, 2.1540064811706543, 2.4119300842285156, 2.4664673805236816, 2.5234546661376953, 2.5605993270874023, 2.6486597061157227]</t>
+          <t>[2.38037371635437, 2.702544927597046, 2.839968204498291, 2.8584468364715576, 3.1123876571655273, 3.2428297996520996, 3.2512266635894775]</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>[47, 150, 115, 15, 84, 31, 134]</t>
+          <t>[230, 200, 31, 22, 176, 98, 83]</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>[2.1540064811706543, 2.4119300842285156, 2.5605993270874023, 2.9189939498901367, 3.25577449798584, 3.3357131481170654, 3.521355152130127]</t>
+          <t>[3.348684072494507, 3.596447467803955, 3.642634630203247, 3.8660225868225098, 4.099058628082275, 4.134286880493164, 4.271505832672119]</t>
         </is>
       </c>
       <c r="U56" t="n">
         <v>2</v>
       </c>
       <c r="V56" t="n">
-        <v>2.282968346052536</v>
+        <v>2.771256455612138</v>
       </c>
       <c r="W56" t="n">
-        <v>0</v>
-      </c>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.5470432238481544</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>88</v>
+      </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.513505</t>
+          <t>2025-11-02T02:11:02.980251</t>
         </is>
       </c>
     </row>
@@ -5606,10 +5614,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -5622,7 +5630,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -5630,13 +5638,13 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K57" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="b">
@@ -5647,47 +5655,47 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>[151, 118, 153, 80, 6, 18, 17]</t>
+          <t>[15, 154, 166, 0, 95, 162, 30]</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>[1.3938581943511963, 2.0355653762817383, 2.1666834354400635, 2.4049243927001953, 2.406520128250122, 2.5560109615325928, 2.599433183670044]</t>
+          <t>[1.787999153137207, 2.319976568222046, 2.4990010261535645, 2.6757636070251465, 2.726400136947632, 2.7489938735961914, 2.7599363327026367]</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>[15, 61, 47, 115, 143, 91, 117]</t>
+          <t>[15, 154, 162, 26, 22, 117, 36]</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>[2.8122408390045166, 2.9013891220092773, 2.93046498298645, 3.209779977798462, 3.227172613143921, 3.3311190605163574, 3.521355152130127]</t>
+          <t>[1.787999153137207, 2.319976568222046, 2.7489938735961914, 2.842651605606079, 3.349195957183838, 3.921265125274658, 3.952360153198242]</t>
         </is>
       </c>
       <c r="U57" t="n">
         <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>2.101124475644301</v>
+        <v>2.409488918737019</v>
       </c>
       <c r="W57" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="X57" t="n">
-        <v>0.5392608545679577</v>
+        <v>0.4190820232980823</v>
       </c>
       <c r="Y57" t="n">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.513505</t>
+          <t>2025-11-02T02:11:02.980251</t>
         </is>
       </c>
     </row>
@@ -5698,10 +5706,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -5714,21 +5722,21 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H58" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L58" t="n">
         <v>0.8631205685666311</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J58" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0.5916727785823274</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="b">
@@ -5739,47 +5747,47 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>[52, 151, 20, 153, 118, 134, 57]</t>
+          <t>[99, 200, 215, 148, 232, 199, 176]</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+          <t>[0, 1, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>[2.4112184047698975, 2.924050807952881, 2.9326298236846924, 3.0970330238342285, 3.222374200820923, 3.227172613143921, 3.28189754486084]</t>
+          <t>[1.8855911493301392, 2.272892475128174, 2.4112184047698975, 2.4177052974700928, 2.4514589309692383, 2.7574868202209473, 2.802130937576294]</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>[134, 61, 37, 0, 152, 15, 82]</t>
+          <t>[200, 176, 26, 230, 22, 31, 36]</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>[3.227172613143921, 3.60868501663208, 4.34523868560791, 4.529363632202148, 4.6430559158325195, 4.753149509429932, 4.850210666656494]</t>
+          <t>[2.272892475128174, 2.802130937576294, 2.920435667037964, 3.05937123298645, 3.6510016918182373, 3.694831371307373, 3.914154291152954]</t>
         </is>
       </c>
       <c r="U58" t="n">
         <v>2</v>
       </c>
       <c r="V58" t="n">
-        <v>2.928340292330329</v>
+        <v>2.342055414308382</v>
       </c>
       <c r="W58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X58" t="n">
-        <v>0.5885707141115961</v>
+        <v>0.4031272813482388</v>
       </c>
       <c r="Y58" t="n">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.513505</t>
+          <t>2025-11-02T02:11:02.980251</t>
         </is>
       </c>
     </row>
@@ -5790,10 +5798,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -5806,21 +5814,21 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H59" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L59" t="n">
         <v>0.8631205685666311</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0.5916727785823274</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="b">
@@ -5831,47 +5839,47 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>[144, 117, 80, 95, 18, 116, 6]</t>
+          <t>[45, 227, 21, 12, 191, 234, 143]</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>[2.3167550563812256, 2.4119300842285156, 2.765831232070923, 3.0016419887542725, 3.001999855041504, 3.0416619777679443, 3.2590510845184326]</t>
+          <t>[2.2163619995117188, 2.5480358600616455, 3.2266159057617188, 3.277146816253662, 3.3153884410858154, 3.4459431171417236, 3.4654288291931152]</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>[117, 61, 47, 84, 31, 15, 115]</t>
+          <t>[21, 234, 60, 212, 200, 22, 203]</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>[2.4119300842285156, 3.542330503463745, 3.7233822345733643, 3.933105230331421, 4.059415817260742, 4.06618070602417, 4.106466293334961]</t>
+          <t>[3.2266159057617188, 3.4459431171417236, 4.134286880493164, 4.257442474365234, 4.321629047393799, 4.460781097412109, 4.55197286605835]</t>
         </is>
       </c>
       <c r="U59" t="n">
         <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>2.588880658408893</v>
+        <v>2.887325951681077</v>
       </c>
       <c r="W59" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="X59" t="n">
-        <v>0.450783082786869</v>
+        <v>0.4971227507172453</v>
       </c>
       <c r="Y59" t="n">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-29T23:40:24.513505</t>
+          <t>2025-11-02T02:11:02.981248</t>
         </is>
       </c>
     </row>
@@ -5882,10 +5890,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -5898,7 +5906,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H60" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -5906,13 +5914,13 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K60" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L60" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="b">
@@ -5923,52 +5931,3908 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>[22, 16, 32, 20, 57, 30, 37]</t>
+          <t>[191, 58, 21, 40, 36, 227, 200]</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
+          <t>[0, 0, 1, 0, 1, 0, 1]</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>[3.775514841079712, 4.004434108734131, 4.030810356140137, 4.061892986297607, 4.19521427154541, 4.236994743347168, 4.294658660888672]</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>[21, 36, 200, 176, 26, 9, 211]</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>[4.030810356140137, 4.19521427154541, 4.294658660888672, 4.667721748352051, 4.753654956817627, 4.816593647003174, 4.828000545501709]</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>4.017622335947918</v>
+      </c>
+      <c r="W60" t="n">
+        <v>4</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.5173502331327696</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>191</v>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:02.981248</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>117</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>7</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="b">
+        <v>1</v>
+      </c>
+      <c r="O61" t="b">
+        <v>1</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>[96, 65, 196, 158, 140, 238, 235]</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>[2.08669114112854, 2.227675199508667, 2.3426873683929443, 2.506221055984497, 2.5986342430114746, 2.6341612339019775, 2.6494483947753906]</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>[203, 15, 80, 22, 31, 200, 162]</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>[3.6904985904693604, 3.796076774597168, 3.921265125274658, 4.063713550567627, 4.563348770141602, 4.5670270919799805, 4.654026985168457]</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2.28518137580007</v>
+      </c>
+      <c r="W61" t="n">
+        <v>4</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.5880266884915557</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:02.981248</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>139</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>7</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="b">
+        <v>1</v>
+      </c>
+      <c r="O62" t="b">
+        <v>1</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>[116, 28, 190, 127, 218, 237, 5]</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>[2.4481759071350098, 2.948559284210205, 3.002899408340454, 3.5110983848571777, 3.6466357707977295, 3.710803747177124, 3.7864840030670166]</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>[154, 234, 194, 162, 31, 15, 55]</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>[3.8924527168273926, 4.064114093780518, 4.238717079162598, 4.502376079559326, 4.503410339355469, 4.538830280303955, 4.541475296020508]</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.975729271129699</v>
+      </c>
+      <c r="W62" t="n">
+        <v>4</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.5570681302227887</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:02.981248</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>154</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>7</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="b">
+        <v>1</v>
+      </c>
+      <c r="O63" t="b">
+        <v>1</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>[166, 80, 15, 162, 192, 91, 0]</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>[0, 1, 1, 1, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>[1.9820659160614014, 2.319976568222046, 2.592491388320923, 2.670415163040161, 2.8793983459472656, 2.9305782318115234, 2.942232370376587]</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>[80, 15, 162, 26, 43, 22, 139]</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>[2.319976568222046, 2.592491388320923, 2.670415163040161, 2.9427199363708496, 3.8196210861206055, 3.868528127670288, 3.8924527168273926]</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2.456234075691682</v>
+      </c>
+      <c r="W63" t="n">
+        <v>2</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.5082895947655132</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>166</v>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:02.981248</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>162</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>7</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="b">
+        <v>1</v>
+      </c>
+      <c r="O64" t="b">
+        <v>1</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>[15, 166, 7, 30, 44, 33, 26]</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
           <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>[2.999060869216919, 3.5367958545684814, 3.581364870071411, 3.7863786220550537, 3.98178768157959, 4.065807819366455, 4.243007659912109]</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>[22, 37, 3, 77, 61, 143, 150]</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>[2.999060869216919, 4.243007659912109, 4.310241222381592, 4.487721920013428, 4.523870944976807, 4.6430559158325195, 4.773914813995361]</t>
-        </is>
-      </c>
-      <c r="U60" t="n">
-        <v>2</v>
-      </c>
-      <c r="V60" t="n">
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>[1.534854769706726, 1.7137212753295898, 2.3576743602752686, 2.5406486988067627, 2.5969901084899902, 2.6338131427764893, 2.655343770980835]</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>[15, 26, 154, 80, 22, 31, 230]</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>[1.534854769706726, 2.655343770980835, 2.670415163040161, 2.7489938735961914, 3.0713717937469482, 3.1198487281799316, 3.215420722961426]</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>2.035697777445339</v>
+      </c>
+      <c r="W64" t="n">
+        <v>4</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.5693322284476612</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>166</v>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:02.981248</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>176</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>7</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="b">
+        <v>1</v>
+      </c>
+      <c r="O65" t="b">
+        <v>1</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>[230, 199, 99, 128, 7, 83, 200]</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>[1, 0, 0, 0, 0, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>[1.7060920000076294, 2.0355653762817383, 2.0931923389434814, 2.273529291152954, 2.6738758087158203, 2.802130937576294, 2.865602731704712]</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>[230, 83, 200, 22, 26, 162, 36]</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>[1.7060920000076294, 2.802130937576294, 2.865602731704712, 3.1568026542663574, 3.219390630722046, 3.7929282188415527, 3.8366098403930664]</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.064378877517481</v>
+      </c>
+      <c r="W65" t="n">
+        <v>3</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.480901625424438</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>199</v>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:02.981248</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>194</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>7</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="b">
+        <v>1</v>
+      </c>
+      <c r="O66" t="b">
+        <v>1</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>[35, 49, 43, 148, 232, 154, 83]</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>[0, 0, 1, 0, 0, 1, 1]</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>[3.5676956176757812, 3.6266517639160156, 3.6568307876586914, 3.7078161239624023, 3.8171629905700684, 3.9570789337158203, 3.9962801933288574]</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>[43, 154, 83, 139, 26, 212, 55]</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>[3.6568307876586914, 3.9570789337158203, 3.9962801933288574, 4.238717079162598, 4.271120548248291, 4.349822044372559, 4.516470909118652]</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3.641741301070294</v>
+      </c>
+      <c r="W66" t="n">
+        <v>3</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.5494640220274761</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>49</v>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:02.981248</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>200</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>7</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="b">
+        <v>1</v>
+      </c>
+      <c r="O67" t="b">
+        <v>1</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>[99, 83, 153, 128, 176, 199, 219]</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>[0, 1, 0, 0, 1, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>[2.1085073947906494, 2.272892475128174, 2.626561403274536, 2.788144826889038, 2.865602731704712, 2.8778669834136963, 2.915306329727173]</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>[83, 176, 230, 60, 22, 26, 31]</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>[2.272892475128174, 2.865602731704712, 3.2639973163604736, 3.596447467803955, 3.767313003540039, 3.855515480041504, 3.8718533515930176]</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>2</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2.449726972779041</v>
+      </c>
+      <c r="W67" t="n">
+        <v>4</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.5632863746438768</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>99</v>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:02.982247</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>203</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>7</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="b">
+        <v>1</v>
+      </c>
+      <c r="O68" t="b">
+        <v>1</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>[134, 126, 22, 216, 95, 111, 79]</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>[2.355604410171509, 2.7700212001800537, 2.982348918914795, 3.0997812747955322, 3.176607608795166, 3.36729097366333, 3.3918046951293945]</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>[22, 117, 212, 15, 21, 162, 43]</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>[2.982348918914795, 3.6904985904693604, 3.6958258152008057, 3.8690881729125977, 4.173896789550781, 4.395440101623535, 4.3962016105651855]</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>2.876184965466553</v>
+      </c>
+      <c r="W68" t="n">
+        <v>5</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.4557742705184364</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>134</v>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:02.982371</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>211</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>7</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="b">
+        <v>1</v>
+      </c>
+      <c r="O69" t="b">
+        <v>1</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>[68, 9, 58, 173, 35, 200, 32]</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>[0, 1, 0, 0, 0, 1, 0]</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>[3.6746625900268555, 3.749363899230957, 3.967996597290039, 3.985002040863037, 4.203555583953857, 4.294126033782959, 4.412343502044678]</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>[9, 200, 26, 43, 83, 36, 108]</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>[3.749363899230957, 4.294126033782959, 4.579994201660156, 4.741941928863525, 4.761606216430664, 4.7987446784973145, 4.828000545501709]</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>3.858680267337031</v>
+      </c>
+      <c r="W69" t="n">
+        <v>2</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.4807672342116082</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>68</v>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:02.982371</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>212</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>7</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="b">
+        <v>1</v>
+      </c>
+      <c r="O70" t="b">
+        <v>1</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>[183, 221, 23, 216, 132, 167, 20]</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>[1.345908761024475, 1.829494833946228, 2.1395843029022217, 2.8689730167388916, 2.880516529083252, 2.9120335578918457, 3.018996238708496]</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>[22, 203, 31, 15, 230, 98, 83]</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>[3.590059280395508, 3.6958258152008057, 3.85984206199646, 3.9838953018188477, 4.139871120452881, 4.257442474365234, 4.287247657775879]</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1.984539560289706</v>
+      </c>
+      <c r="W70" t="n">
+        <v>5</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.4567841949474932</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>183</v>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:02.982371</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>213</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>7</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="b">
+        <v>1</v>
+      </c>
+      <c r="O71" t="b">
+        <v>1</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>[234, 4, 166, 33, 162, 185, 50]</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>[1, 0, 0, 0, 1, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>[2.438930034637451, 3.3351550102233887, 3.7653098106384277, 3.8046765327453613, 3.9395532608032227, 3.9991860389709473, 4.050629138946533]</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>[234, 162, 154, 230, 31, 38, 15]</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>[2.438930034637451, 3.9395532608032227, 4.142775058746338, 4.2168731689453125, 4.221288204193115, 4.2913923263549805, 4.300155162811279]</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>3.550232493697703</v>
+      </c>
+      <c r="W71" t="n">
+        <v>3</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.487867300373154</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:02.982371</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>217</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>7</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="b">
+        <v>1</v>
+      </c>
+      <c r="O72" t="b">
+        <v>1</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>[33, 31, 49, 55, 76, 149, 56]</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>[0, 1, 0, 1, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>[3.42080020904541, 3.4492104053497314, 3.6374709606170654, 3.6488983631134033, 3.670941114425659, 3.6788272857666016, 3.708861827850342]</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>[31, 55, 162, 203, 15, 234, 200]</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>[3.4492104053497314, 3.6488983631134033, 4.3342766761779785, 4.536752700805664, 4.614987373352051, 4.7189130783081055, 4.878347873687744]</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3.543340624229082</v>
+      </c>
+      <c r="W72" t="n">
+        <v>4</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.5391625613581763</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:02.982371</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>230</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>7</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="b">
+        <v>1</v>
+      </c>
+      <c r="O73" t="b">
+        <v>1</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>[199, 176, 7, 128, 23, 232, 88]</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>[1.3938581943511963, 1.7060920000076294, 2.1510233879089355, 2.4278202056884766, 2.5747783184051514, 2.610424518585205, 2.626274347305298]</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>[176, 26, 22, 83, 162, 200, 60]</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>[1.7060920000076294, 2.811572790145874, 2.9810237884521484, 3.05937123298645, 3.215420722961426, 3.2639973163604736, 3.348684072494507]</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>1.928557855300365</v>
+      </c>
+      <c r="W73" t="n">
+        <v>7</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.4066101465801097</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>176</v>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:02.982371</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>234</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>7</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="b">
+        <v>1</v>
+      </c>
+      <c r="O74" t="b">
+        <v>1</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>[213, 4, 12, 143, 21, 45, 31]</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>[1, 0, 0, 0, 1, 0, 1]</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>[2.438930034637451, 2.892810106277466, 3.05875825881958, 3.2652087211608887, 3.3660900592803955, 3.366905927658081, 3.3683085441589355]</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>[213, 21, 31, 98, 15, 162, 230]</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>[2.438930034637451, 3.3660900592803955, 3.3683085441589355, 3.4459431171417236, 3.853670597076416, 3.855963706970215, 4.02028751373291]</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>2.975784213467954</v>
+      </c>
+      <c r="W74" t="n">
+        <v>2</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0.5885707141115961</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:02.982371</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="n">
+        <v>7</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="b">
+        <v>1</v>
+      </c>
+      <c r="O75" t="b">
+        <v>1</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>[80, 77, 166, 15, 162, 154, 26]</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>[2.6757636070251465, 2.7044990062713623, 2.7197983264923096, 2.9016168117523193, 2.9225013256073, 2.942232370376587, 3.1461429595947266]</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>[192, 46, 132, 47, 57, 174, 215]</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>[3.2580831050872803, 4.084439754486084, 4.126769542694092, 4.170461654663086, 4.410943031311035, 4.509369850158691, 4.529363632202148]</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2.712148664891839</v>
+      </c>
+      <c r="W75" t="n">
+        <v>4</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.5701856897535025</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.021346</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>4</v>
+      </c>
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>7</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="b">
+        <v>1</v>
+      </c>
+      <c r="O76" t="b">
+        <v>1</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>[204, 234, 213, 82, 21, 233, 74]</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>[2.855512857437134, 2.892810106277466, 3.3351550102233887, 3.570129871368408, 3.692901134490967, 3.7294578552246094, 3.8020641803741455]</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>[132, 29, 231, 214, 46, 99, 185]</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>[3.80755877494812, 4.013927459716797, 4.310241222381592, 4.3575615882873535, 4.607492923736572, 4.6674299240112305, 4.796318531036377]</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>3.113982524642906</v>
+      </c>
+      <c r="W76" t="n">
+        <v>2</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.4978905520555126</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>204</v>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.021346</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>20</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>7</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="b">
+        <v>1</v>
+      </c>
+      <c r="O77" t="b">
+        <v>1</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>[88, 172, 31, 199, 49, 174, 33]</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 1, 0, 1, 0]</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>[2.2010622024536133, 2.4883787631988525, 2.496741533279419, 2.8122408390045166, 2.8410656452178955, 2.9189939498901367, 2.981300115585327]</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>[199, 174, 73, 171, 134, 144, 35]</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>[2.8122408390045166, 2.9189939498901367, 3.1672825813293457, 3.3183071613311768, 3.606015682220459, 3.7732062339782715, 3.921017646789551]</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>2.492560104115504</v>
+      </c>
+      <c r="W77" t="n">
+        <v>6</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.5988914925221641</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>172</v>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.022345</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>24</v>
+      </c>
+      <c r="C78" t="n">
+        <v>3</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="n">
+        <v>7</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="b">
+        <v>1</v>
+      </c>
+      <c r="O78" t="b">
+        <v>1</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>[172, 129, 134, 126, 94, 44, 7]</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>[0, 0, 1, 1, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>[2.810544967651367, 2.944186210632324, 2.944685935974121, 3.019780158996582, 3.044435977935791, 3.2387642860412598, 3.375887155532837]</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>[134, 126, 199, 174, 73, 20, 171]</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>[2.944685935974121, 3.019780158996582, 3.812140703201294, 4.013960838317871, 4.053743362426758, 4.275519371032715, 4.295130729675293]</t>
+        </is>
+      </c>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2.944436113392636</v>
+      </c>
+      <c r="W78" t="n">
+        <v>6</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0.4036150727231042</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>172</v>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.022345</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>29</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>7</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="b">
+        <v>1</v>
+      </c>
+      <c r="O79" t="b">
+        <v>1</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>[21, 191, 231, 227, 204, 57, 221]</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>[0, 0, 1, 0, 0, 1, 0]</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>[2.51462721824646, 2.7731921672821045, 2.999060869216919, 3.1764447689056396, 3.425769567489624, 3.6530215740203857, 3.6813976764678955]</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>[231, 57, 4, 228, 174, 132, 169]</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>[2.999060869216919, 3.6530215740203857, 4.013927459716797, 4.300497531890869, 4.325685977935791, 4.344544887542725, 4.539185047149658]</t>
+        </is>
+      </c>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>2.886126419135917</v>
+      </c>
+      <c r="W79" t="n">
+        <v>4</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.576527268637868</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.022345</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>35</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>7</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="b">
+        <v>1</v>
+      </c>
+      <c r="O80" t="b">
+        <v>1</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>[148, 128, 230, 119, 232, 33, 26]</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>[2.5760011672973633, 2.784008741378784, 3.027193784713745, 3.0622122287750244, 3.0711817741394043, 3.1157333850860596, 3.169339895248413]</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>[99, 199, 215, 228, 20, 78, 174]</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>[3.4568119049072266, 3.612487554550171, 3.630208969116211, 3.7829055786132812, 3.921017646789551, 3.921473503112793, 4.1433820724487305]</t>
+        </is>
+      </c>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2.905601330219893</v>
+      </c>
+      <c r="W80" t="n">
+        <v>2</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.4081550283109528</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>128</v>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.022345</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>46</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>7</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="b">
+        <v>1</v>
+      </c>
+      <c r="O81" t="b">
+        <v>1</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>[161, 238, 15, 30, 80, 69, 144]</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>[1.5419940948486328, 1.9929872751235962, 2.339595079421997, 2.763245105743408, 2.7793664932250977, 2.7970752716064453, 2.8210320472717285]</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>[144, 174, 132, 73, 99, 192, 228]</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>[2.8210320472717285, 3.3357131481170654, 3.622831344604492, 3.9319558143615723, 3.933823585510254, 4.0271315574646, 4.059415817260742]</t>
+        </is>
+      </c>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2.166291098978565</v>
+      </c>
+      <c r="W81" t="n">
+        <v>7</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.5675420211814656</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>238</v>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.022345</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>47</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3</v>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>7</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="b">
+        <v>1</v>
+      </c>
+      <c r="O82" t="b">
+        <v>1</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>[0, 166, 181, 162, 154, 77, 26]</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>[4.170461654663086, 4.872949123382568, 4.925497055053711, 5.1209940910339355, 5.136565208435059, 5.141607761383057, 5.248001575469971]</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>[0, 109, 78, 215, 192, 35, 199]</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>[4.170461654663086, 5.372171878814697, 5.382401466369629, 5.415670871734619, 5.448429584503174, 6.051995277404785, 6.3810505867004395]</t>
+        </is>
+      </c>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>4.899223128067487</v>
+      </c>
+      <c r="W82" t="n">
+        <v>4</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.516137324287291</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>166</v>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.022345</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>57</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>7</v>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="b">
+        <v>1</v>
+      </c>
+      <c r="O83" t="b">
+        <v>1</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>[83, 91, 26, 80, 99, 22, 29]</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 1, 0, 1]</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>[3.0064890384674072, 3.1686296463012695, 3.1776034832000732, 3.263902187347412, 3.5256705284118652, 3.6433658599853516, 3.6530215740203857]</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>[99, 29, 174, 46, 231, 126, 228]</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>[3.5256705284118652, 3.6530215740203857, 4.069103240966797, 4.169571399688721, 4.243007659912109, 4.318285942077637, 4.335681915283203]</t>
+        </is>
+      </c>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>3.173116491790445</v>
+      </c>
+      <c r="W83" t="n">
+        <v>2</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.4444215620941461</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>91</v>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.022345</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>73</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>7</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="b">
+        <v>1</v>
+      </c>
+      <c r="O84" t="b">
+        <v>1</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>[171, 172, 174, 153, 129, 206, 88]</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>[0.8526129126548767, 2.1276609897613525, 2.1540064811706543, 2.408216714859009, 2.439350128173828, 2.683232307434082, 2.8426625728607178]</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>[171, 174, 199, 20, 144, 134, 228]</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>[0.8526129126548767, 2.1540064811706543, 2.93046498298645, 3.1672825813293457, 3.390305995941162, 3.5318410396575928, 3.7233822345733643]</t>
+        </is>
+      </c>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>2.140833741015508</v>
+      </c>
+      <c r="W84" t="n">
+        <v>5</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.44571000435946</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>171</v>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.022345</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>78</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>7</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="b">
+        <v>1</v>
+      </c>
+      <c r="O85" t="b">
+        <v>1</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>[119, 230, 60, 199, 35, 9, 94]</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 1, 1, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>[3.2573232650756836, 3.2879440784454346, 3.4400346279144287, 3.6285276412963867, 3.921473503112793, 4.102041244506836, 4.110835552215576]</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>[199, 35, 215, 73, 24, 20, 171]</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>[3.6285276412963867, 3.921473503112793, 4.162637233734131, 4.20314359664917, 4.595165729522705, 4.62293815612793, 4.7929840087890625]</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>3.36398930902997</v>
+      </c>
+      <c r="W85" t="n">
+        <v>4</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0.5470432238481544</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>230</v>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.022345</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>99</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>7</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="b">
+        <v>1</v>
+      </c>
+      <c r="O86" t="b">
+        <v>1</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>[83, 176, 128, 200, 49, 23, 232]</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>[1.8855911493301392, 2.0931923389434814, 2.0941412448883057, 2.1085073947906494, 2.494000196456909, 2.647735357284546, 2.7094876766204834]</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>[199, 35, 57, 228, 215, 174, 46]</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>[2.9013891220092773, 3.4568119049072266, 3.5256705284118652, 3.542330503463745, 3.60868501663208, 3.8566064834594727, 3.933823585510254]</t>
+        </is>
+      </c>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>2.093666757006604</v>
+      </c>
+      <c r="W86" t="n">
+        <v>2</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.4833019895740732</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>176</v>
+      </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.023338</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>109</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3</v>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>7</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="b">
+        <v>1</v>
+      </c>
+      <c r="O87" t="b">
+        <v>1</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>[214, 138, 9, 211, 50, 40, 108]</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>[4.4159674644470215, 4.571681499481201, 4.585533142089844, 4.802969932556152, 4.87502384185791, 5.019704341888428, 5.109274387359619]</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>[214, 138, 0, 47, 35, 185, 215]</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>[4.4159674644470215, 4.571681499481201, 5.12737512588501, 5.372171878814697, 5.559384346008301, 5.594293117523193, 5.710912227630615]</t>
+        </is>
+      </c>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>4.578607301991527</v>
+      </c>
+      <c r="W87" t="n">
+        <v>3</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.4062858371373469</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>214</v>
+      </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.023338</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>126</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>7</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="b">
+        <v>1</v>
+      </c>
+      <c r="O88" t="b">
+        <v>1</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>[203, 134, 22, 24, 44, 220, 129]</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>[0, 1, 0, 1, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>[2.7700212001800537, 2.8182311058044434, 2.9154648780822754, 3.019780158996582, 3.0957157611846924, 3.2063937187194824, 3.393965005874634]</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>[134, 24, 99, 199, 57, 231, 228]</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>[2.8182311058044434, 3.019780158996582, 3.976564884185791, 3.988842248916626, 4.318285942077637, 4.487721920013428, 4.615389347076416]</t>
+        </is>
+      </c>
+      <c r="U88" t="n">
+        <v>2</v>
+      </c>
+      <c r="V88" t="n">
+        <v>2.866848027539262</v>
+      </c>
+      <c r="W88" t="n">
+        <v>3</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0.4357645418442658</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>203</v>
+      </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.023338</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>132</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>7</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="b">
+        <v>1</v>
+      </c>
+      <c r="O89" t="b">
+        <v>1</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>[69, 158, 180, 221, 233, 95, 212]</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>[2.447383403778076, 2.6376616954803467, 2.6756088733673096, 2.6934051513671875, 2.770472288131714, 2.8144350051879883, 2.880516529083252]</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>[192, 144, 46, 4, 199, 20, 0]</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>[3.073610782623291, 3.3203063011169434, 3.622831344604492, 3.80755877494812, 3.8963606357574463, 4.073873519897461, 4.126769542694092]</t>
+        </is>
+      </c>
+      <c r="U89" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>2.656635308657509</v>
+      </c>
+      <c r="W89" t="n">
+        <v>5</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0.4646405864041511</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>69</v>
+      </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.023338</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>134</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3</v>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>7</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="b">
+        <v>1</v>
+      </c>
+      <c r="O90" t="b">
+        <v>1</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>[203, 172, 126, 22, 24, 129, 88]</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>[0, 0, 1, 0, 1, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>[2.355604410171509, 2.738722562789917, 2.8182311058044434, 2.8766744136810303, 2.944685935974121, 3.1398518085479736, 3.1657588481903076]</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>[126, 24, 174, 171, 73, 20, 199]</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>[2.8182311058044434, 2.944685935974121, 3.25577449798584, 3.382885694503784, 3.5318410396575928, 3.606015682220459, 3.8974387645721436]</t>
+        </is>
+      </c>
+      <c r="U90" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>2.778476844688952</v>
+      </c>
+      <c r="W90" t="n">
+        <v>5</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0.5880266884915557</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>172</v>
+      </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.023338</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>138</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3</v>
+      </c>
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>7</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="b">
+        <v>1</v>
+      </c>
+      <c r="O91" t="b">
+        <v>1</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[21, 45, 40, 214, 9, 72, 123]</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 1, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>[3.5029406547546387, 3.5769991874694824, 3.909644842147827, 3.9858481884002686, 4.070870399475098, 4.113431453704834, 4.132465839385986]</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>[214, 35, 228, 174, 109, 185, 29]</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>[3.9858481884002686, 4.300171852111816, 4.379520893096924, 4.548788547515869, 4.571681499481201, 4.804884433746338, 4.833617210388184]</t>
+        </is>
+      </c>
+      <c r="U91" t="n">
+        <v>2</v>
+      </c>
+      <c r="V91" t="n">
+        <v>3.74332215950417</v>
+      </c>
+      <c r="W91" t="n">
+        <v>6</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.5570681302227887</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.023338</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>144</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>7</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="b">
+        <v>1</v>
+      </c>
+      <c r="O92" t="b">
+        <v>1</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>[180, 153, 31, 69, 17, 238, 46]</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>[2.2331972122192383, 2.287184715270996, 2.3900933265686035, 2.5781495571136475, 2.585651159286499, 2.7923738956451416, 2.8210320472717285]</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>[46, 132, 199, 73, 171, 174, 20]</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>[2.8210320472717285, 3.3203063011169434, 3.3311190605163574, 3.390305995941162, 3.406442642211914, 3.5851521492004395, 3.7732062339782715]</t>
+        </is>
+      </c>
+      <c r="U92" t="n">
+        <v>2</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2.33863888297737</v>
+      </c>
+      <c r="W92" t="n">
+        <v>4</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0.5082895947655132</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>180</v>
+      </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.023338</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>169</v>
+      </c>
+      <c r="C93" t="n">
+        <v>3</v>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>7</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="b">
+        <v>1</v>
+      </c>
+      <c r="O93" t="b">
+        <v>1</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[2, 13, 225, 184, 62, 224, 101]</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>[2.529232978820801, 2.6475868225097656, 2.9192450046539307, 3.2625510692596436, 3.565176010131836, 3.603900671005249, 3.717499017715454]</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>[29, 231, 4, 0, 192, 214, 46]</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>[4.539185047149658, 4.75003719329834, 4.811055660247803, 5.1314167976379395, 5.455202579498291, 5.5258564949035645, 5.601914405822754]</t>
+        </is>
+      </c>
+      <c r="U93" t="n">
+        <v>2</v>
+      </c>
+      <c r="V93" t="n">
+        <v>2.783415981279781</v>
+      </c>
+      <c r="W93" t="n">
+        <v>6</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.5693322284476612</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.023338</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>171</v>
+      </c>
+      <c r="C94" t="n">
+        <v>3</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>7</v>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="b">
+        <v>1</v>
+      </c>
+      <c r="O94" t="b">
+        <v>1</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>[73, 153, 172, 174, 129, 206, 88]</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>[0.8526129126548767, 2.3779051303863525, 2.5295732021331787, 2.5605993270874023, 2.817239284515381, 2.878532886505127, 2.960557460784912]</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>[73, 174, 199, 20, 134, 144, 228]</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>[0.8526129126548767, 2.5605993270874023, 3.209779977798462, 3.3183071613311768, 3.382885694503784, 3.406442642211914, 4.106466293334961]</t>
+        </is>
+      </c>
+      <c r="U94" t="n">
+        <v>2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>2.453739160365515</v>
+      </c>
+      <c r="W94" t="n">
+        <v>4</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0.480901625424438</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>153</v>
+      </c>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.023338</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>174</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3</v>
+      </c>
+      <c r="D95" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>7</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="b">
+        <v>0</v>
+      </c>
+      <c r="O95" t="b">
+        <v>1</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>[111, 172, 73, 228, 129, 216, 171]</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>[0, 0, 1, 1, 0, 0, 1]</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>[2.013173818588257, 2.0827512741088867, 2.1540064811706543, 2.4119300842285156, 2.4664673805236816, 2.5234546661376953, 2.5605993270874023]</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>[73, 228, 171, 20, 134, 46, 199]</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>[2.1540064811706543, 2.4119300842285156, 2.5605993270874023, 2.9189939498901367, 3.25577449798584, 3.3357131481170654, 3.521355152130127]</t>
+        </is>
+      </c>
+      <c r="U95" t="n">
+        <v>2</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.118378902185254</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0</v>
+      </c>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.023338</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>185</v>
+      </c>
+      <c r="C96" t="n">
+        <v>3</v>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>7</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="b">
+        <v>1</v>
+      </c>
+      <c r="O96" t="b">
+        <v>1</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>[50, 166, 213, 33, 234, 77, 21]</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>[2.909280776977539, 3.741076707839966, 3.9991860389709473, 4.0342864990234375, 4.051259994506836, 4.122927188873291, 4.282210826873779]</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>[174, 29, 4, 138, 20, 228, 231]</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>[4.723959922790527, 4.767340183258057, 4.796318531036377, 4.804884433746338, 4.868603706359863, 4.978850841522217, 5.027871608734131]</t>
+        </is>
+      </c>
+      <c r="U96" t="n">
+        <v>2</v>
+      </c>
+      <c r="V96" t="n">
+        <v>3.870131534602306</v>
+      </c>
+      <c r="W96" t="n">
+        <v>4</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.4913069140965821</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>166</v>
+      </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.023338</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>192</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3</v>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>7</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="b">
+        <v>1</v>
+      </c>
+      <c r="O97" t="b">
+        <v>1</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>[30, 154, 80, 95, 15, 166, 132]</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>[2.3638596534729004, 2.8793983459472656, 2.960233449935913, 3.033637523651123, 3.0403988361358643, 3.0554563999176025, 3.073610782623291]</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>[132, 0, 46, 199, 215, 174, 144]</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>[3.073610782623291, 3.2580831050872803, 4.0271315574646, 4.4365034103393555, 4.6978068351745605, 4.744865417480469, 4.745926856994629]</t>
+        </is>
+      </c>
+      <c r="U97" t="n">
+        <v>2</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.919815856103789</v>
+      </c>
+      <c r="W97" t="n">
+        <v>5</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.5632863746438768</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.024345</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>199</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>7</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="b">
+        <v>1</v>
+      </c>
+      <c r="O98" t="b">
+        <v>1</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>[230, 88, 176, 232, 129, 7, 23]</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>[1.3938581943511963, 1.8234413862228394, 2.0355653762817383, 2.1666834354400635, 2.4049243927001953, 2.406520128250122, 2.5560109615325928]</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>[20, 99, 73, 171, 215, 144, 174]</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>[2.8122408390045166, 2.9013891220092773, 2.93046498298645, 3.209779977798462, 3.227172613143921, 3.3311190605163574, 3.521355152130127]</t>
+        </is>
+      </c>
+      <c r="U98" t="n">
+        <v>2</v>
+      </c>
+      <c r="V98" t="n">
+        <v>1.929503358638236</v>
+      </c>
+      <c r="W98" t="n">
+        <v>5</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.4557742705184364</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>230</v>
+      </c>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.024345</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>214</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3</v>
+      </c>
+      <c r="D99" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>7</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.9852281360342515</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="b">
+        <v>0</v>
+      </c>
+      <c r="O99" t="b">
+        <v>1</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>[138, 213, 45, 4, 68, 109, 50]</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>[1, 0, 0, 1, 0, 1, 0]</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>[3.9858481884002686, 4.334018707275391, 4.357304096221924, 4.3575615882873535, 4.389517784118652, 4.4159674644470215, 4.527856826782227]</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>[138, 4, 109, 0, 29, 35, 231]</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>[3.9858481884002686, 4.3575615882873535, 4.4159674644470215, 4.67481803894043, 4.9195075035095215, 4.96867036819458, 5.145026206970215]</t>
+        </is>
+      </c>
+      <c r="U99" t="n">
+        <v>2</v>
+      </c>
+      <c r="V99" t="n">
+        <v>4.345661341026309</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0</v>
+      </c>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.024345</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>215</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3</v>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" t="n">
+        <v>7</v>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="b">
+        <v>1</v>
+      </c>
+      <c r="O100" t="b">
+        <v>1</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>[83, 230, 26, 232, 176, 199, 91]</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>[2.4112184047698975, 2.924050807952881, 2.9326298236846924, 3.0970330238342285, 3.222374200820923, 3.227172613143921, 3.28189754486084]</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>[199, 99, 35, 78, 57, 0, 231]</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>[3.227172613143921, 3.60868501663208, 3.630208969116211, 4.162637233734131, 4.34523868560791, 4.529363632202148, 4.6430559158325195]</t>
+        </is>
+      </c>
+      <c r="U100" t="n">
+        <v>2</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2.928340292330329</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0.4807672342116082</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>83</v>
+      </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.024345</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>228</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3</v>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" t="n">
+        <v>7</v>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="b">
+        <v>1</v>
+      </c>
+      <c r="O101" t="b">
+        <v>1</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>[111, 216, 174, 129, 148, 23, 172]</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>[1.3096520900726318, 2.3167550563812256, 2.4119300842285156, 2.765831232070923, 3.0016419887542725, 3.001999855041504, 3.0416619777679443]</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>[174, 99, 73, 35, 134, 46, 20]</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>[2.4119300842285156, 3.542330503463745, 3.7233822345733643, 3.7829055786132812, 3.933105230331421, 4.059415817260742, 4.06618070602417]</t>
+        </is>
+      </c>
+      <c r="U101" t="n">
+        <v>2</v>
+      </c>
+      <c r="V101" t="n">
+        <v>2.36434254842358</v>
+      </c>
+      <c r="W101" t="n">
+        <v>3</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0.4567841949474932</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>111</v>
+      </c>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.024345</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>231</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3</v>
+      </c>
+      <c r="D102" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" t="n">
+        <v>7</v>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.8631205685666311</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>entropia</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.5916727785823274</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="b">
+        <v>1</v>
+      </c>
+      <c r="O102" t="b">
+        <v>1</v>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>[29, 21, 50, 26, 227, 91, 44]</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>[2.999060869216919, 3.5367958545684814, 3.581364870071411, 3.7863786220550537, 3.897895336151123, 3.98178768157959, 4.065807819366455]</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>[29, 57, 4, 126, 99, 215, 169]</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>[2.999060869216919, 4.243007659912109, 4.310241222381592, 4.487721920013428, 4.523870944976807, 4.6430559158325195, 4.75003719329834]</t>
+        </is>
+      </c>
+      <c r="U102" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" t="n">
         <v>3.559080484587156</v>
       </c>
-      <c r="W60" t="n">
-        <v>6</v>
-      </c>
-      <c r="X60" t="n">
-        <v>0.4646405864041511</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>2025-10-29T23:40:24.513505</t>
+      <c r="W102" t="n">
+        <v>1</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0.4561869019374762</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>2025-11-02T02:11:03.025345</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:Z60">
+  <conditionalFormatting sqref="A2:Z102">
     <cfRule type="expression" priority="1" dxfId="0">
       <formula>=$D2=FALSE</formula>
     </cfRule>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R25_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R25_Pentropia.xlsx
@@ -598,7 +598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="b">
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.977574</t>
+          <t>2025-11-13T06:52:33.418453</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -686,7 +686,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -700,11 +700,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -741,13 +741,17 @@
         <v>1.714441116937857</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.4186205535611799</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>221</v>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.979584</t>
+          <t>2025-11-13T06:52:33.418453</t>
         </is>
       </c>
     </row>
@@ -774,7 +778,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -788,7 +792,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="b">
@@ -829,17 +833,17 @@
         <v>1.803395001051521</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4186205535611799</v>
+        <v>0.5443459042329746</v>
       </c>
       <c r="Y4" t="n">
         <v>31</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.980573</t>
+          <t>2025-11-13T06:52:33.418453</t>
         </is>
       </c>
     </row>
@@ -866,7 +870,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -880,7 +884,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="b">
@@ -921,17 +925,17 @@
         <v>2.234315576844593</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5215089703802877</v>
+        <v>0.5939169255529118</v>
       </c>
       <c r="Y5" t="n">
         <v>119</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.980573</t>
+          <t>2025-11-13T06:52:33.418453</t>
         </is>
       </c>
     </row>
@@ -958,7 +962,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -972,7 +976,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="b">
@@ -1013,17 +1017,17 @@
         <v>2.322388759208431</v>
       </c>
       <c r="W6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5939169255529118</v>
+        <v>0.4716931457088545</v>
       </c>
       <c r="Y6" t="n">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.981574</t>
+          <t>2025-11-13T06:52:33.418453</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -1050,7 +1054,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1064,11 +1068,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -1105,13 +1109,17 @@
         <v>1.654076123726956</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.571671760962744</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>26</v>
+      </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.981574</t>
+          <t>2025-11-13T06:52:33.418453</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1146,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1152,7 +1160,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="b">
@@ -1193,17 +1201,17 @@
         <v>2.046877489124725</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4716931457088545</v>
+        <v>0.5389569866079409</v>
       </c>
       <c r="Y8" t="n">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.981574</t>
+          <t>2025-11-13T06:52:33.418453</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1238,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1244,7 +1252,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="b">
@@ -1285,17 +1293,17 @@
         <v>1.837934537701638</v>
       </c>
       <c r="W9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X9" t="n">
-        <v>0.571671760962744</v>
+        <v>0.4868788731020857</v>
       </c>
       <c r="Y9" t="n">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.982576</t>
+          <t>2025-11-13T06:52:33.422594</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1330,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1336,7 +1344,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="b">
@@ -1377,17 +1385,17 @@
         <v>2.309985792869786</v>
       </c>
       <c r="W10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.4698419149225322</v>
       </c>
       <c r="Y10" t="n">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.982576</t>
+          <t>2025-11-13T06:52:33.423847</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1422,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1428,7 +1436,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="b">
@@ -1469,17 +1477,13 @@
         <v>1.928785842623751</v>
       </c>
       <c r="W11" t="n">
-        <v>5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.4868788731020857</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.983575</t>
+          <t>2025-11-13T06:52:33.423847</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1506,7 +1510,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1520,11 +1524,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
@@ -1561,17 +1565,13 @@
         <v>1.573468939206438</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.4698419149225322</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.983575</t>
+          <t>2025-11-13T06:52:33.423847</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="b">
@@ -1653,13 +1653,17 @@
         <v>2.05194608426208</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.5470432238481544</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15</v>
+      </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.984570</t>
+          <t>2025-11-13T06:52:33.424584</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1686,7 +1690,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1700,11 +1704,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
@@ -1741,13 +1745,17 @@
         <v>2.033688812867878</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.5800836114326661</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>232</v>
+      </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.985676</t>
+          <t>2025-11-13T06:52:33.424584</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1782,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1788,7 +1796,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="b">
@@ -1832,14 +1840,14 @@
         <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>0.5470432238481544</v>
+        <v>0.4609562516316058</v>
       </c>
       <c r="Y15" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.985676</t>
+          <t>2025-11-13T06:52:33.424584</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1866,7 +1874,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1880,11 +1888,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
@@ -1921,17 +1929,13 @@
         <v>1.911896050589188</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.5800836114326661</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.986254</t>
+          <t>2025-11-13T06:52:33.424584</t>
         </is>
       </c>
     </row>
@@ -1958,7 +1962,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1972,7 +1976,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="b">
@@ -2013,17 +2017,17 @@
         <v>1.817842277538554</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>0.4609562516316058</v>
+        <v>0.5045465658763988</v>
       </c>
       <c r="Y17" t="n">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.986867</t>
+          <t>2025-11-13T06:52:33.424584</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -2050,7 +2054,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2064,11 +2068,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
@@ -2105,17 +2109,13 @@
         <v>1.748777674464573</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.5521570097233794</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.986867</t>
+          <t>2025-11-13T06:52:33.424584</t>
         </is>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="b">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.987431</t>
+          <t>2025-11-13T06:52:33.424584</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="b">
@@ -2289,17 +2289,17 @@
         <v>2.179224466819925</v>
       </c>
       <c r="W20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>0.444853861892112</v>
+        <v>0.5712648583756185</v>
       </c>
       <c r="Y20" t="n">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.987995</t>
+          <t>2025-11-13T06:52:33.425591</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="b">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.987995</t>
+          <t>2025-11-13T06:52:33.425591</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2418,7 +2418,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2432,11 +2432,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
@@ -2473,17 +2473,13 @@
         <v>1.798402758453689</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0.4971227507172453</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.988557</t>
+          <t>2025-11-13T06:52:33.425591</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2506,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2524,7 +2520,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="b">
@@ -2565,17 +2561,17 @@
         <v>2.040142973060756</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>0.4048631932862908</v>
+        <v>0.4971227507172453</v>
       </c>
       <c r="Y23" t="n">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.989071</t>
+          <t>2025-11-13T06:52:33.425591</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2602,7 +2598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -2616,11 +2612,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
@@ -2657,13 +2653,17 @@
         <v>1.593242342363332</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.4048631932862908</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>22</v>
+      </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.989116</t>
+          <t>2025-11-13T06:52:33.425591</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2690,7 +2690,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -2704,11 +2704,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
@@ -2745,17 +2745,13 @@
         <v>1.352527450267611</v>
       </c>
       <c r="W25" t="n">
-        <v>3</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.4744565533123486</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.989675</t>
+          <t>2025-11-13T06:52:33.425591</t>
         </is>
       </c>
     </row>
@@ -2772,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
@@ -2782,7 +2778,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2796,11 +2792,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -2837,13 +2833,17 @@
         <v>1.959254243825986</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.4744565533123486</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>83</v>
+      </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.989675</t>
+          <t>2025-11-13T06:52:33.425591</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -2870,7 +2870,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2884,11 +2884,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -2925,17 +2925,13 @@
         <v>1.938866846591789</v>
       </c>
       <c r="W27" t="n">
-        <v>5</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0.5153807769252718</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>222</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.990189</t>
+          <t>2025-11-13T06:52:33.425591</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -2962,7 +2958,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2976,11 +2972,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
@@ -3017,17 +3013,13 @@
         <v>1.891457596674842</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0.497348430591891</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.990229</t>
+          <t>2025-11-13T06:52:33.425591</t>
         </is>
       </c>
     </row>
@@ -3044,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -3054,7 +3046,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -3068,11 +3060,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L29" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -3109,13 +3101,17 @@
         <v>1.994710526848182</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.5153807769252718</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>238</v>
+      </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.990743</t>
+          <t>2025-11-13T06:52:33.426593</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
@@ -3142,7 +3138,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -3156,11 +3152,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
@@ -3197,13 +3193,17 @@
         <v>1.612076570831702</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.497348430591891</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>180</v>
+      </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.990784</t>
+          <t>2025-11-13T06:52:33.426593</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L31" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="b">
@@ -3285,7 +3285,7 @@
         <v>2.138998561913302</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X31" t="n">
         <v>0.4515883255430311</v>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.991338</t>
+          <t>2025-11-13T06:52:33.426593</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3322,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L32" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="b">
@@ -3377,17 +3377,17 @@
         <v>1.640133907892154</v>
       </c>
       <c r="W32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X32" t="n">
-        <v>0.4856368296634629</v>
+        <v>0.4646405864041511</v>
       </c>
       <c r="Y32" t="n">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.991338</t>
+          <t>2025-11-13T06:52:33.426593</t>
         </is>
       </c>
     </row>
@@ -3414,7 +3414,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L33" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="b">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.993873</t>
+          <t>2025-11-13T06:52:33.426593</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L34" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="b">
@@ -3561,17 +3561,17 @@
         <v>1.826617477483069</v>
       </c>
       <c r="W34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
-        <v>0.5045465658763988</v>
+        <v>0.5878997883128378</v>
       </c>
       <c r="Y34" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.994874</t>
+          <t>2025-11-13T06:52:33.426593</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L35" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="b">
@@ -3659,7 +3659,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.995875</t>
+          <t>2025-11-13T06:52:33.426593</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
@@ -3686,7 +3686,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -3700,11 +3700,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L36" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
@@ -3741,13 +3741,17 @@
         <v>1.778499208294157</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.4636006949943728</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>23</v>
+      </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.996872</t>
+          <t>2025-11-13T06:52:33.426593</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3778,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -3788,7 +3792,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L37" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="b">
@@ -3832,14 +3836,14 @@
         <v>4</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4636006949943728</v>
+        <v>0.5766988044532517</v>
       </c>
       <c r="Y37" t="n">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.998195</t>
+          <t>2025-11-13T06:52:33.427591</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3870,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -3880,7 +3884,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L38" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="b">
@@ -3921,17 +3925,13 @@
         <v>1.86755777956255</v>
       </c>
       <c r="W38" t="n">
-        <v>4</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0.5766988044532517</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>183</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.998722</t>
+          <t>2025-11-13T06:52:33.427591</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
@@ -3958,7 +3958,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -3972,11 +3972,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L39" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
@@ -4019,7 +4019,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.999745</t>
+          <t>2025-11-13T06:52:33.427591</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L40" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="b">
@@ -4101,13 +4101,17 @@
         <v>2.232703449477532</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.4161706652665431</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>229</v>
+      </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:19.999745</t>
+          <t>2025-11-13T06:52:33.427591</t>
         </is>
       </c>
     </row>
@@ -4124,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>7</v>
@@ -4134,7 +4138,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -4148,11 +4152,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L41" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -4189,13 +4193,17 @@
         <v>1.867902967647811</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.4460370536483111</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>15</v>
+      </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.000489</t>
+          <t>2025-11-13T06:52:33.427591</t>
         </is>
       </c>
     </row>
@@ -4212,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -4222,7 +4230,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -4236,11 +4244,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
@@ -4277,17 +4285,13 @@
         <v>1.711909496144319</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0.5960663167432091</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.001010</t>
+          <t>2025-11-13T06:52:33.427591</t>
         </is>
       </c>
     </row>
@@ -4304,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -4314,7 +4318,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -4328,11 +4332,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
@@ -4369,13 +4373,17 @@
         <v>1.906876234757517</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.4127116700572048</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>49</v>
+      </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.001010</t>
+          <t>2025-11-13T06:52:33.427591</t>
         </is>
       </c>
     </row>
@@ -4402,7 +4410,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -4416,7 +4424,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L44" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="b">
@@ -4457,17 +4465,17 @@
         <v>1.644528065423013</v>
       </c>
       <c r="W44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4161706652665431</v>
+        <v>0.444853861892112</v>
       </c>
       <c r="Y44" t="n">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.003035</t>
+          <t>2025-11-13T06:52:33.427591</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4502,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -4508,7 +4516,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L45" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="b">
@@ -4549,17 +4557,17 @@
         <v>1.651329488904762</v>
       </c>
       <c r="W45" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X45" t="n">
-        <v>0.4460370536483111</v>
+        <v>0.5422299064876035</v>
       </c>
       <c r="Y45" t="n">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.003916</t>
+          <t>2025-11-13T06:52:33.427591</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4594,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -4600,7 +4608,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L46" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="b">
@@ -4641,17 +4649,17 @@
         <v>2.70087547222259</v>
       </c>
       <c r="W46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4460370536483111</v>
+        <v>0.4588897784139171</v>
       </c>
       <c r="Y46" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.791188</t>
+          <t>2025-11-13T06:52:33.835701</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4686,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -4692,7 +4700,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L47" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="b">
@@ -4733,17 +4741,17 @@
         <v>1.625276499656459</v>
       </c>
       <c r="W47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X47" t="n">
-        <v>0.5789654700855298</v>
+        <v>0.5616240759128834</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.795322</t>
+          <t>2025-11-13T06:52:33.835701</t>
         </is>
       </c>
     </row>
@@ -4770,7 +4778,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -4784,7 +4792,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L48" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="b">
@@ -4825,17 +4833,17 @@
         <v>1.888512740684026</v>
       </c>
       <c r="W48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X48" t="n">
-        <v>0.570601891093472</v>
+        <v>0.444853861892112</v>
       </c>
       <c r="Y48" t="n">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.796382</t>
+          <t>2025-11-13T06:52:33.835701</t>
         </is>
       </c>
     </row>
@@ -4862,7 +4870,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -4876,7 +4884,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L49" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="b">
@@ -4917,17 +4925,17 @@
         <v>1.575951432831394</v>
       </c>
       <c r="W49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X49" t="n">
-        <v>0.449858445829775</v>
+        <v>0.5422299064876035</v>
       </c>
       <c r="Y49" t="n">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.796932</t>
+          <t>2025-11-13T06:52:33.835701</t>
         </is>
       </c>
     </row>
@@ -4954,7 +4962,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -4968,7 +4976,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L50" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="b">
@@ -5009,7 +5017,7 @@
         <v>1.678778917511117</v>
       </c>
       <c r="W50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X50" t="n">
         <v>0.5995480970097884</v>
@@ -5019,7 +5027,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.797642</t>
+          <t>2025-11-13T06:52:33.835701</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5054,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -5060,7 +5068,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L51" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="b">
@@ -5101,7 +5109,7 @@
         <v>1.730949828540154</v>
       </c>
       <c r="W51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X51" t="n">
         <v>0.516137324287291</v>
@@ -5111,7 +5119,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.797642</t>
+          <t>2025-11-13T06:52:33.835701</t>
         </is>
       </c>
     </row>
@@ -5138,7 +5146,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -5152,7 +5160,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="b">
@@ -5193,17 +5201,17 @@
         <v>2.470211820084005</v>
       </c>
       <c r="W52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X52" t="n">
-        <v>0.5424541179848884</v>
+        <v>0.5675420211814656</v>
       </c>
       <c r="Y52" t="n">
         <v>41</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.797642</t>
+          <t>2025-11-13T06:52:33.836702</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5238,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -5244,7 +5252,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L53" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="b">
@@ -5295,7 +5303,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.797642</t>
+          <t>2025-11-13T06:52:33.836702</t>
         </is>
       </c>
     </row>
@@ -5322,7 +5330,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -5336,7 +5344,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L54" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="b">
@@ -5380,14 +5388,14 @@
         <v>3</v>
       </c>
       <c r="X54" t="n">
-        <v>0.4013904261062382</v>
+        <v>0.585663712517545</v>
       </c>
       <c r="Y54" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.797642</t>
+          <t>2025-11-13T06:52:33.836702</t>
         </is>
       </c>
     </row>
@@ -5414,7 +5422,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -5428,7 +5436,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L55" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="b">
@@ -5469,13 +5477,17 @@
         <v>2.089864703434122</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.519579995762217</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>31</v>
+      </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.797642</t>
+          <t>2025-11-13T06:52:33.836702</t>
         </is>
       </c>
     </row>
@@ -5492,7 +5504,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
         <v>7</v>
@@ -5502,7 +5514,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -5516,11 +5528,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" t="b">
         <v>1</v>
@@ -5557,17 +5569,13 @@
         <v>1.930621396397587</v>
       </c>
       <c r="W56" t="n">
-        <v>5</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0.4323257428189228</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>153</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.797642</t>
+          <t>2025-11-13T06:52:33.836702</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5602,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -5608,7 +5616,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L57" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="b">
@@ -5649,17 +5657,17 @@
         <v>1.911379087493055</v>
       </c>
       <c r="W57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X57" t="n">
-        <v>0.4646405864041511</v>
+        <v>0.4323257428189228</v>
       </c>
       <c r="Y57" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.797642</t>
+          <t>2025-11-13T06:52:33.836702</t>
         </is>
       </c>
     </row>
@@ -5686,7 +5694,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -5700,7 +5708,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L58" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="b">
@@ -5741,17 +5749,17 @@
         <v>1.898609511862491</v>
       </c>
       <c r="W58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X58" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.4646405864041511</v>
       </c>
       <c r="Y58" t="n">
         <v>232</v>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.797642</t>
+          <t>2025-11-13T06:52:33.836702</t>
         </is>
       </c>
     </row>
@@ -5768,7 +5776,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5778,7 +5786,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -5792,11 +5800,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" t="b">
         <v>1</v>
@@ -5833,17 +5841,13 @@
         <v>1.895236590874932</v>
       </c>
       <c r="W59" t="n">
-        <v>2</v>
-      </c>
-      <c r="X59" t="n">
-        <v>0.4090454577821077</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.800666</t>
+          <t>2025-11-13T06:52:33.837701</t>
         </is>
       </c>
     </row>
@@ -5870,7 +5874,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -5884,7 +5888,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L60" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="b">
@@ -5925,17 +5929,17 @@
         <v>2.541027095624261</v>
       </c>
       <c r="W60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X60" t="n">
-        <v>0.405083825348819</v>
+        <v>0.5389569866079409</v>
       </c>
       <c r="Y60" t="n">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.800666</t>
+          <t>2025-11-13T06:52:33.837701</t>
         </is>
       </c>
     </row>
@@ -5952,7 +5956,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
@@ -5962,7 +5966,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -5976,11 +5980,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" t="b">
         <v>1</v>
@@ -6017,17 +6021,13 @@
         <v>1.790537967456421</v>
       </c>
       <c r="W61" t="n">
-        <v>5</v>
-      </c>
-      <c r="X61" t="n">
-        <v>0.5144008398418366</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.800666</t>
+          <t>2025-11-13T06:52:33.837701</t>
         </is>
       </c>
     </row>
@@ -6054,7 +6054,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L62" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="b">
@@ -6112,14 +6112,14 @@
         <v>2</v>
       </c>
       <c r="X62" t="n">
-        <v>0.5989101021594682</v>
+        <v>0.5766988044532517</v>
       </c>
       <c r="Y62" t="n">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.800666</t>
+          <t>2025-11-13T06:52:33.837701</t>
         </is>
       </c>
     </row>
@@ -6146,7 +6146,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L63" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="b">
@@ -6201,17 +6201,17 @@
         <v>1.998339108593484</v>
       </c>
       <c r="W63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X63" t="n">
-        <v>0.5383790395385386</v>
+        <v>0.405083825348819</v>
       </c>
       <c r="Y63" t="n">
         <v>80</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.800666</t>
+          <t>2025-11-13T06:52:33.837701</t>
         </is>
       </c>
     </row>
@@ -6238,7 +6238,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L64" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="b">
@@ -6293,17 +6293,17 @@
         <v>1.639255076186158</v>
       </c>
       <c r="W64" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X64" t="n">
-        <v>0.5712648583756185</v>
+        <v>0.5144008398418366</v>
       </c>
       <c r="Y64" t="n">
         <v>166</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.800666</t>
+          <t>2025-11-13T06:52:33.839992</t>
         </is>
       </c>
     </row>
@@ -6330,7 +6330,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L65" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="b">
@@ -6385,17 +6385,17 @@
         <v>1.97012312130098</v>
       </c>
       <c r="W65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X65" t="n">
-        <v>0.4521658349660818</v>
+        <v>0.5144584938341676</v>
       </c>
       <c r="Y65" t="n">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.800666</t>
+          <t>2025-11-13T06:52:33.839992</t>
         </is>
       </c>
     </row>
@@ -6422,7 +6422,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L66" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="b">
@@ -6477,17 +6477,17 @@
         <v>2.923450582907786</v>
       </c>
       <c r="W66" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X66" t="n">
-        <v>0.5153807769252718</v>
+        <v>0.4789382933618944</v>
       </c>
       <c r="Y66" t="n">
         <v>154</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.800666</t>
+          <t>2025-11-13T06:52:33.840993</t>
         </is>
       </c>
     </row>
@@ -6514,7 +6514,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L67" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="b">
@@ -6569,17 +6569,17 @@
         <v>2.061123711387564</v>
       </c>
       <c r="W67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X67" t="n">
-        <v>0.497348430591891</v>
+        <v>0.5712648583756185</v>
       </c>
       <c r="Y67" t="n">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.800666</t>
+          <t>2025-11-13T06:52:33.840993</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6606,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L68" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="b">
@@ -6661,17 +6661,17 @@
         <v>2.026462434890598</v>
       </c>
       <c r="W68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X68" t="n">
-        <v>0.5045465658763988</v>
+        <v>0.4521658349660818</v>
       </c>
       <c r="Y68" t="n">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.800666</t>
+          <t>2025-11-13T06:52:33.840993</t>
         </is>
       </c>
     </row>
@@ -6698,7 +6698,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L69" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="b">
@@ -6753,17 +6753,17 @@
         <v>2.819292856187221</v>
       </c>
       <c r="W69" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X69" t="n">
-        <v>0.4484319876554852</v>
+        <v>0.4633844010312556</v>
       </c>
       <c r="Y69" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.800666</t>
+          <t>2025-11-13T06:52:33.841992</t>
         </is>
       </c>
     </row>
@@ -6780,7 +6780,7 @@
         <v>2</v>
       </c>
       <c r="D70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -6790,7 +6790,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -6804,11 +6804,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="b">
         <v>1</v>
@@ -6845,17 +6845,13 @@
         <v>1.866028838004431</v>
       </c>
       <c r="W70" t="n">
-        <v>3</v>
-      </c>
-      <c r="X70" t="n">
-        <v>0.4544264498769271</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>183</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.800666</t>
+          <t>2025-11-13T06:52:33.841992</t>
         </is>
       </c>
     </row>
@@ -6882,7 +6878,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -6896,7 +6892,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L71" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="b">
@@ -6937,17 +6933,17 @@
         <v>2.251734167574515</v>
       </c>
       <c r="W71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X71" t="n">
-        <v>0.561900209227943</v>
+        <v>0.5860033669621664</v>
       </c>
       <c r="Y71" t="n">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.800666</t>
+          <t>2025-11-13T06:52:33.841992</t>
         </is>
       </c>
     </row>
@@ -6974,7 +6970,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -6988,7 +6984,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L72" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="b">
@@ -7029,7 +7025,7 @@
         <v>2.335352757072452</v>
       </c>
       <c r="W72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X72" t="n">
         <v>0.4557742705184364</v>
@@ -7039,7 +7035,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.800666</t>
+          <t>2025-11-13T06:52:33.841992</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7062,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -7080,7 +7076,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L73" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="b">
@@ -7121,17 +7117,17 @@
         <v>1.744990581515918</v>
       </c>
       <c r="W73" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X73" t="n">
-        <v>0.5906143694047906</v>
+        <v>0.4484319876554852</v>
       </c>
       <c r="Y73" t="n">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.800666</t>
+          <t>2025-11-13T06:52:33.842995</t>
         </is>
       </c>
     </row>
@@ -7158,7 +7154,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -7172,7 +7168,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L74" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="b">
@@ -7213,17 +7209,17 @@
         <v>1.975659737709924</v>
       </c>
       <c r="W74" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X74" t="n">
-        <v>0.4381822062300692</v>
+        <v>0.4705137712668338</v>
       </c>
       <c r="Y74" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:20.800666</t>
+          <t>2025-11-13T06:52:33.842995</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7246,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H75" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -7264,7 +7260,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="b">
@@ -7305,17 +7301,17 @@
         <v>1.96217666044828</v>
       </c>
       <c r="W75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X75" t="n">
-        <v>0.4588897784139171</v>
+        <v>0.4460370536483111</v>
       </c>
       <c r="Y75" t="n">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.922154</t>
+          <t>2025-11-13T06:52:34.485114</t>
         </is>
       </c>
     </row>
@@ -7342,7 +7338,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H76" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -7356,7 +7352,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L76" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="b">
@@ -7397,17 +7393,17 @@
         <v>2.127223458367889</v>
       </c>
       <c r="W76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X76" t="n">
-        <v>0.5616240759128834</v>
+        <v>0.5135400655639983</v>
       </c>
       <c r="Y76" t="n">
         <v>95</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.922154</t>
+          <t>2025-11-13T06:52:34.485114</t>
         </is>
       </c>
     </row>
@@ -7434,7 +7430,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H77" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -7448,7 +7444,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L77" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="b">
@@ -7489,7 +7485,7 @@
         <v>2.065490897445589</v>
       </c>
       <c r="W77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X77" t="n">
         <v>0.444853861892112</v>
@@ -7499,7 +7495,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.923182</t>
+          <t>2025-11-13T06:52:34.486121</t>
         </is>
       </c>
     </row>
@@ -7526,7 +7522,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H78" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -7540,7 +7536,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L78" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="b">
@@ -7591,7 +7587,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.923182</t>
+          <t>2025-11-13T06:52:34.486121</t>
         </is>
       </c>
     </row>
@@ -7618,7 +7614,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H79" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -7632,7 +7628,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L79" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="b">
@@ -7683,7 +7679,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.925176</t>
+          <t>2025-11-13T06:52:34.486121</t>
         </is>
       </c>
     </row>
@@ -7710,7 +7706,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H80" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -7724,7 +7720,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="b">
@@ -7775,7 +7771,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.926175</t>
+          <t>2025-11-13T06:52:34.486121</t>
         </is>
       </c>
     </row>
@@ -7802,7 +7798,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H81" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -7816,7 +7812,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L81" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="b">
@@ -7857,17 +7853,17 @@
         <v>1.758995504745408</v>
       </c>
       <c r="W81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X81" t="n">
-        <v>0.5881046528979208</v>
+        <v>0.5424541179848884</v>
       </c>
       <c r="Y81" t="n">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.927177</t>
+          <t>2025-11-13T06:52:34.486121</t>
         </is>
       </c>
     </row>
@@ -7894,7 +7890,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H82" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -7908,7 +7904,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L82" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="b">
@@ -7959,7 +7955,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.929092</t>
+          <t>2025-11-13T06:52:34.487118</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7982,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H83" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -8000,7 +7996,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L83" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="b">
@@ -8041,17 +8037,17 @@
         <v>2.38246441112088</v>
       </c>
       <c r="W83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X83" t="n">
-        <v>0.585663712517545</v>
+        <v>0.4013904261062382</v>
       </c>
       <c r="Y83" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.929092</t>
+          <t>2025-11-13T06:52:34.487118</t>
         </is>
       </c>
     </row>
@@ -8078,7 +8074,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H84" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -8092,7 +8088,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L84" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="b">
@@ -8143,7 +8139,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.930112</t>
+          <t>2025-11-13T06:52:34.487118</t>
         </is>
       </c>
     </row>
@@ -8170,7 +8166,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H85" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -8184,7 +8180,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L85" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="b">
@@ -8235,7 +8231,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.930112</t>
+          <t>2025-11-13T06:52:34.488118</t>
         </is>
       </c>
     </row>
@@ -8262,7 +8258,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H86" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -8276,7 +8272,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="b">
@@ -8317,7 +8313,7 @@
         <v>1.914143979237367</v>
       </c>
       <c r="W86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X86" t="n">
         <v>0.4646405864041511</v>
@@ -8327,7 +8323,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.930112</t>
+          <t>2025-11-13T06:52:34.492120</t>
         </is>
       </c>
     </row>
@@ -8344,7 +8340,7 @@
         <v>3</v>
       </c>
       <c r="D87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -8354,7 +8350,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H87" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -8368,11 +8364,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L87" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="b">
         <v>1</v>
@@ -8409,13 +8405,17 @@
         <v>3.33004649724527</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
-      </c>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.5389569866079409</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>214</v>
+      </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.931111</t>
+          <t>2025-11-13T06:52:34.492120</t>
         </is>
       </c>
     </row>
@@ -8442,7 +8442,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H88" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L88" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="b">
@@ -8497,17 +8497,17 @@
         <v>2.140192018834097</v>
       </c>
       <c r="W88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X88" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.5766988044532517</v>
       </c>
       <c r="Y88" t="n">
-        <v>232</v>
+        <v>95</v>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.931111</t>
+          <t>2025-11-13T06:52:34.492120</t>
         </is>
       </c>
     </row>
@@ -8534,7 +8534,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H89" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="b">
@@ -8589,17 +8589,17 @@
         <v>1.889484437385861</v>
       </c>
       <c r="W89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X89" t="n">
-        <v>0.5766988044532517</v>
+        <v>0.405083825348819</v>
       </c>
       <c r="Y89" t="n">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.932051</t>
+          <t>2025-11-13T06:52:34.492120</t>
         </is>
       </c>
     </row>
@@ -8626,7 +8626,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H90" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="b">
@@ -8681,17 +8681,17 @@
         <v>1.992836018344494</v>
       </c>
       <c r="W90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X90" t="n">
-        <v>0.405083825348819</v>
+        <v>0.5144008398418366</v>
       </c>
       <c r="Y90" t="n">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.932574</t>
+          <t>2025-11-13T06:52:34.492120</t>
         </is>
       </c>
     </row>
@@ -8718,7 +8718,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H91" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L91" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="b">
@@ -8773,17 +8773,17 @@
         <v>2.590859871159036</v>
       </c>
       <c r="W91" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X91" t="n">
-        <v>0.5144008398418366</v>
+        <v>0.5144584938341676</v>
       </c>
       <c r="Y91" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.932574</t>
+          <t>2025-11-13T06:52:34.493118</t>
         </is>
       </c>
     </row>
@@ -8810,7 +8810,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H92" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L92" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="b">
@@ -8865,17 +8865,17 @@
         <v>1.791676977912986</v>
       </c>
       <c r="W92" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X92" t="n">
-        <v>0.5144584938341676</v>
+        <v>0.4789382933618944</v>
       </c>
       <c r="Y92" t="n">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.933598</t>
+          <t>2025-11-13T06:52:34.493118</t>
         </is>
       </c>
     </row>
@@ -8902,7 +8902,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H93" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="b">
@@ -8957,17 +8957,17 @@
         <v>2.266515143809492</v>
       </c>
       <c r="W93" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X93" t="n">
-        <v>0.4789382933618944</v>
+        <v>0.5712648583756185</v>
       </c>
       <c r="Y93" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.933598</t>
+          <t>2025-11-13T06:52:34.493118</t>
         </is>
       </c>
     </row>
@@ -8994,7 +8994,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H94" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L94" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="b">
@@ -9049,17 +9049,17 @@
         <v>1.900635333699646</v>
       </c>
       <c r="W94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X94" t="n">
-        <v>0.5712648583756185</v>
+        <v>0.4521658349660818</v>
       </c>
       <c r="Y94" t="n">
-        <v>206</v>
+        <v>88</v>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.933598</t>
+          <t>2025-11-13T06:52:34.493118</t>
         </is>
       </c>
     </row>
@@ -9086,7 +9086,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H95" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L95" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="b">
@@ -9141,17 +9141,17 @@
         <v>1.711272511238302</v>
       </c>
       <c r="W95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X95" t="n">
-        <v>0.4521658349660818</v>
+        <v>0.4633844010312556</v>
       </c>
       <c r="Y95" t="n">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.934601</t>
+          <t>2025-11-13T06:52:34.493118</t>
         </is>
       </c>
     </row>
@@ -9178,7 +9178,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H96" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="b">
@@ -9233,17 +9233,17 @@
         <v>2.561267032525648</v>
       </c>
       <c r="W96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X96" t="n">
-        <v>0.4633844010312556</v>
+        <v>0.5860033669621664</v>
       </c>
       <c r="Y96" t="n">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.934601</t>
+          <t>2025-11-13T06:52:34.493118</t>
         </is>
       </c>
     </row>
@@ -9270,7 +9270,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H97" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L97" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="b">
@@ -9325,17 +9325,17 @@
         <v>2.214065652338276</v>
       </c>
       <c r="W97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X97" t="n">
-        <v>0.5860033669621664</v>
+        <v>0.5045465658763988</v>
       </c>
       <c r="Y97" t="n">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.935601</t>
+          <t>2025-11-13T06:52:34.494117</t>
         </is>
       </c>
     </row>
@@ -9362,7 +9362,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H98" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="b">
@@ -9417,17 +9417,17 @@
         <v>1.578089462306014</v>
       </c>
       <c r="W98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X98" t="n">
-        <v>0.5045465658763988</v>
+        <v>0.4484319876554852</v>
       </c>
       <c r="Y98" t="n">
         <v>129</v>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.935601</t>
+          <t>2025-11-13T06:52:34.494117</t>
         </is>
       </c>
     </row>
@@ -9454,7 +9454,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H99" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L99" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="b">
@@ -9509,17 +9509,17 @@
         <v>2.854787520397721</v>
       </c>
       <c r="W99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X99" t="n">
-        <v>0.4484319876554852</v>
+        <v>0.4544264498769271</v>
       </c>
       <c r="Y99" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.936600</t>
+          <t>2025-11-13T06:52:34.494117</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9546,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H100" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L100" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="b">
@@ -9601,17 +9601,17 @@
         <v>2.457965885458756</v>
       </c>
       <c r="W100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X100" t="n">
-        <v>0.4544264498769271</v>
+        <v>0.561900209227943</v>
       </c>
       <c r="Y100" t="n">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.936600</t>
+          <t>2025-11-13T06:52:34.494117</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H101" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L101" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="b">
@@ -9693,17 +9693,17 @@
         <v>1.984717865097859</v>
       </c>
       <c r="W101" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X101" t="n">
-        <v>0.5829919351087561</v>
+        <v>0.4557742705184364</v>
       </c>
       <c r="Y101" t="n">
         <v>111</v>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.945596</t>
+          <t>2025-11-13T06:52:34.494117</t>
         </is>
       </c>
     </row>
@@ -9730,7 +9730,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H102" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L102" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="b">
@@ -9785,17 +9785,17 @@
         <v>2.435118605829143</v>
       </c>
       <c r="W102" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X102" t="n">
-        <v>0.4557742705184364</v>
+        <v>0.4150692512012257</v>
       </c>
       <c r="Y102" t="n">
         <v>26</v>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:21.946595</t>
+          <t>2025-11-13T06:52:34.494117</t>
         </is>
       </c>
     </row>
@@ -9822,7 +9822,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H103" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="b">
@@ -9877,17 +9877,17 @@
         <v>1.872684301222326</v>
       </c>
       <c r="W103" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="X103" t="n">
-        <v>0.501762815367752</v>
+        <v>0.4543085831639484</v>
       </c>
       <c r="Y103" t="n">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:23.560121</t>
+          <t>2025-11-13T06:52:34.868519</t>
         </is>
       </c>
     </row>
@@ -9914,7 +9914,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H104" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L104" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="b">
@@ -9969,17 +9969,17 @@
         <v>2.894769969471886</v>
       </c>
       <c r="W104" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="X104" t="n">
-        <v>0.4512413887188916</v>
+        <v>0.4789382933618944</v>
       </c>
       <c r="Y104" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:23.561121</t>
+          <t>2025-11-13T06:52:34.868519</t>
         </is>
       </c>
     </row>
@@ -9996,7 +9996,7 @@
         <v>4</v>
       </c>
       <c r="D105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -10006,7 +10006,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H105" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -10020,11 +10020,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L105" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O105" t="b">
         <v>1</v>
@@ -10061,13 +10061,17 @@
         <v>2.330391793602711</v>
       </c>
       <c r="W105" t="n">
-        <v>0</v>
-      </c>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="X105" t="n">
+        <v>0.5488085285998231</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>166</v>
+      </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:23.561121</t>
+          <t>2025-11-13T06:52:34.868519</t>
         </is>
       </c>
     </row>
@@ -10084,7 +10088,7 @@
         <v>4</v>
       </c>
       <c r="D106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -10094,7 +10098,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H106" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -10108,11 +10112,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L106" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O106" t="b">
         <v>1</v>
@@ -10149,13 +10153,17 @@
         <v>2.082021857441931</v>
       </c>
       <c r="W106" t="n">
-        <v>0</v>
-      </c>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0.5939073734228317</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>43</v>
+      </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:23.562119</t>
+          <t>2025-11-13T06:52:34.868519</t>
         </is>
       </c>
     </row>
@@ -10182,7 +10190,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H107" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -10196,7 +10204,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L107" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="b">
@@ -10240,14 +10248,14 @@
         <v>12</v>
       </c>
       <c r="X107" t="n">
-        <v>0.4323257428189228</v>
+        <v>0.5684046150023963</v>
       </c>
       <c r="Y107" t="n">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:23.562119</t>
+          <t>2025-11-13T06:52:34.868519</t>
         </is>
       </c>
     </row>
@@ -10274,7 +10282,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H108" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -10288,7 +10296,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L108" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="b">
@@ -10329,17 +10337,17 @@
         <v>2.31173479386464</v>
       </c>
       <c r="W108" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="X108" t="n">
-        <v>0.4141881833999855</v>
+        <v>0.425412102530377</v>
       </c>
       <c r="Y108" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:23.562119</t>
+          <t>2025-11-13T06:52:34.868519</t>
         </is>
       </c>
     </row>
@@ -10366,7 +10374,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H109" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -10380,7 +10388,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L109" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="b">
@@ -10421,17 +10429,17 @@
         <v>1.696862696367663</v>
       </c>
       <c r="W109" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X109" t="n">
-        <v>0.510552993367098</v>
+        <v>0.493119603626492</v>
       </c>
       <c r="Y109" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:23.563117</t>
+          <t>2025-11-13T06:52:34.868519</t>
         </is>
       </c>
     </row>
@@ -10458,7 +10466,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H110" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -10472,7 +10480,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="b">
@@ -10513,17 +10521,17 @@
         <v>3.011170816582051</v>
       </c>
       <c r="W110" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="X110" t="n">
-        <v>0.577323429790132</v>
+        <v>0.4163188360800481</v>
       </c>
       <c r="Y110" t="n">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:23.563117</t>
+          <t>2025-11-13T06:52:34.868519</t>
         </is>
       </c>
     </row>
@@ -10550,7 +10558,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H111" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -10564,7 +10572,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="b">
@@ -10605,17 +10613,17 @@
         <v>2.700650571686993</v>
       </c>
       <c r="W111" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X111" t="n">
-        <v>0.5157729791015118</v>
+        <v>0.5947327673510634</v>
       </c>
       <c r="Y111" t="n">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:23.564116</t>
+          <t>2025-11-13T06:52:34.868519</t>
         </is>
       </c>
     </row>
@@ -10642,7 +10650,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H112" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -10656,7 +10664,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="b">
@@ -10697,17 +10705,17 @@
         <v>2.699512013925247</v>
       </c>
       <c r="W112" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="X112" t="n">
-        <v>0.493119603626492</v>
+        <v>0.436866734866274</v>
       </c>
       <c r="Y112" t="n">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:23.564116</t>
+          <t>2025-11-13T06:52:34.868519</t>
         </is>
       </c>
     </row>
